--- a/right_wrist_Data.xlsx
+++ b/right_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>381.2904357910156</v>
+        <v>260.3293762207031</v>
       </c>
       <c r="C2" t="n">
-        <v>373.0591125488281</v>
+        <v>280.7681884765625</v>
       </c>
       <c r="D2" t="n">
-        <v>370.6016235351562</v>
+        <v>240.1661529541016</v>
       </c>
       <c r="E2" t="n">
-        <v>369.1704711914062</v>
+        <v>234.0342712402344</v>
       </c>
       <c r="F2" t="n">
-        <v>368.6457824707031</v>
+        <v>278.3940734863281</v>
       </c>
       <c r="G2" t="n">
-        <v>369.0363159179688</v>
+        <v>242.3516540527344</v>
       </c>
       <c r="H2" t="n">
-        <v>369.6007690429688</v>
+        <v>245.7123413085938</v>
       </c>
       <c r="I2" t="n">
-        <v>369.4718017578125</v>
+        <v>278.2579650878906</v>
       </c>
       <c r="J2" t="n">
-        <v>368.9132995605469</v>
+        <v>244.57177734375</v>
       </c>
       <c r="K2" t="n">
-        <v>367.297607421875</v>
+        <v>241.837890625</v>
       </c>
       <c r="L2" t="n">
-        <v>366.8412475585938</v>
+        <v>278.5650939941406</v>
       </c>
       <c r="M2" t="n">
-        <v>366.2417907714844</v>
+        <v>244.6366271972656</v>
       </c>
       <c r="N2" t="n">
-        <v>365.8025817871094</v>
+        <v>245.3623962402344</v>
       </c>
       <c r="O2" t="n">
-        <v>365.6877136230469</v>
+        <v>279.2393493652344</v>
       </c>
       <c r="P2" t="n">
-        <v>365.4915771484375</v>
+        <v>279.5050354003906</v>
       </c>
       <c r="Q2" t="n">
-        <v>362.8114624023438</v>
+        <v>279.4508056640625</v>
       </c>
       <c r="R2" t="n">
-        <v>356.9909057617188</v>
+        <v>279.4859008789062</v>
       </c>
       <c r="S2" t="n">
-        <v>351.1249389648438</v>
+        <v>265.477783203125</v>
       </c>
       <c r="T2" t="n">
-        <v>347.2145385742188</v>
+        <v>253.0431823730469</v>
       </c>
       <c r="U2" t="n">
-        <v>344.9005737304688</v>
+        <v>279.3082580566406</v>
       </c>
       <c r="V2" t="n">
-        <v>342.6245727539062</v>
+        <v>243.6957550048828</v>
       </c>
       <c r="W2" t="n">
-        <v>341.3875732421875</v>
+        <v>246.059326171875</v>
       </c>
       <c r="X2" t="n">
-        <v>340.4013061523438</v>
+        <v>278.8323974609375</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.7916870117188</v>
+        <v>245.962890625</v>
       </c>
       <c r="Z2" t="n">
-        <v>337.1209106445312</v>
+        <v>245.3189849853516</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.1552124023438</v>
+        <v>278.4082946777344</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.9328308105469</v>
+        <v>246.4730072021484</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.5450439453125</v>
+        <v>246.2092895507812</v>
       </c>
       <c r="AD2" t="n">
-        <v>325.0970764160156</v>
+        <v>277.9528198242188</v>
       </c>
       <c r="AE2" t="n">
-        <v>325.6863098144531</v>
+        <v>247.7401885986328</v>
       </c>
       <c r="AF2" t="n">
-        <v>326.1698913574219</v>
+        <v>247.9103393554688</v>
       </c>
       <c r="AG2" t="n">
-        <v>327.5771789550781</v>
+        <v>278.2771606445312</v>
       </c>
       <c r="AH2" t="n">
-        <v>328.6608276367188</v>
+        <v>278.1279907226562</v>
       </c>
       <c r="AI2" t="n">
-        <v>329.2828063964844</v>
+        <v>278.2228393554688</v>
       </c>
       <c r="AJ2" t="n">
-        <v>330.195068359375</v>
+        <v>278.873779296875</v>
       </c>
       <c r="AK2" t="n">
-        <v>331.4212036132812</v>
+        <v>263.3324890136719</v>
       </c>
       <c r="AL2" t="n">
-        <v>331.843505859375</v>
+        <v>280.7886657714844</v>
       </c>
       <c r="AM2" t="n">
-        <v>331.864013671875</v>
+        <v>250.5047912597656</v>
       </c>
       <c r="AN2" t="n">
-        <v>331.6859130859375</v>
+        <v>279.8558959960938</v>
       </c>
       <c r="AO2" t="n">
-        <v>331.5079345703125</v>
+        <v>247.8890228271484</v>
       </c>
       <c r="AP2" t="n">
-        <v>331.392578125</v>
+        <v>279.66259765625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>330.9080810546875</v>
+        <v>241.0659790039062</v>
       </c>
       <c r="AR2" t="n">
-        <v>330.0857543945312</v>
+        <v>260.1044921875</v>
       </c>
       <c r="AS2" t="n">
-        <v>327.9278564453125</v>
+        <v>307.36572265625</v>
       </c>
       <c r="AT2" t="n">
-        <v>323.0177612304688</v>
+        <v>271.4332885742188</v>
       </c>
       <c r="AU2" t="n">
-        <v>317.7658386230469</v>
+        <v>272.9981994628906</v>
       </c>
       <c r="AV2" t="n">
-        <v>315.0328674316406</v>
+        <v>277.6580810546875</v>
       </c>
       <c r="AW2" t="n">
-        <v>312.5231323242188</v>
+        <v>293.9955444335938</v>
       </c>
       <c r="AX2" t="n">
-        <v>310.0093078613281</v>
+        <v>312.8202819824219</v>
       </c>
       <c r="AY2" t="n">
-        <v>308.77734375</v>
+        <v>327.5858154296875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>308.9816589355469</v>
+        <v>336.1117858886719</v>
       </c>
       <c r="BA2" t="n">
-        <v>309.2963562011719</v>
+        <v>341.4575500488281</v>
       </c>
       <c r="BB2" t="n">
-        <v>308.9608764648438</v>
+        <v>343.59765625</v>
       </c>
       <c r="BC2" t="n">
-        <v>308.9363708496094</v>
+        <v>347.0531616210938</v>
       </c>
       <c r="BD2" t="n">
-        <v>308.9996337890625</v>
+        <v>353.6824035644531</v>
       </c>
       <c r="BE2" t="n">
-        <v>309.4414672851562</v>
+        <v>361.0931701660156</v>
       </c>
       <c r="BF2" t="n">
-        <v>309.1477355957031</v>
+        <v>361.3829956054688</v>
       </c>
       <c r="BG2" t="n">
-        <v>308.9864807128906</v>
+        <v>360.9335327148438</v>
       </c>
       <c r="BH2" t="n">
-        <v>308.6923522949219</v>
+        <v>359.0264282226562</v>
       </c>
       <c r="BI2" t="n">
-        <v>308.49853515625</v>
+        <v>357.1562194824219</v>
       </c>
       <c r="BJ2" t="n">
-        <v>308.8514099121094</v>
+        <v>345.0758056640625</v>
       </c>
       <c r="BK2" t="n">
-        <v>309.2812194824219</v>
+        <v>329.4576721191406</v>
       </c>
       <c r="BL2" t="n">
-        <v>308.5965576171875</v>
+        <v>323.4056091308594</v>
       </c>
       <c r="BM2" t="n">
-        <v>308.211669921875</v>
+        <v>319.2930603027344</v>
       </c>
       <c r="BN2" t="n">
-        <v>306.9556579589844</v>
+        <v>317.78125</v>
       </c>
       <c r="BO2" t="n">
-        <v>302.9365234375</v>
+        <v>313.3036804199219</v>
       </c>
       <c r="BP2" t="n">
-        <v>294.3657531738281</v>
+        <v>305.9287414550781</v>
       </c>
       <c r="BQ2" t="n">
-        <v>288.96875</v>
+        <v>298.4368896484375</v>
       </c>
       <c r="BR2" t="n">
-        <v>284.7106018066406</v>
+        <v>289.7611083984375</v>
       </c>
       <c r="BS2" t="n">
-        <v>279.5490112304688</v>
+        <v>283.0030517578125</v>
       </c>
       <c r="BT2" t="n">
-        <v>274.2571716308594</v>
+        <v>280.7414855957031</v>
       </c>
       <c r="BU2" t="n">
-        <v>269.3977966308594</v>
+        <v>277.1911010742188</v>
       </c>
       <c r="BV2" t="n">
-        <v>265.1841735839844</v>
+        <v>271.5544128417969</v>
       </c>
       <c r="BW2" t="n">
-        <v>258.3089599609375</v>
+        <v>263.9894104003906</v>
       </c>
       <c r="BX2" t="n">
-        <v>255.4316864013672</v>
+        <v>258.0052795410156</v>
       </c>
       <c r="BY2" t="n">
-        <v>252.7856750488281</v>
+        <v>250.7452392578125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>235.0386352539062</v>
+        <v>245.3866729736328</v>
       </c>
       <c r="CA2" t="n">
-        <v>223.2729187011719</v>
+        <v>239.5835571289062</v>
       </c>
       <c r="CB2" t="n">
-        <v>207.4864349365234</v>
+        <v>234.6065063476562</v>
       </c>
       <c r="CC2" t="n">
-        <v>197.5106048583984</v>
+        <v>228.6968383789062</v>
       </c>
       <c r="CD2" t="n">
-        <v>189.0131225585938</v>
+        <v>224.7201232910156</v>
       </c>
       <c r="CE2" t="n">
-        <v>182.4313049316406</v>
+        <v>220.7889709472656</v>
       </c>
       <c r="CF2" t="n">
-        <v>170.9626159667969</v>
+        <v>218.3083343505859</v>
       </c>
       <c r="CG2" t="n">
-        <v>163.8796691894531</v>
+        <v>218.9181823730469</v>
       </c>
       <c r="CH2" t="n">
-        <v>158.0211639404297</v>
+        <v>217.1364135742188</v>
       </c>
       <c r="CI2" t="n">
-        <v>151.8307800292969</v>
+        <v>218.0574035644531</v>
       </c>
       <c r="CJ2" t="n">
-        <v>142.9932708740234</v>
+        <v>217.9355163574219</v>
       </c>
       <c r="CK2" t="n">
-        <v>130.7316741943359</v>
+        <v>216.7881011962891</v>
       </c>
       <c r="CL2" t="n">
-        <v>105.2633819580078</v>
+        <v>215.6593475341797</v>
       </c>
       <c r="CM2" t="n">
-        <v>97.43647766113281</v>
+        <v>213.8961944580078</v>
       </c>
       <c r="CN2" t="n">
-        <v>93.12183380126953</v>
+        <v>211.0315093994141</v>
       </c>
       <c r="CO2" t="n">
-        <v>89.28328704833984</v>
+        <v>208.8447265625</v>
       </c>
       <c r="CP2" t="n">
-        <v>89.84363555908203</v>
+        <v>208.0697784423828</v>
       </c>
       <c r="CQ2" t="n">
-        <v>88.50057983398438</v>
+        <v>209.5798950195312</v>
       </c>
       <c r="CR2" t="n">
-        <v>84.33152770996094</v>
+        <v>230.3706970214844</v>
       </c>
       <c r="CS2" t="n">
-        <v>82.92143249511719</v>
+        <v>238.5649719238281</v>
       </c>
       <c r="CT2" t="n">
-        <v>81.52352905273438</v>
+        <v>243.894775390625</v>
       </c>
       <c r="CU2" t="n">
-        <v>85.67562103271484</v>
+        <v>250.419677734375</v>
       </c>
       <c r="CV2" t="n">
-        <v>87.46858215332031</v>
+        <v>258.1000061035156</v>
       </c>
       <c r="CW2" t="n">
-        <v>85.54548645019531</v>
+        <v>264.6458740234375</v>
       </c>
       <c r="CX2" t="n">
-        <v>84.77110290527344</v>
+        <v>271.2702026367188</v>
       </c>
       <c r="CY2" t="n">
-        <v>71.96589660644531</v>
+        <v>277.3798217773438</v>
       </c>
       <c r="CZ2" t="n">
-        <v>63.13325500488281</v>
+        <v>284.5569458007812</v>
       </c>
       <c r="DA2" t="n">
-        <v>58.33476638793945</v>
+        <v>292.9314575195312</v>
       </c>
       <c r="DB2" t="n">
-        <v>56.6685676574707</v>
+        <v>304.3869934082031</v>
       </c>
       <c r="DC2" t="n">
-        <v>68.00579071044922</v>
+        <v>308.8323669433594</v>
       </c>
       <c r="DD2" t="n">
-        <v>74.27162933349609</v>
+        <v>313.3800354003906</v>
       </c>
       <c r="DE2" t="n">
-        <v>83.22050476074219</v>
+        <v>317.2321166992188</v>
       </c>
       <c r="DF2" t="n">
-        <v>107.0246429443359</v>
+        <v>324.0730285644531</v>
       </c>
       <c r="DG2" t="n">
-        <v>149.6783905029297</v>
+        <v>329.60546875</v>
       </c>
       <c r="DH2" t="n">
-        <v>165.2355041503906</v>
+        <v>334.3878784179688</v>
       </c>
       <c r="DI2" t="n">
-        <v>174.2450866699219</v>
+        <v>334.2672119140625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>171.6795501708984</v>
+        <v>334.1817016601562</v>
       </c>
       <c r="DK2" t="n">
-        <v>170.0081024169922</v>
+        <v>334.1573486328125</v>
       </c>
       <c r="DL2" t="n">
-        <v>135.7841186523438</v>
+        <v>334.2157592773438</v>
       </c>
       <c r="DM2" t="n">
-        <v>112.8804931640625</v>
+        <v>333.755126953125</v>
       </c>
       <c r="DN2" t="n">
-        <v>90.23887634277344</v>
+        <v>333.6317749023438</v>
       </c>
       <c r="DO2" t="n">
-        <v>81.61642456054688</v>
+        <v>333.383056640625</v>
       </c>
       <c r="DP2" t="n">
-        <v>78.12126922607422</v>
+        <v>332.5967712402344</v>
       </c>
       <c r="DQ2" t="n">
-        <v>71.92311096191406</v>
+        <v>327.2933349609375</v>
       </c>
       <c r="DR2" t="n">
-        <v>68.26388549804688</v>
+        <v>321.8237915039062</v>
       </c>
       <c r="DS2" t="n">
-        <v>76.39332580566406</v>
+        <v>313.4797668457031</v>
       </c>
       <c r="DT2" t="n">
-        <v>85.35750579833984</v>
+        <v>300.0682067871094</v>
       </c>
       <c r="DU2" t="n">
-        <v>90.95463562011719</v>
+        <v>295.0319519042969</v>
       </c>
       <c r="DV2" t="n">
-        <v>95.3154296875</v>
+        <v>290.5239868164062</v>
       </c>
       <c r="DW2" t="n">
-        <v>96.44239807128906</v>
+        <v>283.1484375</v>
       </c>
       <c r="DX2" t="n">
-        <v>95.92628479003906</v>
+        <v>279.8344421386719</v>
       </c>
       <c r="DY2" t="n">
-        <v>94.45611572265625</v>
+        <v>276.4592590332031</v>
       </c>
       <c r="DZ2" t="n">
-        <v>89.95243072509766</v>
+        <v>276.0023193359375</v>
       </c>
       <c r="EA2" t="n">
-        <v>79.53492736816406</v>
+        <v>270.6133422851562</v>
       </c>
       <c r="EB2" t="n">
-        <v>63.75181579589844</v>
+        <v>264.1011962890625</v>
       </c>
       <c r="EC2" t="n">
-        <v>53.70454406738281</v>
+        <v>264.6268005371094</v>
       </c>
       <c r="ED2" t="n">
-        <v>56.5513916015625</v>
+        <v>267.460693359375</v>
       </c>
       <c r="EE2" t="n">
-        <v>61.28062438964844</v>
+        <v>281.5802001953125</v>
       </c>
       <c r="EF2" t="n">
-        <v>72.859130859375</v>
+        <v>281.6138305664062</v>
       </c>
       <c r="EG2" t="n">
-        <v>92.38399505615234</v>
+        <v>282.7255554199219</v>
       </c>
       <c r="EH2" t="n">
-        <v>117.3710479736328</v>
+        <v>282.5182495117188</v>
       </c>
       <c r="EI2" t="n">
-        <v>129.6704864501953</v>
+        <v>281.7471008300781</v>
       </c>
       <c r="EJ2" t="n">
-        <v>144.5822143554688</v>
+        <v>282.1451416015625</v>
       </c>
       <c r="EK2" t="n">
-        <v>145.2870330810547</v>
+        <v>299.4165649414062</v>
       </c>
       <c r="EL2" t="n">
-        <v>144.7922058105469</v>
+        <v>306.0296630859375</v>
       </c>
       <c r="EM2" t="n">
-        <v>143.658447265625</v>
+        <v>303.8708190917969</v>
       </c>
       <c r="EN2" t="n">
-        <v>140.72119140625</v>
+        <v>304.5067749023438</v>
       </c>
       <c r="EO2" t="n">
-        <v>139.1014251708984</v>
+        <v>308.0140686035156</v>
       </c>
       <c r="EP2" t="n">
-        <v>137.1106414794922</v>
+        <v>310.6469116210938</v>
       </c>
       <c r="EQ2" t="n">
-        <v>133.2778472900391</v>
+        <v>311.0656433105469</v>
       </c>
       <c r="ER2" t="n">
-        <v>132.3497009277344</v>
+        <v>310.3815307617188</v>
       </c>
       <c r="ES2" t="n">
-        <v>133.6656799316406</v>
+        <v>308.2700500488281</v>
       </c>
       <c r="ET2" t="n">
-        <v>134.4053955078125</v>
+        <v>286.2968139648438</v>
       </c>
       <c r="EU2" t="n">
-        <v>136.1475067138672</v>
+        <v>275.4487609863281</v>
       </c>
       <c r="EV2" t="n">
-        <v>144.4617919921875</v>
+        <v>270.7771606445312</v>
       </c>
       <c r="EW2" t="n">
-        <v>149.5722808837891</v>
+        <v>254.9629974365234</v>
       </c>
       <c r="EX2" t="n">
-        <v>150.5876617431641</v>
+        <v>246.526611328125</v>
       </c>
       <c r="EY2" t="n">
-        <v>150.2242736816406</v>
+        <v>237.9081878662109</v>
       </c>
       <c r="EZ2" t="n">
-        <v>150.3619384765625</v>
+        <v>294.16064453125</v>
       </c>
       <c r="FA2" t="n">
-        <v>149.5776977539062</v>
+        <v>309.9877014160156</v>
       </c>
       <c r="FB2" t="n">
-        <v>148.8230285644531</v>
+        <v>250.7740173339844</v>
       </c>
       <c r="FC2" t="n">
-        <v>148.4598999023438</v>
+        <v>246.2837982177734</v>
       </c>
       <c r="FD2" t="n">
-        <v>152.7964019775391</v>
+        <v>247.0690612792969</v>
       </c>
       <c r="FE2" t="n">
-        <v>156.2080383300781</v>
+        <v>242.1086120605469</v>
       </c>
       <c r="FF2" t="n">
-        <v>156.1537170410156</v>
+        <v>238.4887084960938</v>
       </c>
       <c r="FG2" t="n">
-        <v>155.6223602294922</v>
+        <v>236.2819061279297</v>
       </c>
       <c r="FH2" t="n">
-        <v>155.4750671386719</v>
+        <v>237.3619689941406</v>
       </c>
       <c r="FI2" t="n">
-        <v>155.8118743896484</v>
+        <v>229.5178070068359</v>
       </c>
       <c r="FJ2" t="n">
-        <v>155.4084930419922</v>
+        <v>226.0316162109375</v>
       </c>
       <c r="FK2" t="n">
-        <v>151.3817901611328</v>
+        <v>226.51611328125</v>
       </c>
       <c r="FL2" t="n">
-        <v>146.3760223388672</v>
+        <v>226.1382751464844</v>
       </c>
       <c r="FM2" t="n">
-        <v>142.9920959472656</v>
+        <v>228.2011413574219</v>
       </c>
       <c r="FN2" t="n">
-        <v>133.6558990478516</v>
+        <v>237.1652221679688</v>
       </c>
       <c r="FO2" t="n">
-        <v>131.8835296630859</v>
+        <v>240.8691711425781</v>
       </c>
       <c r="FP2" t="n">
-        <v>141.3748626708984</v>
+        <v>247.3046569824219</v>
       </c>
       <c r="FQ2" t="n">
-        <v>159.7402496337891</v>
+        <v>263.0748596191406</v>
       </c>
       <c r="FR2" t="n">
-        <v>164.2198791503906</v>
+        <v>270.8296203613281</v>
       </c>
       <c r="FS2" t="n">
-        <v>175.902587890625</v>
+        <v>277.8839111328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>196.5076904296875</v>
+        <v>281.3618774414062</v>
       </c>
       <c r="FU2" t="n">
-        <v>201.9065093994141</v>
+        <v>281.8535766601562</v>
       </c>
       <c r="FV2" t="n">
-        <v>212.19189453125</v>
+        <v>281.6188049316406</v>
       </c>
       <c r="FW2" t="n">
-        <v>221.9277801513672</v>
+        <v>337.0591430664062</v>
       </c>
       <c r="FX2" t="n">
-        <v>231.0167236328125</v>
+        <v>284.5627746582031</v>
       </c>
       <c r="FY2" t="n">
-        <v>235.7123565673828</v>
+        <v>274.6191101074219</v>
       </c>
       <c r="FZ2" t="n">
-        <v>236.8023986816406</v>
+        <v>275.8099365234375</v>
       </c>
       <c r="GA2" t="n">
-        <v>235.3484344482422</v>
+        <v>274.6089477539062</v>
       </c>
       <c r="GB2" t="n">
-        <v>231.8308715820312</v>
+        <v>268.3627624511719</v>
       </c>
       <c r="GC2" t="n">
-        <v>228.8360900878906</v>
+        <v>248.9393463134766</v>
       </c>
       <c r="GD2" t="n">
-        <v>212.2230529785156</v>
+        <v>242.2796783447266</v>
       </c>
       <c r="GE2" t="n">
-        <v>208.8869018554688</v>
+        <v>238.56494140625</v>
       </c>
       <c r="GF2" t="n">
-        <v>191.6656188964844</v>
+        <v>230.7903442382812</v>
       </c>
       <c r="GG2" t="n">
-        <v>179.496337890625</v>
+        <v>218.4983062744141</v>
       </c>
       <c r="GH2" t="n">
-        <v>163.7760162353516</v>
+        <v>208.7525329589844</v>
       </c>
       <c r="GI2" t="n">
-        <v>147.1393280029297</v>
+        <v>205.8311767578125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>146.8054656982422</v>
+        <v>203.3162689208984</v>
       </c>
       <c r="GK2" t="n">
-        <v>150.5190734863281</v>
+        <v>192.0129699707031</v>
       </c>
       <c r="GL2" t="n">
-        <v>139.1551818847656</v>
+        <v>185.0227203369141</v>
       </c>
       <c r="GM2" t="n">
-        <v>124.2176895141602</v>
+        <v>173.0962829589844</v>
       </c>
       <c r="GN2" t="n">
-        <v>116.0191802978516</v>
+        <v>163.0657043457031</v>
       </c>
       <c r="GO2" t="n">
-        <v>113.1996078491211</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>111.5085601806641</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>113.2088165283203</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>113.2095031738281</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>115.6477279663086</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>130.8238830566406</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>154.0467529296875</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>172.0022583007812</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>195.3871765136719</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>204.2881774902344</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>193.1194763183594</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>219.3044281005859</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>226.0788879394531</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>237.1777038574219</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>279.3126831054688</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>262.8439025878906</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>298.1644287109375</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>306.3615112304688</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>314.2798767089844</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>315.646728515625</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>318.2690124511719</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>317.4177551269531</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>316.2076110839844</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>289.7654724121094</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>331.511962890625</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>297.4933471679688</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>280.9378356933594</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>272.5001220703125</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>270.28857421875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>268.134765625</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>266.2225036621094</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>271.1050720214844</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>276.9735412597656</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>269.8875732421875</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>231.5415649414062</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>222.9303741455078</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>242.3681793212891</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>254.2174377441406</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>264.0429382324219</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>275.8135986328125</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>279.9039001464844</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>286.2904357910156</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>267.7005920410156</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>275.4981384277344</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>299.3856201171875</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>301.7688293457031</v>
-      </c>
-      <c r="II2" t="n">
-        <v>259.6761779785156</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>248.8625793457031</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>253.9623107910156</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>264.7815856933594</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>318.7031555175781</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>325.5528259277344</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>322.0947875976562</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>322.1711730957031</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>322.1056823730469</v>
+        <v>158.6684722900391</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>448.9947814941406</v>
+        <v>392.5855102539062</v>
       </c>
       <c r="C3" t="n">
-        <v>441.8318176269531</v>
+        <v>369.3100280761719</v>
       </c>
       <c r="D3" t="n">
-        <v>437.3999633789062</v>
+        <v>367.3465576171875</v>
       </c>
       <c r="E3" t="n">
-        <v>432.0976867675781</v>
+        <v>361.2807922363281</v>
       </c>
       <c r="F3" t="n">
-        <v>427.9439392089844</v>
+        <v>368.7710876464844</v>
       </c>
       <c r="G3" t="n">
-        <v>424.7930297851562</v>
+        <v>367.855712890625</v>
       </c>
       <c r="H3" t="n">
-        <v>423.2952270507812</v>
+        <v>368.3725891113281</v>
       </c>
       <c r="I3" t="n">
-        <v>420.2898559570312</v>
+        <v>368.2314147949219</v>
       </c>
       <c r="J3" t="n">
-        <v>420.6808166503906</v>
+        <v>369.851806640625</v>
       </c>
       <c r="K3" t="n">
-        <v>421.8537292480469</v>
+        <v>369.2509460449219</v>
       </c>
       <c r="L3" t="n">
-        <v>423.3199462890625</v>
+        <v>369.8251953125</v>
       </c>
       <c r="M3" t="n">
-        <v>421.394775390625</v>
+        <v>369.1243896484375</v>
       </c>
       <c r="N3" t="n">
-        <v>418.4806518554688</v>
+        <v>368.9436645507812</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1286926269531</v>
+        <v>369.5107116699219</v>
       </c>
       <c r="P3" t="n">
-        <v>412.706298828125</v>
+        <v>369.4194946289062</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.5599975585938</v>
+        <v>369.4066162109375</v>
       </c>
       <c r="R3" t="n">
-        <v>407.9823913574219</v>
+        <v>369.2890014648438</v>
       </c>
       <c r="S3" t="n">
-        <v>405.2593688964844</v>
+        <v>373.0050659179688</v>
       </c>
       <c r="T3" t="n">
-        <v>404.4258728027344</v>
+        <v>371.36572265625</v>
       </c>
       <c r="U3" t="n">
-        <v>401.2301025390625</v>
+        <v>369.1919555664062</v>
       </c>
       <c r="V3" t="n">
-        <v>401.130615234375</v>
+        <v>371.4451293945312</v>
       </c>
       <c r="W3" t="n">
-        <v>401.5007629394531</v>
+        <v>371.2265014648438</v>
       </c>
       <c r="X3" t="n">
-        <v>402.0013732910156</v>
+        <v>368.5935363769531</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.4400329589844</v>
+        <v>370.8472900390625</v>
       </c>
       <c r="Z3" t="n">
-        <v>399.575927734375</v>
+        <v>370.5827331542969</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.6752624511719</v>
+        <v>368.4487609863281</v>
       </c>
       <c r="AB3" t="n">
-        <v>405.8921203613281</v>
+        <v>370.3949584960938</v>
       </c>
       <c r="AC3" t="n">
-        <v>410.1033325195312</v>
+        <v>369.9807739257812</v>
       </c>
       <c r="AD3" t="n">
-        <v>411.4964599609375</v>
+        <v>368.4004821777344</v>
       </c>
       <c r="AE3" t="n">
-        <v>413.2320556640625</v>
+        <v>369.7754516601562</v>
       </c>
       <c r="AF3" t="n">
-        <v>412.8239440917969</v>
+        <v>369.4967041015625</v>
       </c>
       <c r="AG3" t="n">
-        <v>411.666748046875</v>
+        <v>367.8171997070312</v>
       </c>
       <c r="AH3" t="n">
-        <v>405.4706115722656</v>
+        <v>367.7684326171875</v>
       </c>
       <c r="AI3" t="n">
-        <v>398.7945556640625</v>
+        <v>367.62890625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>394.4422302246094</v>
+        <v>366.63916015625</v>
       </c>
       <c r="AK3" t="n">
-        <v>391.6478881835938</v>
+        <v>370.3583679199219</v>
       </c>
       <c r="AL3" t="n">
-        <v>389.2810363769531</v>
+        <v>365.0774230957031</v>
       </c>
       <c r="AM3" t="n">
-        <v>390.2397766113281</v>
+        <v>368.6713256835938</v>
       </c>
       <c r="AN3" t="n">
-        <v>387.6663208007812</v>
+        <v>364.307373046875</v>
       </c>
       <c r="AO3" t="n">
-        <v>388.0419616699219</v>
+        <v>368.2224731445312</v>
       </c>
       <c r="AP3" t="n">
-        <v>390.0021057128906</v>
+        <v>364.2461853027344</v>
       </c>
       <c r="AQ3" t="n">
-        <v>391.1635437011719</v>
+        <v>367.9061584472656</v>
       </c>
       <c r="AR3" t="n">
-        <v>391.6127319335938</v>
+        <v>373.6559753417969</v>
       </c>
       <c r="AS3" t="n">
-        <v>392.9642639160156</v>
+        <v>352.3626098632812</v>
       </c>
       <c r="AT3" t="n">
-        <v>394.75341796875</v>
+        <v>447.7907409667969</v>
       </c>
       <c r="AU3" t="n">
-        <v>396.9007263183594</v>
+        <v>458.5419921875</v>
       </c>
       <c r="AV3" t="n">
-        <v>398.9480285644531</v>
+        <v>474.9653930664062</v>
       </c>
       <c r="AW3" t="n">
-        <v>400.0589599609375</v>
+        <v>484.1024169921875</v>
       </c>
       <c r="AX3" t="n">
-        <v>400.7868957519531</v>
+        <v>493.2533569335938</v>
       </c>
       <c r="AY3" t="n">
-        <v>401.7406311035156</v>
+        <v>495.81201171875</v>
       </c>
       <c r="AZ3" t="n">
-        <v>403.3055114746094</v>
+        <v>491.1388244628906</v>
       </c>
       <c r="BA3" t="n">
-        <v>404.3297729492188</v>
+        <v>488.1956176757812</v>
       </c>
       <c r="BB3" t="n">
-        <v>405.0980224609375</v>
+        <v>482.334716796875</v>
       </c>
       <c r="BC3" t="n">
-        <v>404.7630615234375</v>
+        <v>478.6144714355469</v>
       </c>
       <c r="BD3" t="n">
-        <v>404.6907043457031</v>
+        <v>476.7826232910156</v>
       </c>
       <c r="BE3" t="n">
-        <v>403.0076904296875</v>
+        <v>473.9907836914062</v>
       </c>
       <c r="BF3" t="n">
-        <v>403.4152526855469</v>
+        <v>473.6110229492188</v>
       </c>
       <c r="BG3" t="n">
-        <v>404.0542602539062</v>
+        <v>473.6748352050781</v>
       </c>
       <c r="BH3" t="n">
-        <v>404.9005126953125</v>
+        <v>475.7460632324219</v>
       </c>
       <c r="BI3" t="n">
-        <v>405.7084045410156</v>
+        <v>475.2540588378906</v>
       </c>
       <c r="BJ3" t="n">
-        <v>406.3034057617188</v>
+        <v>480.5472106933594</v>
       </c>
       <c r="BK3" t="n">
-        <v>405.6700134277344</v>
+        <v>480.6403503417969</v>
       </c>
       <c r="BL3" t="n">
-        <v>406.7244873046875</v>
+        <v>482.1454162597656</v>
       </c>
       <c r="BM3" t="n">
-        <v>404.7695922851562</v>
+        <v>482.938720703125</v>
       </c>
       <c r="BN3" t="n">
-        <v>403.2245178222656</v>
+        <v>479.382568359375</v>
       </c>
       <c r="BO3" t="n">
-        <v>404.7557983398438</v>
+        <v>478.4704895019531</v>
       </c>
       <c r="BP3" t="n">
-        <v>407.244384765625</v>
+        <v>480.6170043945312</v>
       </c>
       <c r="BQ3" t="n">
-        <v>408.3621826171875</v>
+        <v>484.2789916992188</v>
       </c>
       <c r="BR3" t="n">
-        <v>410.4560852050781</v>
+        <v>484.3766174316406</v>
       </c>
       <c r="BS3" t="n">
-        <v>414.2313842773438</v>
+        <v>482.380126953125</v>
       </c>
       <c r="BT3" t="n">
-        <v>417.3408203125</v>
+        <v>478.8670043945312</v>
       </c>
       <c r="BU3" t="n">
-        <v>418.1245422363281</v>
+        <v>479.7222900390625</v>
       </c>
       <c r="BV3" t="n">
-        <v>418.0174560546875</v>
+        <v>482.83984375</v>
       </c>
       <c r="BW3" t="n">
-        <v>415.8370971679688</v>
+        <v>483.0090637207031</v>
       </c>
       <c r="BX3" t="n">
-        <v>414.8348388671875</v>
+        <v>482.2061462402344</v>
       </c>
       <c r="BY3" t="n">
-        <v>411.5723571777344</v>
+        <v>482.8234252929688</v>
       </c>
       <c r="BZ3" t="n">
-        <v>409.1833801269531</v>
+        <v>482.2650146484375</v>
       </c>
       <c r="CA3" t="n">
-        <v>410.0745544433594</v>
+        <v>481.4267272949219</v>
       </c>
       <c r="CB3" t="n">
-        <v>409.3061828613281</v>
+        <v>482.5668029785156</v>
       </c>
       <c r="CC3" t="n">
-        <v>408.6436157226562</v>
+        <v>481.0633239746094</v>
       </c>
       <c r="CD3" t="n">
-        <v>407.6023864746094</v>
+        <v>481.1602172851562</v>
       </c>
       <c r="CE3" t="n">
-        <v>406.6268615722656</v>
+        <v>479.1296691894531</v>
       </c>
       <c r="CF3" t="n">
-        <v>407.1411743164062</v>
+        <v>473.4693908691406</v>
       </c>
       <c r="CG3" t="n">
-        <v>407.1514892578125</v>
+        <v>467.2315673828125</v>
       </c>
       <c r="CH3" t="n">
-        <v>405.9558715820312</v>
+        <v>465.74462890625</v>
       </c>
       <c r="CI3" t="n">
-        <v>401.8658752441406</v>
+        <v>467.6828918457031</v>
       </c>
       <c r="CJ3" t="n">
-        <v>395.5350036621094</v>
+        <v>468.0263366699219</v>
       </c>
       <c r="CK3" t="n">
-        <v>386.9949951171875</v>
+        <v>469.8362426757812</v>
       </c>
       <c r="CL3" t="n">
-        <v>353.8771667480469</v>
+        <v>475.2896423339844</v>
       </c>
       <c r="CM3" t="n">
-        <v>335.5175476074219</v>
+        <v>476.9198608398438</v>
       </c>
       <c r="CN3" t="n">
-        <v>314.6783142089844</v>
+        <v>476.8947143554688</v>
       </c>
       <c r="CO3" t="n">
-        <v>274.1081848144531</v>
+        <v>477.3693237304688</v>
       </c>
       <c r="CP3" t="n">
-        <v>255.253662109375</v>
+        <v>479.1902465820312</v>
       </c>
       <c r="CQ3" t="n">
-        <v>239.9796447753906</v>
+        <v>476.6598510742188</v>
       </c>
       <c r="CR3" t="n">
-        <v>223.1045227050781</v>
+        <v>471.3171997070312</v>
       </c>
       <c r="CS3" t="n">
-        <v>203.2931213378906</v>
+        <v>471.1791687011719</v>
       </c>
       <c r="CT3" t="n">
-        <v>180.3473205566406</v>
+        <v>471.1736755371094</v>
       </c>
       <c r="CU3" t="n">
-        <v>173.5333404541016</v>
+        <v>468.5549926757812</v>
       </c>
       <c r="CV3" t="n">
-        <v>167.4020080566406</v>
+        <v>468.1870422363281</v>
       </c>
       <c r="CW3" t="n">
-        <v>165.0999145507812</v>
+        <v>465.9645080566406</v>
       </c>
       <c r="CX3" t="n">
-        <v>165.5411987304688</v>
+        <v>465.9349365234375</v>
       </c>
       <c r="CY3" t="n">
-        <v>175.1733093261719</v>
+        <v>466.4623413085938</v>
       </c>
       <c r="CZ3" t="n">
-        <v>191.6183319091797</v>
+        <v>465.5159301757812</v>
       </c>
       <c r="DA3" t="n">
-        <v>209.2978668212891</v>
+        <v>466.1529541015625</v>
       </c>
       <c r="DB3" t="n">
-        <v>228.1704406738281</v>
+        <v>464.6659851074219</v>
       </c>
       <c r="DC3" t="n">
-        <v>274.6895446777344</v>
+        <v>465.75439453125</v>
       </c>
       <c r="DD3" t="n">
-        <v>295.7308349609375</v>
+        <v>465.447021484375</v>
       </c>
       <c r="DE3" t="n">
-        <v>319.4298400878906</v>
+        <v>465.7441711425781</v>
       </c>
       <c r="DF3" t="n">
-        <v>366.1510925292969</v>
+        <v>466.7971801757812</v>
       </c>
       <c r="DG3" t="n">
-        <v>400.8872680664062</v>
+        <v>467.5944519042969</v>
       </c>
       <c r="DH3" t="n">
-        <v>404.29248046875</v>
+        <v>470.9304809570312</v>
       </c>
       <c r="DI3" t="n">
-        <v>405.8929748535156</v>
+        <v>473.7322998046875</v>
       </c>
       <c r="DJ3" t="n">
-        <v>405.834716796875</v>
+        <v>476.0781860351562</v>
       </c>
       <c r="DK3" t="n">
-        <v>406.7920227050781</v>
+        <v>477.8363952636719</v>
       </c>
       <c r="DL3" t="n">
-        <v>393.2056579589844</v>
+        <v>479.5352783203125</v>
       </c>
       <c r="DM3" t="n">
-        <v>375.15673828125</v>
+        <v>480.8074951171875</v>
       </c>
       <c r="DN3" t="n">
-        <v>332.544189453125</v>
+        <v>484.9482421875</v>
       </c>
       <c r="DO3" t="n">
-        <v>311.8103332519531</v>
+        <v>488.4348754882812</v>
       </c>
       <c r="DP3" t="n">
-        <v>288.6358947753906</v>
+        <v>485.2383117675781</v>
       </c>
       <c r="DQ3" t="n">
-        <v>249.1726989746094</v>
+        <v>470.7541198730469</v>
       </c>
       <c r="DR3" t="n">
-        <v>226.5600128173828</v>
+        <v>462.2469787597656</v>
       </c>
       <c r="DS3" t="n">
-        <v>195.2364196777344</v>
+        <v>456.5636596679688</v>
       </c>
       <c r="DT3" t="n">
-        <v>169.2220153808594</v>
+        <v>440.8434143066406</v>
       </c>
       <c r="DU3" t="n">
-        <v>161.7864837646484</v>
+        <v>434.5503845214844</v>
       </c>
       <c r="DV3" t="n">
-        <v>153.7568969726562</v>
+        <v>424.591552734375</v>
       </c>
       <c r="DW3" t="n">
-        <v>152.1548767089844</v>
+        <v>405.8284606933594</v>
       </c>
       <c r="DX3" t="n">
-        <v>152.313232421875</v>
+        <v>397.7160949707031</v>
       </c>
       <c r="DY3" t="n">
-        <v>156.1806640625</v>
+        <v>387.3465576171875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>163.4066925048828</v>
+        <v>385.7606811523438</v>
       </c>
       <c r="EA3" t="n">
-        <v>174.8930816650391</v>
+        <v>386.5895385742188</v>
       </c>
       <c r="EB3" t="n">
-        <v>204.6099090576172</v>
+        <v>400.7219543457031</v>
       </c>
       <c r="EC3" t="n">
-        <v>239.6019134521484</v>
+        <v>412.4802856445312</v>
       </c>
       <c r="ED3" t="n">
-        <v>259.904052734375</v>
+        <v>440.9356384277344</v>
       </c>
       <c r="EE3" t="n">
-        <v>283.0956420898438</v>
+        <v>462.5826110839844</v>
       </c>
       <c r="EF3" t="n">
-        <v>322.8904113769531</v>
+        <v>467.6571044921875</v>
       </c>
       <c r="EG3" t="n">
-        <v>358.3535766601562</v>
+        <v>490.39208984375</v>
       </c>
       <c r="EH3" t="n">
-        <v>386.298828125</v>
+        <v>503.7485961914062</v>
       </c>
       <c r="EI3" t="n">
-        <v>396.0591430664062</v>
+        <v>500.7278747558594</v>
       </c>
       <c r="EJ3" t="n">
-        <v>407.0389709472656</v>
+        <v>498.7065124511719</v>
       </c>
       <c r="EK3" t="n">
-        <v>407.3039855957031</v>
+        <v>499.185546875</v>
       </c>
       <c r="EL3" t="n">
-        <v>407.5860595703125</v>
+        <v>494.2535095214844</v>
       </c>
       <c r="EM3" t="n">
-        <v>407.4582824707031</v>
+        <v>487.3153381347656</v>
       </c>
       <c r="EN3" t="n">
-        <v>407.2750244140625</v>
+        <v>484.5002136230469</v>
       </c>
       <c r="EO3" t="n">
-        <v>406.6294860839844</v>
+        <v>479.709716796875</v>
       </c>
       <c r="EP3" t="n">
-        <v>405.8643798828125</v>
+        <v>478.6109924316406</v>
       </c>
       <c r="EQ3" t="n">
-        <v>404.7807006835938</v>
+        <v>480.7032470703125</v>
       </c>
       <c r="ER3" t="n">
-        <v>405.4247436523438</v>
+        <v>482.995361328125</v>
       </c>
       <c r="ES3" t="n">
-        <v>405.2082214355469</v>
+        <v>487.5827331542969</v>
       </c>
       <c r="ET3" t="n">
-        <v>405.6527709960938</v>
+        <v>497.1324462890625</v>
       </c>
       <c r="EU3" t="n">
-        <v>410.3355102539062</v>
+        <v>503.6452026367188</v>
       </c>
       <c r="EV3" t="n">
-        <v>411.8935546875</v>
+        <v>508.4549255371094</v>
       </c>
       <c r="EW3" t="n">
-        <v>411.3014526367188</v>
+        <v>513.1119995117188</v>
       </c>
       <c r="EX3" t="n">
-        <v>414.2070617675781</v>
+        <v>514.5107421875</v>
       </c>
       <c r="EY3" t="n">
-        <v>416.2431030273438</v>
+        <v>513.9315185546875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>414.951171875</v>
+        <v>329.1803283691406</v>
       </c>
       <c r="FA3" t="n">
-        <v>416.3427429199219</v>
+        <v>505.5746154785156</v>
       </c>
       <c r="FB3" t="n">
-        <v>417.3611145019531</v>
+        <v>513.2020874023438</v>
       </c>
       <c r="FC3" t="n">
-        <v>420.615966796875</v>
+        <v>510.2981262207031</v>
       </c>
       <c r="FD3" t="n">
-        <v>422.7008972167969</v>
+        <v>509.9266357421875</v>
       </c>
       <c r="FE3" t="n">
-        <v>422.6049194335938</v>
+        <v>512.0046997070312</v>
       </c>
       <c r="FF3" t="n">
-        <v>422.4610595703125</v>
+        <v>512.1162109375</v>
       </c>
       <c r="FG3" t="n">
-        <v>422.7354125976562</v>
+        <v>518.1302490234375</v>
       </c>
       <c r="FH3" t="n">
-        <v>422.0381469726562</v>
+        <v>518.7884521484375</v>
       </c>
       <c r="FI3" t="n">
-        <v>420.1244812011719</v>
+        <v>505.3972473144531</v>
       </c>
       <c r="FJ3" t="n">
-        <v>418.5128173828125</v>
+        <v>504.8285827636719</v>
       </c>
       <c r="FK3" t="n">
-        <v>417.9636840820312</v>
+        <v>503.2486572265625</v>
       </c>
       <c r="FL3" t="n">
-        <v>416.7718505859375</v>
+        <v>506.4886169433594</v>
       </c>
       <c r="FM3" t="n">
-        <v>417.1408996582031</v>
+        <v>516.8653564453125</v>
       </c>
       <c r="FN3" t="n">
-        <v>411.3964233398438</v>
+        <v>524.5634765625</v>
       </c>
       <c r="FO3" t="n">
-        <v>408.3993225097656</v>
+        <v>530.0064086914062</v>
       </c>
       <c r="FP3" t="n">
-        <v>404.7780151367188</v>
+        <v>535.6968383789062</v>
       </c>
       <c r="FQ3" t="n">
-        <v>409.0654296875</v>
+        <v>545.7237548828125</v>
       </c>
       <c r="FR3" t="n">
-        <v>408.6863098144531</v>
+        <v>547.52978515625</v>
       </c>
       <c r="FS3" t="n">
-        <v>413.1481628417969</v>
+        <v>546.60400390625</v>
       </c>
       <c r="FT3" t="n">
-        <v>421.0949096679688</v>
+        <v>544.7391967773438</v>
       </c>
       <c r="FU3" t="n">
-        <v>422.0989990234375</v>
+        <v>540.5074462890625</v>
       </c>
       <c r="FV3" t="n">
-        <v>421.3480834960938</v>
+        <v>537.9357299804688</v>
       </c>
       <c r="FW3" t="n">
-        <v>419.3168640136719</v>
+        <v>547.7779541015625</v>
       </c>
       <c r="FX3" t="n">
-        <v>412.7518310546875</v>
+        <v>533.4227905273438</v>
       </c>
       <c r="FY3" t="n">
-        <v>410.0453186035156</v>
+        <v>523.8023681640625</v>
       </c>
       <c r="FZ3" t="n">
-        <v>411.0469970703125</v>
+        <v>522.84912109375</v>
       </c>
       <c r="GA3" t="n">
-        <v>414.6980895996094</v>
+        <v>522.088623046875</v>
       </c>
       <c r="GB3" t="n">
-        <v>419.1908569335938</v>
+        <v>519.6990966796875</v>
       </c>
       <c r="GC3" t="n">
-        <v>420.9130249023438</v>
+        <v>511.9242553710938</v>
       </c>
       <c r="GD3" t="n">
-        <v>422.0328979492188</v>
+        <v>507.6847534179688</v>
       </c>
       <c r="GE3" t="n">
-        <v>418.1343688964844</v>
+        <v>513.7778930664062</v>
       </c>
       <c r="GF3" t="n">
-        <v>404.8176879882812</v>
+        <v>520.384765625</v>
       </c>
       <c r="GG3" t="n">
-        <v>411.1690368652344</v>
+        <v>529.14990234375</v>
       </c>
       <c r="GH3" t="n">
-        <v>416.0137329101562</v>
+        <v>533.744384765625</v>
       </c>
       <c r="GI3" t="n">
-        <v>411.9754333496094</v>
+        <v>535.4208374023438</v>
       </c>
       <c r="GJ3" t="n">
-        <v>400.8125305175781</v>
+        <v>535.5360107421875</v>
       </c>
       <c r="GK3" t="n">
-        <v>379.5494079589844</v>
+        <v>537.43310546875</v>
       </c>
       <c r="GL3" t="n">
-        <v>372.8450317382812</v>
+        <v>539.6565551757812</v>
       </c>
       <c r="GM3" t="n">
-        <v>369.4192504882812</v>
+        <v>542.2503662109375</v>
       </c>
       <c r="GN3" t="n">
-        <v>368.3683471679688</v>
+        <v>545.3482666015625</v>
       </c>
       <c r="GO3" t="n">
-        <v>370.1562194824219</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>371.1231079101562</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>373.0912170410156</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>377.3396911621094</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>377.892333984375</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>368.4622192382812</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>357.8125610351562</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>369.4913330078125</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>404.3316040039062</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>421.4523315429688</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>501.8051147460938</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>597.98828125</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>594.662109375</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>645.1985473632812</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>675.9453735351562</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>630.1043090820312</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>617.1554565429688</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>609.38671875</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>603.5633544921875</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>602.030029296875</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>606.8068237304688</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>608.0932006835938</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>607.9808349609375</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>618.2415161132812</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>640.3258666992188</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>662.8115844726562</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>669.3040771484375</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>668.7666625976562</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>668.7232666015625</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>662.2083129882812</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>650.6527709960938</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>647.802001953125</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>645.33544921875</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>345.3621215820312</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>332.7864074707031</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>329.2873229980469</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>335.8453979492188</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>338.6792907714844</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>351.368408203125</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>341.0145568847656</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>333.5565795898438</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>351.4271850585938</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>341.5337829589844</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>352.4239196777344</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>354.5036926269531</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>354.5576782226562</v>
-      </c>
-      <c r="II3" t="n">
-        <v>344.3701477050781</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>352.0297546386719</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>342.5528259277344</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>337.0552978515625</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>427.6432189941406</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>461.0013732910156</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>423.1131286621094</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>424.9111938476562</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>427.8122253417969</v>
+        <v>550.1146850585938</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1394.197265625</v>
+        <v>523.16259765625</v>
       </c>
       <c r="C4" t="n">
-        <v>1418.954956054688</v>
+        <v>556.3046264648438</v>
       </c>
       <c r="D4" t="n">
-        <v>1434.417846679688</v>
+        <v>546.603271484375</v>
       </c>
       <c r="E4" t="n">
-        <v>1435.010986328125</v>
+        <v>551.0484008789062</v>
       </c>
       <c r="F4" t="n">
-        <v>1429.28662109375</v>
+        <v>563.8538208007812</v>
       </c>
       <c r="G4" t="n">
-        <v>1414.7421875</v>
+        <v>552.7716674804688</v>
       </c>
       <c r="H4" t="n">
-        <v>1399.815673828125</v>
+        <v>553.4987182617188</v>
       </c>
       <c r="I4" t="n">
-        <v>1393.3740234375</v>
+        <v>567.3900146484375</v>
       </c>
       <c r="J4" t="n">
-        <v>1379.186157226562</v>
+        <v>555.22119140625</v>
       </c>
       <c r="K4" t="n">
-        <v>1377.194091796875</v>
+        <v>556.0924072265625</v>
       </c>
       <c r="L4" t="n">
-        <v>1369.480712890625</v>
+        <v>569.7966918945312</v>
       </c>
       <c r="M4" t="n">
-        <v>1351.017211914062</v>
+        <v>556.9672241210938</v>
       </c>
       <c r="N4" t="n">
-        <v>1344.357666015625</v>
+        <v>557.4030151367188</v>
       </c>
       <c r="O4" t="n">
-        <v>1354.083740234375</v>
+        <v>572.4558715820312</v>
       </c>
       <c r="P4" t="n">
-        <v>1353.603881835938</v>
+        <v>573.4105834960938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1352.932373046875</v>
+        <v>573.7500610351562</v>
       </c>
       <c r="R4" t="n">
-        <v>1356.935913085938</v>
+        <v>574.1598510742188</v>
       </c>
       <c r="S4" t="n">
-        <v>1360.81640625</v>
+        <v>558.9146118164062</v>
       </c>
       <c r="T4" t="n">
-        <v>1362.08740234375</v>
+        <v>559.751708984375</v>
       </c>
       <c r="U4" t="n">
-        <v>1367.1435546875</v>
+        <v>575.4960327148438</v>
       </c>
       <c r="V4" t="n">
-        <v>1366.141845703125</v>
+        <v>561.4286499023438</v>
       </c>
       <c r="W4" t="n">
-        <v>1357.719482421875</v>
+        <v>561.6685791015625</v>
       </c>
       <c r="X4" t="n">
-        <v>1340.69140625</v>
+        <v>577.0443725585938</v>
       </c>
       <c r="Y4" t="n">
-        <v>1337.0205078125</v>
+        <v>562.6237182617188</v>
       </c>
       <c r="Z4" t="n">
-        <v>1335.09716796875</v>
+        <v>563.1671142578125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.285400390625</v>
+        <v>578.3588256835938</v>
       </c>
       <c r="AB4" t="n">
-        <v>1302.66650390625</v>
+        <v>564.0845336914062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1268.228759765625</v>
+        <v>564.6214599609375</v>
       </c>
       <c r="AD4" t="n">
-        <v>1237.157104492188</v>
+        <v>579.5610961914062</v>
       </c>
       <c r="AE4" t="n">
-        <v>1209.013671875</v>
+        <v>565.5794677734375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1175.258422851562</v>
+        <v>566.1217651367188</v>
       </c>
       <c r="AG4" t="n">
-        <v>1149.96484375</v>
+        <v>581.583251953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1133.893188476562</v>
+        <v>582.0997314453125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1109.25390625</v>
+        <v>582.7283935546875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1085.457641601562</v>
+        <v>584.1359252929688</v>
       </c>
       <c r="AK4" t="n">
-        <v>1072.153076171875</v>
+        <v>568.3139038085938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1057.953125</v>
+        <v>587.0762939453125</v>
       </c>
       <c r="AM4" t="n">
-        <v>1043.179931640625</v>
+        <v>571.4971313476562</v>
       </c>
       <c r="AN4" t="n">
-        <v>1038.696655273438</v>
+        <v>589.33642578125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1036.254150390625</v>
+        <v>573.0377197265625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1030.954711914062</v>
+        <v>591.300537109375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1029.416381835938</v>
+        <v>575.6392211914062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1033.208862304688</v>
+        <v>598.1515502929688</v>
       </c>
       <c r="AS4" t="n">
-        <v>1039.376098632812</v>
+        <v>646.3267822265625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1050.090698242188</v>
+        <v>674.997314453125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1064.2490234375</v>
+        <v>704.9873657226562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1067.765014648438</v>
+        <v>742.8391723632812</v>
       </c>
       <c r="AW4" t="n">
-        <v>1072.0439453125</v>
+        <v>782.8999633789062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1081.014282226562</v>
+        <v>821.3212890625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1088.85400390625</v>
+        <v>861.6148681640625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1099.646606445312</v>
+        <v>887.5653076171875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1107.648681640625</v>
+        <v>893.23388671875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1118.165405273438</v>
+        <v>902.0988159179688</v>
       </c>
       <c r="BC4" t="n">
-        <v>1120.279174804688</v>
+        <v>908.2828369140625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1119.845458984375</v>
+        <v>912.1243286132812</v>
       </c>
       <c r="BE4" t="n">
-        <v>1122.348266601562</v>
+        <v>922.6095581054688</v>
       </c>
       <c r="BF4" t="n">
-        <v>1121.361572265625</v>
+        <v>935.6851196289062</v>
       </c>
       <c r="BG4" t="n">
-        <v>1119.585327148438</v>
+        <v>943.0096435546875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1117.072021484375</v>
+        <v>953.75439453125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1112.020629882812</v>
+        <v>963.2772216796875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1094.278198242188</v>
+        <v>963.5369262695312</v>
       </c>
       <c r="BK4" t="n">
-        <v>1078.089111328125</v>
+        <v>965.9849853515625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1076.430419921875</v>
+        <v>968.8113403320312</v>
       </c>
       <c r="BM4" t="n">
-        <v>1077.988403320312</v>
+        <v>968.9295043945312</v>
       </c>
       <c r="BN4" t="n">
-        <v>1079.012451171875</v>
+        <v>971.729736328125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1074.649536132812</v>
+        <v>970.8974609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1068.593872070312</v>
+        <v>965.001953125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1064.487548828125</v>
+        <v>960.2384033203125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1058.326416015625</v>
+        <v>960.3394165039062</v>
       </c>
       <c r="BS4" t="n">
-        <v>1047.381591796875</v>
+        <v>963.7056884765625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1033.805908203125</v>
+        <v>972.7325439453125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1026.5458984375</v>
+        <v>983.155517578125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1022.474243164062</v>
+        <v>992.0071411132812</v>
       </c>
       <c r="BW4" t="n">
-        <v>1023.82275390625</v>
+        <v>996.4290161132812</v>
       </c>
       <c r="BX4" t="n">
-        <v>1021.644287109375</v>
+        <v>994.8627319335938</v>
       </c>
       <c r="BY4" t="n">
-        <v>1016.965942382812</v>
+        <v>992.3348388671875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1015.131225585938</v>
+        <v>993.904541015625</v>
       </c>
       <c r="CA4" t="n">
-        <v>997.0358276367188</v>
+        <v>996.5509643554688</v>
       </c>
       <c r="CB4" t="n">
-        <v>999.5682373046875</v>
+        <v>998.0572509765625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1001.305419921875</v>
+        <v>1003.202453613281</v>
       </c>
       <c r="CD4" t="n">
-        <v>999.2569580078125</v>
+        <v>999.244873046875</v>
       </c>
       <c r="CE4" t="n">
-        <v>998.17138671875</v>
+        <v>994.7139282226562</v>
       </c>
       <c r="CF4" t="n">
-        <v>994.7919921875</v>
+        <v>990.6842041015625</v>
       </c>
       <c r="CG4" t="n">
-        <v>993.4994506835938</v>
+        <v>989.6455078125</v>
       </c>
       <c r="CH4" t="n">
-        <v>992.851806640625</v>
+        <v>990.959716796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>990.5309448242188</v>
+        <v>990.1188354492188</v>
       </c>
       <c r="CJ4" t="n">
-        <v>986.397705078125</v>
+        <v>991.4273071289062</v>
       </c>
       <c r="CK4" t="n">
-        <v>992.9220581054688</v>
+        <v>989.2618408203125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1046.019897460938</v>
+        <v>983.7830200195312</v>
       </c>
       <c r="CM4" t="n">
-        <v>1101.64453125</v>
+        <v>984.922119140625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1155.279907226562</v>
+        <v>990.1651611328125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1208.275390625</v>
+        <v>991.8439331054688</v>
       </c>
       <c r="CP4" t="n">
-        <v>1224.666259765625</v>
+        <v>989.080322265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1229.468139648438</v>
+        <v>992.05224609375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1230.034301757812</v>
+        <v>998.5454711914062</v>
       </c>
       <c r="CS4" t="n">
-        <v>1228.512573242188</v>
+        <v>998.737060546875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1222.874755859375</v>
+        <v>998.7354736328125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1222.160400390625</v>
+        <v>1002.401672363281</v>
       </c>
       <c r="CV4" t="n">
-        <v>1222.559936523438</v>
+        <v>1003.119201660156</v>
       </c>
       <c r="CW4" t="n">
-        <v>1220.567993164062</v>
+        <v>1006.2998046875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1218.000244140625</v>
+        <v>1007.431091308594</v>
       </c>
       <c r="CY4" t="n">
-        <v>1184.30615234375</v>
+        <v>1008.443176269531</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1165.792724609375</v>
+        <v>1012.617065429688</v>
       </c>
       <c r="DA4" t="n">
-        <v>1158.040283203125</v>
+        <v>1015.621276855469</v>
       </c>
       <c r="DB4" t="n">
-        <v>1148.325561523438</v>
+        <v>1019.380920410156</v>
       </c>
       <c r="DC4" t="n">
-        <v>1144.234985351562</v>
+        <v>1020.669311523438</v>
       </c>
       <c r="DD4" t="n">
-        <v>1147.418334960938</v>
+        <v>1024.035034179688</v>
       </c>
       <c r="DE4" t="n">
-        <v>1141.460693359375</v>
+        <v>1028.488403320312</v>
       </c>
       <c r="DF4" t="n">
-        <v>1045.4921875</v>
+        <v>1024.308837890625</v>
       </c>
       <c r="DG4" t="n">
-        <v>998.58349609375</v>
+        <v>1019.431762695312</v>
       </c>
       <c r="DH4" t="n">
-        <v>992.6807861328125</v>
+        <v>1014.31689453125</v>
       </c>
       <c r="DI4" t="n">
-        <v>986.2764282226562</v>
+        <v>1009.91455078125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>993.066650390625</v>
+        <v>1003.657836914062</v>
       </c>
       <c r="DK4" t="n">
-        <v>1002.829162597656</v>
+        <v>993.7294921875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1014.241577148438</v>
+        <v>982.761474609375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1043.471801757812</v>
+        <v>977.98046875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1140.08056640625</v>
+        <v>965.5360717773438</v>
       </c>
       <c r="DO4" t="n">
-        <v>1179.362060546875</v>
+        <v>954.4970703125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1182.726196289062</v>
+        <v>950.252197265625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1198.38818359375</v>
+        <v>954.7076416015625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1219.930419921875</v>
+        <v>952.7833251953125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1226.131103515625</v>
+        <v>953.413818359375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1226.01171875</v>
+        <v>953.8818359375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1227.4072265625</v>
+        <v>962.4312744140625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1232.845092773438</v>
+        <v>977.564208984375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1231.819580078125</v>
+        <v>1013.912963867188</v>
       </c>
       <c r="DX4" t="n">
-        <v>1230.9091796875</v>
+        <v>1026.698364257812</v>
       </c>
       <c r="DY4" t="n">
-        <v>1227.450805664062</v>
+        <v>1051.637573242188</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1220.842041015625</v>
+        <v>1060.945922851562</v>
       </c>
       <c r="EA4" t="n">
-        <v>1199.854370117188</v>
+        <v>1076.329956054688</v>
       </c>
       <c r="EB4" t="n">
-        <v>1182.488403320312</v>
+        <v>1080.045654296875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1163.334228515625</v>
+        <v>1083.863037109375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1152.124755859375</v>
+        <v>1078.143188476562</v>
       </c>
       <c r="EE4" t="n">
-        <v>1130.441040039062</v>
+        <v>1055.692138671875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1100.6123046875</v>
+        <v>1056.530151367188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1031.933471679688</v>
+        <v>1068.095092773438</v>
       </c>
       <c r="EH4" t="n">
-        <v>1012.61865234375</v>
+        <v>1084.579833984375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1000.262573242188</v>
+        <v>1079.844970703125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>980.739990234375</v>
+        <v>1073.05712890625</v>
       </c>
       <c r="EK4" t="n">
-        <v>978.7412719726562</v>
+        <v>1073.572143554688</v>
       </c>
       <c r="EL4" t="n">
-        <v>975.8840942382812</v>
+        <v>1079.12060546875</v>
       </c>
       <c r="EM4" t="n">
-        <v>972.7227783203125</v>
+        <v>1088.89306640625</v>
       </c>
       <c r="EN4" t="n">
-        <v>972.5894775390625</v>
+        <v>1092.646240234375</v>
       </c>
       <c r="EO4" t="n">
-        <v>972.8939819335938</v>
+        <v>1105.098022460938</v>
       </c>
       <c r="EP4" t="n">
-        <v>973.0863647460938</v>
+        <v>1111.800415039062</v>
       </c>
       <c r="EQ4" t="n">
-        <v>971.945556640625</v>
+        <v>1118.446044921875</v>
       </c>
       <c r="ER4" t="n">
-        <v>968.9398803710938</v>
+        <v>1119.845336914062</v>
       </c>
       <c r="ES4" t="n">
-        <v>970.3197021484375</v>
+        <v>1129.897827148438</v>
       </c>
       <c r="ET4" t="n">
-        <v>970.5247802734375</v>
+        <v>1160.078369140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>968.6290283203125</v>
+        <v>1164.731689453125</v>
       </c>
       <c r="EV4" t="n">
-        <v>976.83935546875</v>
+        <v>1164.037841796875</v>
       </c>
       <c r="EW4" t="n">
-        <v>977.5886840820312</v>
+        <v>1181.639526367188</v>
       </c>
       <c r="EX4" t="n">
-        <v>972.7200317382812</v>
+        <v>1194.413940429688</v>
       </c>
       <c r="EY4" t="n">
-        <v>968.8684692382812</v>
+        <v>1203.894409179688</v>
       </c>
       <c r="EZ4" t="n">
-        <v>967.3239135742188</v>
+        <v>1198.429565429688</v>
       </c>
       <c r="FA4" t="n">
-        <v>962.6778564453125</v>
+        <v>1157.251342773438</v>
       </c>
       <c r="FB4" t="n">
-        <v>957.5529174804688</v>
+        <v>1249.622314453125</v>
       </c>
       <c r="FC4" t="n">
-        <v>950.1077270507812</v>
+        <v>1236.035888671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>946.8741455078125</v>
+        <v>1229.059204101562</v>
       </c>
       <c r="FE4" t="n">
-        <v>946.6953735351562</v>
+        <v>1194.443481445312</v>
       </c>
       <c r="FF4" t="n">
-        <v>946.686279296875</v>
+        <v>1175.0224609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>945.6651000976562</v>
+        <v>1130.063598632812</v>
       </c>
       <c r="FH4" t="n">
-        <v>946.3081665039062</v>
+        <v>1086.983642578125</v>
       </c>
       <c r="FI4" t="n">
-        <v>948.664306640625</v>
+        <v>1121.925048828125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>949.4212036132812</v>
+        <v>1097.031616210938</v>
       </c>
       <c r="FK4" t="n">
-        <v>936.4164428710938</v>
+        <v>1058.7666015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>912.3271484375</v>
+        <v>1037.124145507812</v>
       </c>
       <c r="FM4" t="n">
-        <v>897.7741088867188</v>
+        <v>986.24365234375</v>
       </c>
       <c r="FN4" t="n">
-        <v>846.9740600585938</v>
+        <v>939.2012329101562</v>
       </c>
       <c r="FO4" t="n">
-        <v>829.502197265625</v>
+        <v>915.8731689453125</v>
       </c>
       <c r="FP4" t="n">
-        <v>795.0437622070312</v>
+        <v>898.7218627929688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>760.7755737304688</v>
+        <v>869.9359130859375</v>
       </c>
       <c r="FR4" t="n">
-        <v>747.9827880859375</v>
+        <v>861.1884155273438</v>
       </c>
       <c r="FS4" t="n">
-        <v>731.3155517578125</v>
+        <v>845.2396240234375</v>
       </c>
       <c r="FT4" t="n">
-        <v>717.35888671875</v>
+        <v>832.9254150390625</v>
       </c>
       <c r="FU4" t="n">
-        <v>712.0333862304688</v>
+        <v>821.3331298828125</v>
       </c>
       <c r="FV4" t="n">
-        <v>698.7118530273438</v>
+        <v>818.6038208007812</v>
       </c>
       <c r="FW4" t="n">
-        <v>688.2034301757812</v>
+        <v>800.8673706054688</v>
       </c>
       <c r="FX4" t="n">
-        <v>674.257568359375</v>
+        <v>811.7667846679688</v>
       </c>
       <c r="FY4" t="n">
-        <v>668.9566040039062</v>
+        <v>823.61962890625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>664.2819213867188</v>
+        <v>830.545166015625</v>
       </c>
       <c r="GA4" t="n">
-        <v>657.2647094726562</v>
+        <v>843.4418334960938</v>
       </c>
       <c r="GB4" t="n">
-        <v>649.3427124023438</v>
+        <v>847.7811279296875</v>
       </c>
       <c r="GC4" t="n">
-        <v>647.3745727539062</v>
+        <v>861.1636962890625</v>
       </c>
       <c r="GD4" t="n">
-        <v>644.6464233398438</v>
+        <v>872.1350708007812</v>
       </c>
       <c r="GE4" t="n">
-        <v>647.0244140625</v>
+        <v>870.4942016601562</v>
       </c>
       <c r="GF4" t="n">
-        <v>599.5742797851562</v>
+        <v>865.2272338867188</v>
       </c>
       <c r="GG4" t="n">
-        <v>545.1808471679688</v>
+        <v>847.7041625976562</v>
       </c>
       <c r="GH4" t="n">
-        <v>490.0572509765625</v>
+        <v>834.7334594726562</v>
       </c>
       <c r="GI4" t="n">
-        <v>444.6210021972656</v>
+        <v>829.4362182617188</v>
       </c>
       <c r="GJ4" t="n">
-        <v>409.4589233398438</v>
+        <v>824.8095703125</v>
       </c>
       <c r="GK4" t="n">
-        <v>398.5428161621094</v>
+        <v>802.978515625</v>
       </c>
       <c r="GL4" t="n">
-        <v>390.7838439941406</v>
+        <v>788.4967041015625</v>
       </c>
       <c r="GM4" t="n">
-        <v>395.6977233886719</v>
+        <v>763.0608520507812</v>
       </c>
       <c r="GN4" t="n">
-        <v>400.6393432617188</v>
+        <v>734.6966552734375</v>
       </c>
       <c r="GO4" t="n">
-        <v>398.7655639648438</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>397.6480102539062</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>395.4476318359375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>382.52099609375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>376.6829223632812</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>380.6370849609375</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>427.9678649902344</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>456.8899536132812</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>478.4103698730469</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>492.1407165527344</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>479.5599975585938</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>692.2633056640625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>716.3670043945312</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>682.7294921875</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>671.828369140625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>717.7548217773438</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>748.8672485351562</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>767.1343994140625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>782.3035888671875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>785.5716552734375</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>785.0494384765625</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>783.678955078125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>782.5586547851562</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>751.9796142578125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>736.4568481445312</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>703.7258911132812</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>694.94189453125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>695.251708984375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>695.6734008789062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>694.6566772460938</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>693.2297973632812</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>690.85400390625</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>690.210693359375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>593.6434326171875</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>590.8628540039062</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>598.3208618164062</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>594.3253784179688</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>754.42626953125</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>828.3741455078125</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>805.1866455078125</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>784.0614624023438</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>678.4315795898438</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>852.8997802734375</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>878.4896240234375</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>837.6708374023438</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>676.8222045898438</v>
-      </c>
-      <c r="II4" t="n">
-        <v>831.939208984375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>857.177490234375</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>820.8949584960938</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>771.1838989257812</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>564.3474731445312</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>539.7520141601562</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>569.2689819335938</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>568.5346069335938</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>566.6386108398438</v>
+        <v>719.2565307617188</v>
       </c>
     </row>
   </sheetData>

--- a/right_wrist_Data.xlsx
+++ b/right_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>70.06273651123047</v>
       </c>
       <c r="B2" t="n">
-        <v>260.3293762207031</v>
+        <v>68.95851135253906</v>
       </c>
       <c r="C2" t="n">
-        <v>280.7681884765625</v>
+        <v>68.96220397949219</v>
       </c>
       <c r="D2" t="n">
-        <v>240.1661529541016</v>
+        <v>69.01495361328125</v>
       </c>
       <c r="E2" t="n">
-        <v>234.0342712402344</v>
+        <v>69.02143096923828</v>
       </c>
       <c r="F2" t="n">
-        <v>278.3940734863281</v>
+        <v>68.81664276123047</v>
       </c>
       <c r="G2" t="n">
-        <v>242.3516540527344</v>
+        <v>68.57921600341797</v>
       </c>
       <c r="H2" t="n">
-        <v>245.7123413085938</v>
+        <v>68.36396789550781</v>
       </c>
       <c r="I2" t="n">
-        <v>278.2579650878906</v>
+        <v>68.224853515625</v>
       </c>
       <c r="J2" t="n">
-        <v>244.57177734375</v>
+        <v>68.05654144287109</v>
       </c>
       <c r="K2" t="n">
-        <v>241.837890625</v>
+        <v>67.94205474853516</v>
       </c>
       <c r="L2" t="n">
-        <v>278.5650939941406</v>
+        <v>67.40753173828125</v>
       </c>
       <c r="M2" t="n">
-        <v>244.6366271972656</v>
+        <v>66.94477081298828</v>
       </c>
       <c r="N2" t="n">
-        <v>245.3623962402344</v>
+        <v>66.73333740234375</v>
       </c>
       <c r="O2" t="n">
-        <v>279.2393493652344</v>
+        <v>66.45008850097656</v>
       </c>
       <c r="P2" t="n">
-        <v>279.5050354003906</v>
+        <v>66.21341705322266</v>
       </c>
       <c r="Q2" t="n">
-        <v>279.4508056640625</v>
+        <v>66.19268798828125</v>
       </c>
       <c r="R2" t="n">
-        <v>279.4859008789062</v>
+        <v>66.50100708007812</v>
       </c>
       <c r="S2" t="n">
-        <v>265.477783203125</v>
+        <v>66.94048309326172</v>
       </c>
       <c r="T2" t="n">
-        <v>253.0431823730469</v>
+        <v>66.38628387451172</v>
       </c>
       <c r="U2" t="n">
-        <v>279.3082580566406</v>
+        <v>60.9870719909668</v>
       </c>
       <c r="V2" t="n">
-        <v>243.6957550048828</v>
+        <v>56.95719909667969</v>
       </c>
       <c r="W2" t="n">
-        <v>246.059326171875</v>
+        <v>61.71913909912109</v>
       </c>
       <c r="X2" t="n">
-        <v>278.8323974609375</v>
+        <v>67.33330535888672</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.962890625</v>
+        <v>78.13501739501953</v>
       </c>
       <c r="Z2" t="n">
-        <v>245.3189849853516</v>
+        <v>88.03672027587891</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.4082946777344</v>
+        <v>92.25525665283203</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.4730072021484</v>
+        <v>98.03178405761719</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.2092895507812</v>
+        <v>111.8614044189453</v>
       </c>
       <c r="AD2" t="n">
-        <v>277.9528198242188</v>
+        <v>124.8238525390625</v>
       </c>
       <c r="AE2" t="n">
-        <v>247.7401885986328</v>
+        <v>136.0137481689453</v>
       </c>
       <c r="AF2" t="n">
-        <v>247.9103393554688</v>
+        <v>144.2121887207031</v>
       </c>
       <c r="AG2" t="n">
-        <v>278.2771606445312</v>
+        <v>150.5205078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>278.1279907226562</v>
+        <v>157.2019805908203</v>
       </c>
       <c r="AI2" t="n">
-        <v>278.2228393554688</v>
+        <v>166.6089172363281</v>
       </c>
       <c r="AJ2" t="n">
-        <v>278.873779296875</v>
+        <v>174.3065490722656</v>
       </c>
       <c r="AK2" t="n">
-        <v>263.3324890136719</v>
+        <v>180.6296691894531</v>
       </c>
       <c r="AL2" t="n">
-        <v>280.7886657714844</v>
+        <v>246.2602233886719</v>
       </c>
       <c r="AM2" t="n">
-        <v>250.5047912597656</v>
+        <v>246.2782592773438</v>
       </c>
       <c r="AN2" t="n">
-        <v>279.8558959960938</v>
+        <v>249.0232086181641</v>
       </c>
       <c r="AO2" t="n">
-        <v>247.8890228271484</v>
+        <v>245.4530487060547</v>
       </c>
       <c r="AP2" t="n">
-        <v>279.66259765625</v>
+        <v>246.4523620605469</v>
       </c>
       <c r="AQ2" t="n">
-        <v>241.0659790039062</v>
+        <v>246.203857421875</v>
       </c>
       <c r="AR2" t="n">
-        <v>260.1044921875</v>
+        <v>246.2892303466797</v>
       </c>
       <c r="AS2" t="n">
-        <v>307.36572265625</v>
+        <v>246.8248901367188</v>
       </c>
       <c r="AT2" t="n">
-        <v>271.4332885742188</v>
+        <v>247.787353515625</v>
       </c>
       <c r="AU2" t="n">
-        <v>272.9981994628906</v>
+        <v>161.2676391601562</v>
       </c>
       <c r="AV2" t="n">
-        <v>277.6580810546875</v>
+        <v>177.009521484375</v>
       </c>
       <c r="AW2" t="n">
-        <v>293.9955444335938</v>
+        <v>178.8760528564453</v>
       </c>
       <c r="AX2" t="n">
-        <v>312.8202819824219</v>
+        <v>180.5254821777344</v>
       </c>
       <c r="AY2" t="n">
-        <v>327.5858154296875</v>
+        <v>181.518798828125</v>
       </c>
       <c r="AZ2" t="n">
-        <v>336.1117858886719</v>
+        <v>184.2535400390625</v>
       </c>
       <c r="BA2" t="n">
-        <v>341.4575500488281</v>
+        <v>187.9653778076172</v>
       </c>
       <c r="BB2" t="n">
-        <v>343.59765625</v>
+        <v>192.1709594726562</v>
       </c>
       <c r="BC2" t="n">
-        <v>347.0531616210938</v>
+        <v>196.9952697753906</v>
       </c>
       <c r="BD2" t="n">
-        <v>353.6824035644531</v>
+        <v>207.3694763183594</v>
       </c>
       <c r="BE2" t="n">
-        <v>361.0931701660156</v>
+        <v>219.7472839355469</v>
       </c>
       <c r="BF2" t="n">
-        <v>361.3829956054688</v>
+        <v>226.1094970703125</v>
       </c>
       <c r="BG2" t="n">
-        <v>360.9335327148438</v>
+        <v>232.39453125</v>
       </c>
       <c r="BH2" t="n">
-        <v>359.0264282226562</v>
+        <v>236.9313201904297</v>
       </c>
       <c r="BI2" t="n">
-        <v>357.1562194824219</v>
+        <v>243.7050170898438</v>
       </c>
       <c r="BJ2" t="n">
-        <v>345.0758056640625</v>
+        <v>248.0136413574219</v>
       </c>
       <c r="BK2" t="n">
-        <v>329.4576721191406</v>
+        <v>250.5964660644531</v>
       </c>
       <c r="BL2" t="n">
-        <v>323.4056091308594</v>
+        <v>251.65478515625</v>
       </c>
       <c r="BM2" t="n">
-        <v>319.2930603027344</v>
+        <v>252.692138671875</v>
       </c>
       <c r="BN2" t="n">
-        <v>317.78125</v>
+        <v>254.4408416748047</v>
       </c>
       <c r="BO2" t="n">
-        <v>313.3036804199219</v>
+        <v>259.4467163085938</v>
       </c>
       <c r="BP2" t="n">
-        <v>305.9287414550781</v>
+        <v>265.4069213867188</v>
       </c>
       <c r="BQ2" t="n">
-        <v>298.4368896484375</v>
+        <v>269.5893859863281</v>
       </c>
       <c r="BR2" t="n">
-        <v>289.7611083984375</v>
+        <v>276.0321350097656</v>
       </c>
       <c r="BS2" t="n">
+        <v>278.8443908691406</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>279.801025390625</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>279.8678588867188</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>281.2622985839844</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>285.2005920410156</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>293.3467102050781</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>298.4805908203125</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>302.0083312988281</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>306.1592102050781</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>306.0954284667969</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>306.7922668457031</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>307.9713745117188</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>310.9149780273438</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>312.6704711914062</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>312.3609924316406</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>311.6916809082031</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>310.2834167480469</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>309.143310546875</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>308.716552734375</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>308.2488403320312</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>306.9881591796875</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>305.8945617675781</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>305.6558837890625</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>304.9168090820312</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>303.6473388671875</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>301.1858825683594</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>297.7257995605469</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>296.1370849609375</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>294.9844970703125</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>294.0119323730469</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>294.0139770507812</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>292.8786926269531</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>290.3051452636719</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>288.1655883789062</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>285.2999877929688</v>
+      </c>
+      <c r="DB2" t="n">
         <v>283.0030517578125</v>
       </c>
-      <c r="BT2" t="n">
-        <v>280.7414855957031</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>277.1911010742188</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>271.5544128417969</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>263.9894104003906</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>258.0052795410156</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>250.7452392578125</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>245.3866729736328</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>239.5835571289062</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>234.6065063476562</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>228.6968383789062</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>224.7201232910156</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>220.7889709472656</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>218.3083343505859</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>218.9181823730469</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>217.1364135742188</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>218.0574035644531</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>217.9355163574219</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>216.7881011962891</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>215.6593475341797</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>213.8961944580078</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>211.0315093994141</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>208.8447265625</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>208.0697784423828</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>209.5798950195312</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>230.3706970214844</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>238.5649719238281</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>243.894775390625</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>250.419677734375</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>258.1000061035156</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>264.6458740234375</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>271.2702026367188</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>277.3798217773438</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>284.5569458007812</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>292.9314575195312</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>304.3869934082031</v>
-      </c>
       <c r="DC2" t="n">
-        <v>308.8323669433594</v>
+        <v>278.6561279296875</v>
       </c>
       <c r="DD2" t="n">
-        <v>313.3800354003906</v>
+        <v>276.0818481445312</v>
       </c>
       <c r="DE2" t="n">
-        <v>317.2321166992188</v>
+        <v>277.6132507324219</v>
       </c>
       <c r="DF2" t="n">
-        <v>324.0730285644531</v>
+        <v>277.5658264160156</v>
       </c>
       <c r="DG2" t="n">
-        <v>329.60546875</v>
+        <v>277.3531799316406</v>
       </c>
       <c r="DH2" t="n">
-        <v>334.3878784179688</v>
+        <v>277.2704467773438</v>
       </c>
       <c r="DI2" t="n">
-        <v>334.2672119140625</v>
+        <v>277.674072265625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>334.1817016601562</v>
+        <v>277.6628723144531</v>
       </c>
       <c r="DK2" t="n">
-        <v>334.1573486328125</v>
+        <v>277.5921936035156</v>
       </c>
       <c r="DL2" t="n">
-        <v>334.2157592773438</v>
+        <v>277.1671752929688</v>
       </c>
       <c r="DM2" t="n">
-        <v>333.755126953125</v>
+        <v>276.6792602539062</v>
       </c>
       <c r="DN2" t="n">
-        <v>333.6317749023438</v>
+        <v>276.7221374511719</v>
       </c>
       <c r="DO2" t="n">
-        <v>333.383056640625</v>
+        <v>277.0587768554688</v>
       </c>
       <c r="DP2" t="n">
-        <v>332.5967712402344</v>
+        <v>277.3041076660156</v>
       </c>
       <c r="DQ2" t="n">
-        <v>327.2933349609375</v>
+        <v>277.6549682617188</v>
       </c>
       <c r="DR2" t="n">
-        <v>321.8237915039062</v>
+        <v>277.971435546875</v>
       </c>
       <c r="DS2" t="n">
-        <v>313.4797668457031</v>
+        <v>278.3916015625</v>
       </c>
       <c r="DT2" t="n">
-        <v>300.0682067871094</v>
+        <v>280.7792663574219</v>
       </c>
       <c r="DU2" t="n">
-        <v>295.0319519042969</v>
+        <v>282.2622985839844</v>
       </c>
       <c r="DV2" t="n">
-        <v>290.5239868164062</v>
+        <v>283.05615234375</v>
       </c>
       <c r="DW2" t="n">
-        <v>283.1484375</v>
+        <v>280.4322204589844</v>
       </c>
       <c r="DX2" t="n">
-        <v>279.8344421386719</v>
+        <v>280.1461181640625</v>
       </c>
       <c r="DY2" t="n">
-        <v>276.4592590332031</v>
+        <v>279.0642700195312</v>
       </c>
       <c r="DZ2" t="n">
-        <v>276.0023193359375</v>
+        <v>273.0031433105469</v>
       </c>
       <c r="EA2" t="n">
-        <v>270.6133422851562</v>
+        <v>271.0514831542969</v>
       </c>
       <c r="EB2" t="n">
-        <v>264.1011962890625</v>
+        <v>268.9778442382812</v>
       </c>
       <c r="EC2" t="n">
-        <v>264.6268005371094</v>
+        <v>267.1561889648438</v>
       </c>
       <c r="ED2" t="n">
-        <v>267.460693359375</v>
+        <v>267.3047180175781</v>
       </c>
       <c r="EE2" t="n">
-        <v>281.5802001953125</v>
+        <v>269.1944274902344</v>
       </c>
       <c r="EF2" t="n">
-        <v>281.6138305664062</v>
+        <v>271.6698303222656</v>
       </c>
       <c r="EG2" t="n">
-        <v>282.7255554199219</v>
+        <v>277.0199279785156</v>
       </c>
       <c r="EH2" t="n">
-        <v>282.5182495117188</v>
+        <v>277.3466491699219</v>
       </c>
       <c r="EI2" t="n">
-        <v>281.7471008300781</v>
+        <v>274.517333984375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>282.1451416015625</v>
+        <v>276.6189575195312</v>
       </c>
       <c r="EK2" t="n">
-        <v>299.4165649414062</v>
+        <v>270.7651062011719</v>
       </c>
       <c r="EL2" t="n">
-        <v>306.0296630859375</v>
+        <v>266.3299865722656</v>
       </c>
       <c r="EM2" t="n">
-        <v>303.8708190917969</v>
+        <v>256.0577392578125</v>
       </c>
       <c r="EN2" t="n">
-        <v>304.5067749023438</v>
+        <v>245.6640930175781</v>
       </c>
       <c r="EO2" t="n">
-        <v>308.0140686035156</v>
+        <v>235.8170166015625</v>
       </c>
       <c r="EP2" t="n">
-        <v>310.6469116210938</v>
+        <v>224.6466369628906</v>
       </c>
       <c r="EQ2" t="n">
-        <v>311.0656433105469</v>
+        <v>220.4013977050781</v>
       </c>
       <c r="ER2" t="n">
-        <v>310.3815307617188</v>
+        <v>212.8150024414062</v>
       </c>
       <c r="ES2" t="n">
-        <v>308.2700500488281</v>
+        <v>214.2161407470703</v>
       </c>
       <c r="ET2" t="n">
-        <v>286.2968139648438</v>
+        <v>209.1423797607422</v>
       </c>
       <c r="EU2" t="n">
-        <v>275.4487609863281</v>
+        <v>210.4643249511719</v>
       </c>
       <c r="EV2" t="n">
-        <v>270.7771606445312</v>
+        <v>217.1453552246094</v>
       </c>
       <c r="EW2" t="n">
-        <v>254.9629974365234</v>
+        <v>210.7718658447266</v>
       </c>
       <c r="EX2" t="n">
-        <v>246.526611328125</v>
+        <v>215.7061004638672</v>
       </c>
       <c r="EY2" t="n">
-        <v>237.9081878662109</v>
+        <v>210.6327056884766</v>
       </c>
       <c r="EZ2" t="n">
-        <v>294.16064453125</v>
+        <v>206.4730072021484</v>
       </c>
       <c r="FA2" t="n">
-        <v>309.9877014160156</v>
+        <v>207.2032012939453</v>
       </c>
       <c r="FB2" t="n">
-        <v>250.7740173339844</v>
+        <v>211.5045776367188</v>
       </c>
       <c r="FC2" t="n">
-        <v>246.2837982177734</v>
+        <v>205.4723205566406</v>
       </c>
       <c r="FD2" t="n">
-        <v>247.0690612792969</v>
+        <v>206.2553100585938</v>
       </c>
       <c r="FE2" t="n">
-        <v>242.1086120605469</v>
+        <v>206.0189819335938</v>
       </c>
       <c r="FF2" t="n">
-        <v>238.4887084960938</v>
+        <v>213.8379516601562</v>
       </c>
       <c r="FG2" t="n">
-        <v>236.2819061279297</v>
+        <v>205.1634216308594</v>
       </c>
       <c r="FH2" t="n">
-        <v>237.3619689941406</v>
+        <v>215.3087768554688</v>
       </c>
       <c r="FI2" t="n">
-        <v>229.5178070068359</v>
+        <v>208.588134765625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>226.0316162109375</v>
+        <v>206.8621215820312</v>
       </c>
       <c r="FK2" t="n">
-        <v>226.51611328125</v>
+        <v>211.3983764648438</v>
       </c>
       <c r="FL2" t="n">
-        <v>226.1382751464844</v>
+        <v>207.0707702636719</v>
       </c>
       <c r="FM2" t="n">
-        <v>228.2011413574219</v>
+        <v>204.7732543945312</v>
       </c>
       <c r="FN2" t="n">
-        <v>237.1652221679688</v>
+        <v>204.8266296386719</v>
       </c>
       <c r="FO2" t="n">
-        <v>240.8691711425781</v>
+        <v>206.6705474853516</v>
       </c>
       <c r="FP2" t="n">
-        <v>247.3046569824219</v>
+        <v>210.0657958984375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>263.0748596191406</v>
+        <v>214.3989868164062</v>
       </c>
       <c r="FR2" t="n">
-        <v>270.8296203613281</v>
+        <v>216.9454345703125</v>
       </c>
       <c r="FS2" t="n">
-        <v>277.8839111328125</v>
+        <v>224.9475250244141</v>
       </c>
       <c r="FT2" t="n">
-        <v>281.3618774414062</v>
+        <v>228.5735168457031</v>
       </c>
       <c r="FU2" t="n">
-        <v>281.8535766601562</v>
+        <v>239.2036743164062</v>
       </c>
       <c r="FV2" t="n">
-        <v>281.6188049316406</v>
+        <v>243.2598266601562</v>
       </c>
       <c r="FW2" t="n">
-        <v>337.0591430664062</v>
+        <v>261.343017578125</v>
       </c>
       <c r="FX2" t="n">
-        <v>284.5627746582031</v>
+        <v>271.9533996582031</v>
       </c>
       <c r="FY2" t="n">
-        <v>274.6191101074219</v>
+        <v>282.3126220703125</v>
       </c>
       <c r="FZ2" t="n">
-        <v>275.8099365234375</v>
+        <v>288.1211242675781</v>
       </c>
       <c r="GA2" t="n">
-        <v>274.6089477539062</v>
+        <v>291.7392883300781</v>
       </c>
       <c r="GB2" t="n">
-        <v>268.3627624511719</v>
+        <v>293.6427917480469</v>
       </c>
       <c r="GC2" t="n">
-        <v>248.9393463134766</v>
+        <v>294.3033752441406</v>
       </c>
       <c r="GD2" t="n">
-        <v>242.2796783447266</v>
+        <v>291.9896850585938</v>
       </c>
       <c r="GE2" t="n">
-        <v>238.56494140625</v>
+        <v>289.0950622558594</v>
       </c>
       <c r="GF2" t="n">
-        <v>230.7903442382812</v>
+        <v>279.6103820800781</v>
       </c>
       <c r="GG2" t="n">
-        <v>218.4983062744141</v>
+        <v>276.6012878417969</v>
       </c>
       <c r="GH2" t="n">
-        <v>208.7525329589844</v>
+        <v>269.5435180664062</v>
       </c>
       <c r="GI2" t="n">
-        <v>205.8311767578125</v>
+        <v>264.6985168457031</v>
       </c>
       <c r="GJ2" t="n">
-        <v>203.3162689208984</v>
+        <v>263.1563720703125</v>
       </c>
       <c r="GK2" t="n">
-        <v>192.0129699707031</v>
+        <v>261.4132995605469</v>
       </c>
       <c r="GL2" t="n">
-        <v>185.0227203369141</v>
+        <v>259.7235412597656</v>
       </c>
       <c r="GM2" t="n">
-        <v>173.0962829589844</v>
+        <v>259.5663452148438</v>
       </c>
       <c r="GN2" t="n">
-        <v>163.0657043457031</v>
+        <v>259.4154357910156</v>
       </c>
       <c r="GO2" t="n">
-        <v>158.6684722900391</v>
+        <v>259.4650268554688</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>261.4617614746094</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>266.5110473632812</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>267.6598510742188</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>269.1791381835938</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>272.5001220703125</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>274.4767456054688</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>274.1807861328125</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>274.61181640625</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>274.6592712402344</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>272.9663391113281</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>270.9473266601562</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>270.0373840332031</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>265.2425842285156</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>265.2908325195312</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>265.8122253417969</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>269.4790954589844</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>269.6456604003906</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>268.4464111328125</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>267.0003356933594</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>265.6750793457031</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>264.7494201660156</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>261.3943481445312</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>253.8428955078125</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>251.1073608398438</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>250.1955413818359</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>248.595458984375</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>246.1970367431641</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>242.9489135742188</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>230.9082336425781</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>210.2025604248047</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>193.956298828125</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>186.3831329345703</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>167.9734954833984</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>154.6482086181641</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>129.4398498535156</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>115.0678329467773</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>112.3540878295898</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>117.3670043945312</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>98.93357849121094</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>96.74830627441406</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>197.5282135009766</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>192.0074157714844</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>165.9942474365234</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>164.1455383300781</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>164.8028411865234</v>
+      </c>
+      <c r="II2" t="n">
+        <v>170.2637023925781</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>174.2030639648438</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>176.5289459228516</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>178.23291015625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>212.4975891113281</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>198.6484069824219</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>146.78564453125</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>150.6468353271484</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>167.0579223632812</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>147.5727996826172</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>119.1564788818359</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>115.3876647949219</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>128.1805572509766</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>104.5729751586914</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>91.95648193359375</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>48.72866821289062</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>21.41642761230469</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>15.42516326904297</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>21.4055290222168</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>33.48085403442383</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>57.03993988037109</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>80.84799957275391</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>108.3833160400391</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>63.6556282043457</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>10.62836170196533</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>13.74731540679932</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>17.40015602111816</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>10.31465625762939</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>2.110302925109863</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>4.285310745239258</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>12.03506660461426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>398.932373046875</v>
       </c>
       <c r="B3" t="n">
-        <v>392.5855102539062</v>
+        <v>400.1858825683594</v>
       </c>
       <c r="C3" t="n">
-        <v>369.3100280761719</v>
+        <v>400.9762878417969</v>
       </c>
       <c r="D3" t="n">
-        <v>367.3465576171875</v>
+        <v>401.8574829101562</v>
       </c>
       <c r="E3" t="n">
-        <v>361.2807922363281</v>
+        <v>402.6952209472656</v>
       </c>
       <c r="F3" t="n">
-        <v>368.7710876464844</v>
+        <v>403.2484436035156</v>
       </c>
       <c r="G3" t="n">
-        <v>367.855712890625</v>
+        <v>403.6214904785156</v>
       </c>
       <c r="H3" t="n">
-        <v>368.3725891113281</v>
+        <v>403.843017578125</v>
       </c>
       <c r="I3" t="n">
-        <v>368.2314147949219</v>
+        <v>403.7176208496094</v>
       </c>
       <c r="J3" t="n">
-        <v>369.851806640625</v>
+        <v>403.5390319824219</v>
       </c>
       <c r="K3" t="n">
-        <v>369.2509460449219</v>
+        <v>403.1941223144531</v>
       </c>
       <c r="L3" t="n">
-        <v>369.8251953125</v>
+        <v>402.9331970214844</v>
       </c>
       <c r="M3" t="n">
-        <v>369.1243896484375</v>
+        <v>402.5551452636719</v>
       </c>
       <c r="N3" t="n">
-        <v>368.9436645507812</v>
+        <v>402.4592590332031</v>
       </c>
       <c r="O3" t="n">
-        <v>369.5107116699219</v>
+        <v>402.3746643066406</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4194946289062</v>
+        <v>402.1441345214844</v>
       </c>
       <c r="Q3" t="n">
-        <v>369.4066162109375</v>
+        <v>401.1084899902344</v>
       </c>
       <c r="R3" t="n">
-        <v>369.2890014648438</v>
+        <v>399.5018615722656</v>
       </c>
       <c r="S3" t="n">
-        <v>373.0050659179688</v>
+        <v>398.8053894042969</v>
       </c>
       <c r="T3" t="n">
-        <v>371.36572265625</v>
+        <v>398.5147399902344</v>
       </c>
       <c r="U3" t="n">
-        <v>369.1919555664062</v>
+        <v>396.2492065429688</v>
       </c>
       <c r="V3" t="n">
-        <v>371.4451293945312</v>
+        <v>393.0923767089844</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2265014648438</v>
+        <v>392.5846252441406</v>
       </c>
       <c r="X3" t="n">
-        <v>368.5935363769531</v>
+        <v>392.0556335449219</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.8472900390625</v>
+        <v>392.6095886230469</v>
       </c>
       <c r="Z3" t="n">
-        <v>370.5827331542969</v>
+        <v>392.3210754394531</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.4487609863281</v>
+        <v>393.5355224609375</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.3949584960938</v>
+        <v>394.2987670898438</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.9807739257812</v>
+        <v>389.1280517578125</v>
       </c>
       <c r="AD3" t="n">
-        <v>368.4004821777344</v>
+        <v>376.392333984375</v>
       </c>
       <c r="AE3" t="n">
-        <v>369.7754516601562</v>
+        <v>365.6861877441406</v>
       </c>
       <c r="AF3" t="n">
-        <v>369.4967041015625</v>
+        <v>358.3938293457031</v>
       </c>
       <c r="AG3" t="n">
-        <v>367.8171997070312</v>
+        <v>356.2940368652344</v>
       </c>
       <c r="AH3" t="n">
-        <v>367.7684326171875</v>
+        <v>351.0223999023438</v>
       </c>
       <c r="AI3" t="n">
-        <v>367.62890625</v>
+        <v>344.5573120117188</v>
       </c>
       <c r="AJ3" t="n">
-        <v>366.63916015625</v>
+        <v>337.2713623046875</v>
       </c>
       <c r="AK3" t="n">
-        <v>370.3583679199219</v>
+        <v>329.7435607910156</v>
       </c>
       <c r="AL3" t="n">
-        <v>365.0774230957031</v>
+        <v>372.6471862792969</v>
       </c>
       <c r="AM3" t="n">
-        <v>368.6713256835938</v>
+        <v>370.4562683105469</v>
       </c>
       <c r="AN3" t="n">
-        <v>364.307373046875</v>
+        <v>372.0943298339844</v>
       </c>
       <c r="AO3" t="n">
-        <v>368.2224731445312</v>
+        <v>375.4336853027344</v>
       </c>
       <c r="AP3" t="n">
-        <v>364.2461853027344</v>
+        <v>376.0936889648438</v>
       </c>
       <c r="AQ3" t="n">
-        <v>367.9061584472656</v>
+        <v>374.2433776855469</v>
       </c>
       <c r="AR3" t="n">
-        <v>373.6559753417969</v>
+        <v>371.7333984375</v>
       </c>
       <c r="AS3" t="n">
-        <v>352.3626098632812</v>
+        <v>368.8592224121094</v>
       </c>
       <c r="AT3" t="n">
-        <v>447.7907409667969</v>
+        <v>371.1443481445312</v>
       </c>
       <c r="AU3" t="n">
-        <v>458.5419921875</v>
+        <v>359.5752868652344</v>
       </c>
       <c r="AV3" t="n">
-        <v>474.9653930664062</v>
+        <v>367.9633483886719</v>
       </c>
       <c r="AW3" t="n">
-        <v>484.1024169921875</v>
+        <v>370.71533203125</v>
       </c>
       <c r="AX3" t="n">
-        <v>493.2533569335938</v>
+        <v>369.9351501464844</v>
       </c>
       <c r="AY3" t="n">
-        <v>495.81201171875</v>
+        <v>370.0580444335938</v>
       </c>
       <c r="AZ3" t="n">
-        <v>491.1388244628906</v>
+        <v>370.7890014648438</v>
       </c>
       <c r="BA3" t="n">
-        <v>488.1956176757812</v>
+        <v>374.5072631835938</v>
       </c>
       <c r="BB3" t="n">
-        <v>482.334716796875</v>
+        <v>375.3142395019531</v>
       </c>
       <c r="BC3" t="n">
-        <v>478.6144714355469</v>
+        <v>374.9574890136719</v>
       </c>
       <c r="BD3" t="n">
-        <v>476.7826232910156</v>
+        <v>374.0888366699219</v>
       </c>
       <c r="BE3" t="n">
-        <v>473.9907836914062</v>
+        <v>377.2717895507812</v>
       </c>
       <c r="BF3" t="n">
-        <v>473.6110229492188</v>
+        <v>376.1702270507812</v>
       </c>
       <c r="BG3" t="n">
-        <v>473.6748352050781</v>
+        <v>372.2277221679688</v>
       </c>
       <c r="BH3" t="n">
-        <v>475.7460632324219</v>
+        <v>369.57275390625</v>
       </c>
       <c r="BI3" t="n">
-        <v>475.2540588378906</v>
+        <v>366.2956848144531</v>
       </c>
       <c r="BJ3" t="n">
-        <v>480.5472106933594</v>
+        <v>363.7185363769531</v>
       </c>
       <c r="BK3" t="n">
-        <v>480.6403503417969</v>
+        <v>365.1411437988281</v>
       </c>
       <c r="BL3" t="n">
-        <v>482.1454162597656</v>
+        <v>365.670166015625</v>
       </c>
       <c r="BM3" t="n">
-        <v>482.938720703125</v>
+        <v>363.6181335449219</v>
       </c>
       <c r="BN3" t="n">
-        <v>479.382568359375</v>
+        <v>362.1308288574219</v>
       </c>
       <c r="BO3" t="n">
-        <v>478.4704895019531</v>
+        <v>362.4447631835938</v>
       </c>
       <c r="BP3" t="n">
-        <v>480.6170043945312</v>
+        <v>362.5939636230469</v>
       </c>
       <c r="BQ3" t="n">
-        <v>484.2789916992188</v>
+        <v>358.4395446777344</v>
       </c>
       <c r="BR3" t="n">
-        <v>484.3766174316406</v>
+        <v>352.8321533203125</v>
       </c>
       <c r="BS3" t="n">
-        <v>482.380126953125</v>
+        <v>353.4625549316406</v>
       </c>
       <c r="BT3" t="n">
-        <v>478.8670043945312</v>
+        <v>351.4626770019531</v>
       </c>
       <c r="BU3" t="n">
-        <v>479.7222900390625</v>
+        <v>351.7217712402344</v>
       </c>
       <c r="BV3" t="n">
-        <v>482.83984375</v>
+        <v>349.7673034667969</v>
       </c>
       <c r="BW3" t="n">
-        <v>483.0090637207031</v>
+        <v>349.7714233398438</v>
       </c>
       <c r="BX3" t="n">
-        <v>482.2061462402344</v>
+        <v>350.2022094726562</v>
       </c>
       <c r="BY3" t="n">
-        <v>482.8234252929688</v>
+        <v>356.6527099609375</v>
       </c>
       <c r="BZ3" t="n">
-        <v>482.2650146484375</v>
+        <v>356.9019470214844</v>
       </c>
       <c r="CA3" t="n">
-        <v>481.4267272949219</v>
+        <v>355.820556640625</v>
       </c>
       <c r="CB3" t="n">
-        <v>482.5668029785156</v>
+        <v>354.7398071289062</v>
       </c>
       <c r="CC3" t="n">
-        <v>481.0633239746094</v>
+        <v>355.2018127441406</v>
       </c>
       <c r="CD3" t="n">
-        <v>481.1602172851562</v>
+        <v>355.6259765625</v>
       </c>
       <c r="CE3" t="n">
-        <v>479.1296691894531</v>
+        <v>354.0695190429688</v>
       </c>
       <c r="CF3" t="n">
-        <v>473.4693908691406</v>
+        <v>352.8599853515625</v>
       </c>
       <c r="CG3" t="n">
-        <v>467.2315673828125</v>
+        <v>350.4787902832031</v>
       </c>
       <c r="CH3" t="n">
-        <v>465.74462890625</v>
+        <v>348.7355346679688</v>
       </c>
       <c r="CI3" t="n">
-        <v>467.6828918457031</v>
+        <v>348.6374816894531</v>
       </c>
       <c r="CJ3" t="n">
-        <v>468.0263366699219</v>
+        <v>347.5626220703125</v>
       </c>
       <c r="CK3" t="n">
-        <v>469.8362426757812</v>
+        <v>347.4195556640625</v>
       </c>
       <c r="CL3" t="n">
-        <v>475.2896423339844</v>
+        <v>347.8680114746094</v>
       </c>
       <c r="CM3" t="n">
-        <v>476.9198608398438</v>
+        <v>349.8325500488281</v>
       </c>
       <c r="CN3" t="n">
-        <v>476.8947143554688</v>
+        <v>351.3818664550781</v>
       </c>
       <c r="CO3" t="n">
-        <v>477.3693237304688</v>
+        <v>351.9049377441406</v>
       </c>
       <c r="CP3" t="n">
-        <v>479.1902465820312</v>
+        <v>353.3254699707031</v>
       </c>
       <c r="CQ3" t="n">
-        <v>476.6598510742188</v>
+        <v>353.9198913574219</v>
       </c>
       <c r="CR3" t="n">
-        <v>471.3171997070312</v>
+        <v>354.6200866699219</v>
       </c>
       <c r="CS3" t="n">
-        <v>471.1791687011719</v>
+        <v>356.2742309570312</v>
       </c>
       <c r="CT3" t="n">
-        <v>471.1736755371094</v>
+        <v>354.9358520507812</v>
       </c>
       <c r="CU3" t="n">
-        <v>468.5549926757812</v>
+        <v>353.549560546875</v>
       </c>
       <c r="CV3" t="n">
-        <v>468.1870422363281</v>
+        <v>351.8853454589844</v>
       </c>
       <c r="CW3" t="n">
-        <v>465.9645080566406</v>
+        <v>352.152587890625</v>
       </c>
       <c r="CX3" t="n">
-        <v>465.9349365234375</v>
+        <v>346.2010192871094</v>
       </c>
       <c r="CY3" t="n">
-        <v>466.4623413085938</v>
+        <v>338.8765258789062</v>
       </c>
       <c r="CZ3" t="n">
-        <v>465.5159301757812</v>
+        <v>341.5906677246094</v>
       </c>
       <c r="DA3" t="n">
-        <v>466.1529541015625</v>
+        <v>342.4094848632812</v>
       </c>
       <c r="DB3" t="n">
-        <v>464.6659851074219</v>
+        <v>343.1793823242188</v>
       </c>
       <c r="DC3" t="n">
-        <v>465.75439453125</v>
+        <v>343.7246398925781</v>
       </c>
       <c r="DD3" t="n">
-        <v>465.447021484375</v>
+        <v>344.9699096679688</v>
       </c>
       <c r="DE3" t="n">
-        <v>465.7441711425781</v>
+        <v>344.4703674316406</v>
       </c>
       <c r="DF3" t="n">
-        <v>466.7971801757812</v>
+        <v>344.2259826660156</v>
       </c>
       <c r="DG3" t="n">
-        <v>467.5944519042969</v>
+        <v>344.3287963867188</v>
       </c>
       <c r="DH3" t="n">
-        <v>470.9304809570312</v>
+        <v>342.6358337402344</v>
       </c>
       <c r="DI3" t="n">
-        <v>473.7322998046875</v>
+        <v>341.6860656738281</v>
       </c>
       <c r="DJ3" t="n">
-        <v>476.0781860351562</v>
+        <v>341.5467834472656</v>
       </c>
       <c r="DK3" t="n">
-        <v>477.8363952636719</v>
+        <v>341.7045288085938</v>
       </c>
       <c r="DL3" t="n">
-        <v>479.5352783203125</v>
+        <v>342.9730529785156</v>
       </c>
       <c r="DM3" t="n">
-        <v>480.8074951171875</v>
+        <v>344.4014587402344</v>
       </c>
       <c r="DN3" t="n">
-        <v>484.9482421875</v>
+        <v>343.8331909179688</v>
       </c>
       <c r="DO3" t="n">
-        <v>488.4348754882812</v>
+        <v>341.6902770996094</v>
       </c>
       <c r="DP3" t="n">
-        <v>485.2383117675781</v>
+        <v>340.9154052734375</v>
       </c>
       <c r="DQ3" t="n">
-        <v>470.7541198730469</v>
+        <v>340.8022155761719</v>
       </c>
       <c r="DR3" t="n">
-        <v>462.2469787597656</v>
+        <v>341.0301513671875</v>
       </c>
       <c r="DS3" t="n">
-        <v>456.5636596679688</v>
+        <v>341.7340393066406</v>
       </c>
       <c r="DT3" t="n">
-        <v>440.8434143066406</v>
+        <v>342.0336608886719</v>
       </c>
       <c r="DU3" t="n">
-        <v>434.5503845214844</v>
+        <v>342.1651306152344</v>
       </c>
       <c r="DV3" t="n">
-        <v>424.591552734375</v>
+        <v>342.1806335449219</v>
       </c>
       <c r="DW3" t="n">
-        <v>405.8284606933594</v>
+        <v>343.2132568359375</v>
       </c>
       <c r="DX3" t="n">
-        <v>397.7160949707031</v>
+        <v>343.2907104492188</v>
       </c>
       <c r="DY3" t="n">
-        <v>387.3465576171875</v>
+        <v>343.0653381347656</v>
       </c>
       <c r="DZ3" t="n">
-        <v>385.7606811523438</v>
+        <v>341.5717163085938</v>
       </c>
       <c r="EA3" t="n">
-        <v>386.5895385742188</v>
+        <v>341.2856750488281</v>
       </c>
       <c r="EB3" t="n">
-        <v>400.7219543457031</v>
+        <v>341.517333984375</v>
       </c>
       <c r="EC3" t="n">
-        <v>412.4802856445312</v>
+        <v>342.9684448242188</v>
       </c>
       <c r="ED3" t="n">
-        <v>440.9356384277344</v>
+        <v>342.2391967773438</v>
       </c>
       <c r="EE3" t="n">
-        <v>462.5826110839844</v>
+        <v>340.5630187988281</v>
       </c>
       <c r="EF3" t="n">
-        <v>467.6571044921875</v>
+        <v>340.2842102050781</v>
       </c>
       <c r="EG3" t="n">
-        <v>490.39208984375</v>
+        <v>342.1070556640625</v>
       </c>
       <c r="EH3" t="n">
-        <v>503.7485961914062</v>
+        <v>340.5301208496094</v>
       </c>
       <c r="EI3" t="n">
-        <v>500.7278747558594</v>
+        <v>343.905029296875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>498.7065124511719</v>
+        <v>340.2596435546875</v>
       </c>
       <c r="EK3" t="n">
-        <v>499.185546875</v>
+        <v>336.4464416503906</v>
       </c>
       <c r="EL3" t="n">
-        <v>494.2535095214844</v>
+        <v>333.7254028320312</v>
       </c>
       <c r="EM3" t="n">
-        <v>487.3153381347656</v>
+        <v>330.37744140625</v>
       </c>
       <c r="EN3" t="n">
-        <v>484.5002136230469</v>
+        <v>328.9602966308594</v>
       </c>
       <c r="EO3" t="n">
-        <v>479.709716796875</v>
+        <v>323.4203796386719</v>
       </c>
       <c r="EP3" t="n">
-        <v>478.6109924316406</v>
+        <v>307.7998962402344</v>
       </c>
       <c r="EQ3" t="n">
-        <v>480.7032470703125</v>
+        <v>301.2236022949219</v>
       </c>
       <c r="ER3" t="n">
-        <v>482.995361328125</v>
+        <v>287.7522277832031</v>
       </c>
       <c r="ES3" t="n">
-        <v>487.5827331542969</v>
+        <v>266.2086791992188</v>
       </c>
       <c r="ET3" t="n">
-        <v>497.1324462890625</v>
+        <v>273.0980834960938</v>
       </c>
       <c r="EU3" t="n">
-        <v>503.6452026367188</v>
+        <v>268.8822937011719</v>
       </c>
       <c r="EV3" t="n">
-        <v>508.4549255371094</v>
+        <v>253.0636596679688</v>
       </c>
       <c r="EW3" t="n">
-        <v>513.1119995117188</v>
+        <v>253.962158203125</v>
       </c>
       <c r="EX3" t="n">
-        <v>514.5107421875</v>
+        <v>240.5448303222656</v>
       </c>
       <c r="EY3" t="n">
-        <v>513.9315185546875</v>
+        <v>247.8990325927734</v>
       </c>
       <c r="EZ3" t="n">
-        <v>329.1803283691406</v>
+        <v>244.8083801269531</v>
       </c>
       <c r="FA3" t="n">
-        <v>505.5746154785156</v>
+        <v>241.6452026367188</v>
       </c>
       <c r="FB3" t="n">
-        <v>513.2020874023438</v>
+        <v>232.7831878662109</v>
       </c>
       <c r="FC3" t="n">
-        <v>510.2981262207031</v>
+        <v>242.8119812011719</v>
       </c>
       <c r="FD3" t="n">
-        <v>509.9266357421875</v>
+        <v>242.3295288085938</v>
       </c>
       <c r="FE3" t="n">
-        <v>512.0046997070312</v>
+        <v>242.5330657958984</v>
       </c>
       <c r="FF3" t="n">
-        <v>512.1162109375</v>
+        <v>226.4791717529297</v>
       </c>
       <c r="FG3" t="n">
-        <v>518.1302490234375</v>
+        <v>241.4823608398438</v>
       </c>
       <c r="FH3" t="n">
-        <v>518.7884521484375</v>
+        <v>226.6791687011719</v>
       </c>
       <c r="FI3" t="n">
-        <v>505.3972473144531</v>
+        <v>238.5894775390625</v>
       </c>
       <c r="FJ3" t="n">
-        <v>504.8285827636719</v>
+        <v>245.2233428955078</v>
       </c>
       <c r="FK3" t="n">
-        <v>503.2486572265625</v>
+        <v>242.3097534179688</v>
       </c>
       <c r="FL3" t="n">
-        <v>506.4886169433594</v>
+        <v>256.8780517578125</v>
       </c>
       <c r="FM3" t="n">
-        <v>516.8653564453125</v>
+        <v>268.710205078125</v>
       </c>
       <c r="FN3" t="n">
-        <v>524.5634765625</v>
+        <v>270.6566467285156</v>
       </c>
       <c r="FO3" t="n">
-        <v>530.0064086914062</v>
+        <v>278.0114440917969</v>
       </c>
       <c r="FP3" t="n">
-        <v>535.6968383789062</v>
+        <v>287.5172424316406</v>
       </c>
       <c r="FQ3" t="n">
-        <v>545.7237548828125</v>
+        <v>297.1663818359375</v>
       </c>
       <c r="FR3" t="n">
-        <v>547.52978515625</v>
+        <v>302.4721374511719</v>
       </c>
       <c r="FS3" t="n">
-        <v>546.60400390625</v>
+        <v>311.8758850097656</v>
       </c>
       <c r="FT3" t="n">
-        <v>544.7391967773438</v>
+        <v>315.8598327636719</v>
       </c>
       <c r="FU3" t="n">
-        <v>540.5074462890625</v>
+        <v>325.2637023925781</v>
       </c>
       <c r="FV3" t="n">
-        <v>537.9357299804688</v>
+        <v>330.0497131347656</v>
       </c>
       <c r="FW3" t="n">
-        <v>547.7779541015625</v>
+        <v>336.6578674316406</v>
       </c>
       <c r="FX3" t="n">
-        <v>533.4227905273438</v>
+        <v>340.2342529296875</v>
       </c>
       <c r="FY3" t="n">
-        <v>523.8023681640625</v>
+        <v>347.4542541503906</v>
       </c>
       <c r="FZ3" t="n">
-        <v>522.84912109375</v>
+        <v>346.5818481445312</v>
       </c>
       <c r="GA3" t="n">
-        <v>522.088623046875</v>
+        <v>344.8463745117188</v>
       </c>
       <c r="GB3" t="n">
-        <v>519.6990966796875</v>
+        <v>345.6363220214844</v>
       </c>
       <c r="GC3" t="n">
-        <v>511.9242553710938</v>
+        <v>345.8753662109375</v>
       </c>
       <c r="GD3" t="n">
-        <v>507.6847534179688</v>
+        <v>345.3554382324219</v>
       </c>
       <c r="GE3" t="n">
-        <v>513.7778930664062</v>
+        <v>344.314208984375</v>
       </c>
       <c r="GF3" t="n">
-        <v>520.384765625</v>
+        <v>340.6207275390625</v>
       </c>
       <c r="GG3" t="n">
-        <v>529.14990234375</v>
+        <v>339.6759948730469</v>
       </c>
       <c r="GH3" t="n">
-        <v>533.744384765625</v>
+        <v>335.3048095703125</v>
       </c>
       <c r="GI3" t="n">
-        <v>535.4208374023438</v>
+        <v>333.6433715820312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>535.5360107421875</v>
+        <v>332.188232421875</v>
       </c>
       <c r="GK3" t="n">
-        <v>537.43310546875</v>
+        <v>329.8232116699219</v>
       </c>
       <c r="GL3" t="n">
-        <v>539.6565551757812</v>
+        <v>330.7700805664062</v>
       </c>
       <c r="GM3" t="n">
-        <v>542.2503662109375</v>
+        <v>331.7858276367188</v>
       </c>
       <c r="GN3" t="n">
-        <v>545.3482666015625</v>
+        <v>332.2032470703125</v>
       </c>
       <c r="GO3" t="n">
-        <v>550.1146850585938</v>
+        <v>332.7388916015625</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>333.8522644042969</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>336.8846435546875</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>337.4487915039062</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>337.7267456054688</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>338.4631652832031</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>340.1260070800781</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>341.04736328125</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>341.0431823730469</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>341.7037353515625</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>346.4104614257812</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>351.64794921875</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>353.6114807128906</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>354.1806030273438</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>353.30419921875</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>352.8046569824219</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>358.2274780273438</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>359.8549499511719</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>362.2798461914062</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>364.6776733398438</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>363.5310668945312</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>360.8253479003906</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>354.9803161621094</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>358.4725646972656</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>359.7875061035156</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>359.154541015625</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>357.3499145507812</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>356.98779296875</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>357.5081176757812</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>352.0909423828125</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>349.3904724121094</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>350.7343444824219</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>346.00048828125</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>350.9197387695312</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>354.2838134765625</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>350.4608154296875</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>352.8277282714844</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>358.3542175292969</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>362.3185424804688</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>360.1286926269531</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>361.8891906738281</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>184.4065704345703</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>181.7870330810547</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>393.4328918457031</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>394.6676635742188</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>393.7416076660156</v>
+      </c>
+      <c r="II3" t="n">
+        <v>396.2256469726562</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>397.8070373535156</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>401.7985229492188</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>403.8507385253906</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>164.5918579101562</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>515.4703979492188</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>664.599853515625</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>808.1757202148438</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>828.0142822265625</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>797.1829223632812</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>740.125</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>658.5330810546875</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>616.2188110351562</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>569.2627563476562</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>487.9053955078125</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>425.6012878417969</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>429.2908020019531</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>436.5821533203125</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>500.1429138183594</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>535.4732055664062</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>524.7144775390625</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>511.310791015625</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>514.4177856445312</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>427.6086730957031</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>474.8423156738281</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>477.9435119628906</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>475.118408203125</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>479.2352905273438</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>488.2447204589844</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>502.6009826660156</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>518.0587158203125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>763.2379760742188</v>
       </c>
       <c r="B4" t="n">
-        <v>523.16259765625</v>
+        <v>758.6692504882812</v>
       </c>
       <c r="C4" t="n">
-        <v>556.3046264648438</v>
+        <v>758.31201171875</v>
       </c>
       <c r="D4" t="n">
-        <v>546.603271484375</v>
+        <v>758.0306396484375</v>
       </c>
       <c r="E4" t="n">
-        <v>551.0484008789062</v>
+        <v>757.623291015625</v>
       </c>
       <c r="F4" t="n">
-        <v>563.8538208007812</v>
+        <v>756.57080078125</v>
       </c>
       <c r="G4" t="n">
-        <v>552.7716674804688</v>
+        <v>755.4923095703125</v>
       </c>
       <c r="H4" t="n">
-        <v>553.4987182617188</v>
+        <v>754.4840698242188</v>
       </c>
       <c r="I4" t="n">
-        <v>567.3900146484375</v>
+        <v>753.6482543945312</v>
       </c>
       <c r="J4" t="n">
-        <v>555.22119140625</v>
+        <v>752.8306884765625</v>
       </c>
       <c r="K4" t="n">
-        <v>556.0924072265625</v>
+        <v>752.1973876953125</v>
       </c>
       <c r="L4" t="n">
-        <v>569.7966918945312</v>
+        <v>751.2281494140625</v>
       </c>
       <c r="M4" t="n">
-        <v>556.9672241210938</v>
+        <v>750.4140625</v>
       </c>
       <c r="N4" t="n">
-        <v>557.4030151367188</v>
+        <v>750.7813720703125</v>
       </c>
       <c r="O4" t="n">
-        <v>572.4558715820312</v>
+        <v>750.9983520507812</v>
       </c>
       <c r="P4" t="n">
-        <v>573.4105834960938</v>
+        <v>751.3573608398438</v>
       </c>
       <c r="Q4" t="n">
-        <v>573.7500610351562</v>
+        <v>752.4283447265625</v>
       </c>
       <c r="R4" t="n">
-        <v>574.1598510742188</v>
+        <v>754.4707641601562</v>
       </c>
       <c r="S4" t="n">
-        <v>558.9146118164062</v>
+        <v>757.0502319335938</v>
       </c>
       <c r="T4" t="n">
-        <v>559.751708984375</v>
+        <v>759.9805297851562</v>
       </c>
       <c r="U4" t="n">
-        <v>575.4960327148438</v>
+        <v>763.31884765625</v>
       </c>
       <c r="V4" t="n">
-        <v>561.4286499023438</v>
+        <v>772.6047973632812</v>
       </c>
       <c r="W4" t="n">
-        <v>561.6685791015625</v>
+        <v>771.0150756835938</v>
       </c>
       <c r="X4" t="n">
-        <v>577.0443725585938</v>
+        <v>766.9598388671875</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6237182617188</v>
+        <v>777.7626953125</v>
       </c>
       <c r="Z4" t="n">
-        <v>563.1671142578125</v>
+        <v>797.3909912109375</v>
       </c>
       <c r="AA4" t="n">
-        <v>578.3588256835938</v>
+        <v>804.8509521484375</v>
       </c>
       <c r="AB4" t="n">
-        <v>564.0845336914062</v>
+        <v>831.437744140625</v>
       </c>
       <c r="AC4" t="n">
-        <v>564.6214599609375</v>
+        <v>921.6563720703125</v>
       </c>
       <c r="AD4" t="n">
-        <v>579.5610961914062</v>
+        <v>1003.160278320312</v>
       </c>
       <c r="AE4" t="n">
-        <v>565.5794677734375</v>
+        <v>1058.9228515625</v>
       </c>
       <c r="AF4" t="n">
-        <v>566.1217651367188</v>
+        <v>1085.438598632812</v>
       </c>
       <c r="AG4" t="n">
-        <v>581.583251953125</v>
+        <v>1078.348510742188</v>
       </c>
       <c r="AH4" t="n">
-        <v>582.0997314453125</v>
+        <v>1071.350830078125</v>
       </c>
       <c r="AI4" t="n">
-        <v>582.7283935546875</v>
+        <v>1086.480712890625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>584.1359252929688</v>
+        <v>1103.55126953125</v>
       </c>
       <c r="AK4" t="n">
-        <v>568.3139038085938</v>
+        <v>1124.391845703125</v>
       </c>
       <c r="AL4" t="n">
-        <v>587.0762939453125</v>
+        <v>1046.10302734375</v>
       </c>
       <c r="AM4" t="n">
-        <v>571.4971313476562</v>
+        <v>1054.916015625</v>
       </c>
       <c r="AN4" t="n">
-        <v>589.33642578125</v>
+        <v>1065.284790039062</v>
       </c>
       <c r="AO4" t="n">
-        <v>573.0377197265625</v>
+        <v>1072.0712890625</v>
       </c>
       <c r="AP4" t="n">
-        <v>591.300537109375</v>
+        <v>1083.877319335938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>575.6392211914062</v>
+        <v>1097.385498046875</v>
       </c>
       <c r="AR4" t="n">
-        <v>598.1515502929688</v>
+        <v>1113.137084960938</v>
       </c>
       <c r="AS4" t="n">
-        <v>646.3267822265625</v>
+        <v>1132.99560546875</v>
       </c>
       <c r="AT4" t="n">
-        <v>674.997314453125</v>
+        <v>1149.498291015625</v>
       </c>
       <c r="AU4" t="n">
-        <v>704.9873657226562</v>
+        <v>1029.762939453125</v>
       </c>
       <c r="AV4" t="n">
-        <v>742.8391723632812</v>
+        <v>1036.098754882812</v>
       </c>
       <c r="AW4" t="n">
-        <v>782.8999633789062</v>
+        <v>1045.633544921875</v>
       </c>
       <c r="AX4" t="n">
-        <v>821.3212890625</v>
+        <v>1051.0927734375</v>
       </c>
       <c r="AY4" t="n">
-        <v>861.6148681640625</v>
+        <v>1063.861083984375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>887.5653076171875</v>
+        <v>1088.563110351562</v>
       </c>
       <c r="BA4" t="n">
-        <v>893.23388671875</v>
+        <v>1110.078735351562</v>
       </c>
       <c r="BB4" t="n">
-        <v>902.0988159179688</v>
+        <v>1142.282958984375</v>
       </c>
       <c r="BC4" t="n">
-        <v>908.2828369140625</v>
+        <v>1160.172973632812</v>
       </c>
       <c r="BD4" t="n">
-        <v>912.1243286132812</v>
+        <v>1187.781372070312</v>
       </c>
       <c r="BE4" t="n">
-        <v>922.6095581054688</v>
+        <v>1215.933349609375</v>
       </c>
       <c r="BF4" t="n">
-        <v>935.6851196289062</v>
+        <v>1258.26806640625</v>
       </c>
       <c r="BG4" t="n">
-        <v>943.0096435546875</v>
+        <v>1297.280029296875</v>
       </c>
       <c r="BH4" t="n">
-        <v>953.75439453125</v>
+        <v>1321.852905273438</v>
       </c>
       <c r="BI4" t="n">
-        <v>963.2772216796875</v>
+        <v>1381.149169921875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>963.5369262695312</v>
+        <v>1418.013671875</v>
       </c>
       <c r="BK4" t="n">
-        <v>965.9849853515625</v>
+        <v>1437.53564453125</v>
       </c>
       <c r="BL4" t="n">
-        <v>968.8113403320312</v>
+        <v>1466.170288085938</v>
       </c>
       <c r="BM4" t="n">
-        <v>968.9295043945312</v>
+        <v>1474.671752929688</v>
       </c>
       <c r="BN4" t="n">
-        <v>971.729736328125</v>
+        <v>1477.75</v>
       </c>
       <c r="BO4" t="n">
-        <v>970.8974609375</v>
+        <v>1478.490478515625</v>
       </c>
       <c r="BP4" t="n">
-        <v>965.001953125</v>
+        <v>1483.644775390625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>960.2384033203125</v>
+        <v>1495.2451171875</v>
       </c>
       <c r="BR4" t="n">
-        <v>960.3394165039062</v>
+        <v>1512.265258789062</v>
       </c>
       <c r="BS4" t="n">
-        <v>963.7056884765625</v>
+        <v>1525.3125</v>
       </c>
       <c r="BT4" t="n">
-        <v>972.7325439453125</v>
+        <v>1548.863037109375</v>
       </c>
       <c r="BU4" t="n">
-        <v>983.155517578125</v>
+        <v>1557.23779296875</v>
       </c>
       <c r="BV4" t="n">
-        <v>992.0071411132812</v>
+        <v>1580.017578125</v>
       </c>
       <c r="BW4" t="n">
-        <v>996.4290161132812</v>
+        <v>1593.474975585938</v>
       </c>
       <c r="BX4" t="n">
-        <v>994.8627319335938</v>
+        <v>1611.377563476562</v>
       </c>
       <c r="BY4" t="n">
-        <v>992.3348388671875</v>
+        <v>1618.94677734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>993.904541015625</v>
+        <v>1637.571533203125</v>
       </c>
       <c r="CA4" t="n">
-        <v>996.5509643554688</v>
+        <v>1669.98388671875</v>
       </c>
       <c r="CB4" t="n">
-        <v>998.0572509765625</v>
+        <v>1702.864501953125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1003.202453613281</v>
+        <v>1704.215576171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>999.244873046875</v>
+        <v>1716.9189453125</v>
       </c>
       <c r="CE4" t="n">
-        <v>994.7139282226562</v>
+        <v>1728.5087890625</v>
       </c>
       <c r="CF4" t="n">
-        <v>990.6842041015625</v>
+        <v>1745.799072265625</v>
       </c>
       <c r="CG4" t="n">
-        <v>989.6455078125</v>
+        <v>1766.7041015625</v>
       </c>
       <c r="CH4" t="n">
-        <v>990.959716796875</v>
+        <v>1787.852661132812</v>
       </c>
       <c r="CI4" t="n">
-        <v>990.1188354492188</v>
+        <v>1808.217651367188</v>
       </c>
       <c r="CJ4" t="n">
-        <v>991.4273071289062</v>
+        <v>1818.392456054688</v>
       </c>
       <c r="CK4" t="n">
-        <v>989.2618408203125</v>
+        <v>1833.066772460938</v>
       </c>
       <c r="CL4" t="n">
-        <v>983.7830200195312</v>
+        <v>1852.741088867188</v>
       </c>
       <c r="CM4" t="n">
-        <v>984.922119140625</v>
+        <v>1870.497192382812</v>
       </c>
       <c r="CN4" t="n">
-        <v>990.1651611328125</v>
+        <v>1877.59423828125</v>
       </c>
       <c r="CO4" t="n">
-        <v>991.8439331054688</v>
+        <v>1878.609619140625</v>
       </c>
       <c r="CP4" t="n">
-        <v>989.080322265625</v>
+        <v>1883.881591796875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>992.05224609375</v>
+        <v>1892.267211914062</v>
       </c>
       <c r="CR4" t="n">
-        <v>998.5454711914062</v>
+        <v>1911.638916015625</v>
       </c>
       <c r="CS4" t="n">
-        <v>998.737060546875</v>
+        <v>1931.665283203125</v>
       </c>
       <c r="CT4" t="n">
-        <v>998.7354736328125</v>
+        <v>1941.894775390625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1002.401672363281</v>
+        <v>1951.365600585938</v>
       </c>
       <c r="CV4" t="n">
-        <v>1003.119201660156</v>
+        <v>1966.17431640625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1006.2998046875</v>
+        <v>1980.681518554688</v>
       </c>
       <c r="CX4" t="n">
-        <v>1007.431091308594</v>
+        <v>1998.47412109375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1008.443176269531</v>
+        <v>2023.878784179688</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1012.617065429688</v>
+        <v>2017.9931640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1015.621276855469</v>
+        <v>2040.762939453125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1019.380920410156</v>
+        <v>2046.67431640625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1020.669311523438</v>
+        <v>2055.2978515625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1024.035034179688</v>
+        <v>2071.63330078125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1028.488403320312</v>
+        <v>2054.4658203125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1024.308837890625</v>
+        <v>2053.88037109375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1019.431762695312</v>
+        <v>2061.175048828125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1014.31689453125</v>
+        <v>2068.680419921875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1009.91455078125</v>
+        <v>2073.87451171875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1003.657836914062</v>
+        <v>2073.843505859375</v>
       </c>
       <c r="DK4" t="n">
-        <v>993.7294921875</v>
+        <v>2072.212646484375</v>
       </c>
       <c r="DL4" t="n">
-        <v>982.761474609375</v>
+        <v>2065.751708984375</v>
       </c>
       <c r="DM4" t="n">
-        <v>977.98046875</v>
+        <v>2058.40625</v>
       </c>
       <c r="DN4" t="n">
-        <v>965.5360717773438</v>
+        <v>2056.09814453125</v>
       </c>
       <c r="DO4" t="n">
-        <v>954.4970703125</v>
+        <v>2047.532958984375</v>
       </c>
       <c r="DP4" t="n">
-        <v>950.252197265625</v>
+        <v>2043.218383789062</v>
       </c>
       <c r="DQ4" t="n">
-        <v>954.7076416015625</v>
+        <v>2040.8134765625</v>
       </c>
       <c r="DR4" t="n">
-        <v>952.7833251953125</v>
+        <v>2038.587646484375</v>
       </c>
       <c r="DS4" t="n">
-        <v>953.413818359375</v>
+        <v>2035.849243164062</v>
       </c>
       <c r="DT4" t="n">
-        <v>953.8818359375</v>
+        <v>2036.615112304688</v>
       </c>
       <c r="DU4" t="n">
-        <v>962.4312744140625</v>
+        <v>2032.947875976562</v>
       </c>
       <c r="DV4" t="n">
-        <v>977.564208984375</v>
+        <v>2029.311401367188</v>
       </c>
       <c r="DW4" t="n">
-        <v>1013.912963867188</v>
+        <v>2025.17041015625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1026.698364257812</v>
+        <v>2024.440673828125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1051.637573242188</v>
+        <v>2025.403076171875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1060.945922851562</v>
+        <v>2029.530639648438</v>
       </c>
       <c r="EA4" t="n">
-        <v>1076.329956054688</v>
+        <v>2029.628295898438</v>
       </c>
       <c r="EB4" t="n">
-        <v>1080.045654296875</v>
+        <v>2026.3603515625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1083.863037109375</v>
+        <v>2029.972412109375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1078.143188476562</v>
+        <v>2031.310424804688</v>
       </c>
       <c r="EE4" t="n">
-        <v>1055.692138671875</v>
+        <v>2033.140625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1056.530151367188</v>
+        <v>2022.464233398438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1068.095092773438</v>
+        <v>2033.869262695312</v>
       </c>
       <c r="EH4" t="n">
-        <v>1084.579833984375</v>
+        <v>2019.688720703125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1079.844970703125</v>
+        <v>2052.63134765625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1073.05712890625</v>
+        <v>2018.130981445312</v>
       </c>
       <c r="EK4" t="n">
-        <v>1073.572143554688</v>
+        <v>2014.188720703125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1079.12060546875</v>
+        <v>2014.743286132812</v>
       </c>
       <c r="EM4" t="n">
-        <v>1088.89306640625</v>
+        <v>2041.3818359375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1092.646240234375</v>
+        <v>2060.7578125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1105.098022460938</v>
+        <v>2078.58642578125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1111.800415039062</v>
+        <v>2084.846923828125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1118.446044921875</v>
+        <v>2092.316162109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1119.845336914062</v>
+        <v>2129.98095703125</v>
       </c>
       <c r="ES4" t="n">
-        <v>1129.897827148438</v>
+        <v>2149.94677734375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1160.078369140625</v>
+        <v>2181.526123046875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1164.731689453125</v>
+        <v>2204.15673828125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1164.037841796875</v>
+        <v>2259.40234375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1181.639526367188</v>
+        <v>2239.482666015625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1194.413940429688</v>
+        <v>2245.135986328125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1203.894409179688</v>
+        <v>2248.726806640625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1198.429565429688</v>
+        <v>2233.48046875</v>
       </c>
       <c r="FA4" t="n">
-        <v>1157.251342773438</v>
+        <v>2234.66796875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1249.622314453125</v>
+        <v>2234.94287109375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1236.035888671875</v>
+        <v>2234.3388671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1229.059204101562</v>
+        <v>2230.637451171875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1194.443481445312</v>
+        <v>2230.4736328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1175.0224609375</v>
+        <v>2225.1796875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1130.063598632812</v>
+        <v>2230.8994140625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1086.983642578125</v>
+        <v>2215.41552734375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1121.925048828125</v>
+        <v>2225.16259765625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1097.031616210938</v>
+        <v>2230.532470703125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1058.7666015625</v>
+        <v>2202.58154296875</v>
       </c>
       <c r="FL4" t="n">
-        <v>1037.124145507812</v>
+        <v>2161.83447265625</v>
       </c>
       <c r="FM4" t="n">
-        <v>986.24365234375</v>
+        <v>2103.75146484375</v>
       </c>
       <c r="FN4" t="n">
-        <v>939.2012329101562</v>
+        <v>2150.78515625</v>
       </c>
       <c r="FO4" t="n">
-        <v>915.8731689453125</v>
+        <v>2089.407958984375</v>
       </c>
       <c r="FP4" t="n">
-        <v>898.7218627929688</v>
+        <v>2065.6357421875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>869.9359130859375</v>
+        <v>2055.306396484375</v>
       </c>
       <c r="FR4" t="n">
-        <v>861.1884155273438</v>
+        <v>2040.941772460938</v>
       </c>
       <c r="FS4" t="n">
-        <v>845.2396240234375</v>
+        <v>2047.021728515625</v>
       </c>
       <c r="FT4" t="n">
-        <v>832.9254150390625</v>
+        <v>2043.519287109375</v>
       </c>
       <c r="FU4" t="n">
-        <v>821.3331298828125</v>
+        <v>2035.43701171875</v>
       </c>
       <c r="FV4" t="n">
-        <v>818.6038208007812</v>
+        <v>2025.89404296875</v>
       </c>
       <c r="FW4" t="n">
-        <v>800.8673706054688</v>
+        <v>1981.006958007812</v>
       </c>
       <c r="FX4" t="n">
-        <v>811.7667846679688</v>
+        <v>1990.639526367188</v>
       </c>
       <c r="FY4" t="n">
-        <v>823.61962890625</v>
+        <v>2003.28515625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>830.545166015625</v>
+        <v>2019.415649414062</v>
       </c>
       <c r="GA4" t="n">
-        <v>843.4418334960938</v>
+        <v>2018.37890625</v>
       </c>
       <c r="GB4" t="n">
-        <v>847.7811279296875</v>
+        <v>2023.355834960938</v>
       </c>
       <c r="GC4" t="n">
-        <v>861.1636962890625</v>
+        <v>2023.103515625</v>
       </c>
       <c r="GD4" t="n">
-        <v>872.1350708007812</v>
+        <v>2020.723999023438</v>
       </c>
       <c r="GE4" t="n">
-        <v>870.4942016601562</v>
+        <v>2019.001708984375</v>
       </c>
       <c r="GF4" t="n">
-        <v>865.2272338867188</v>
+        <v>2005.829345703125</v>
       </c>
       <c r="GG4" t="n">
-        <v>847.7041625976562</v>
+        <v>2006.291259765625</v>
       </c>
       <c r="GH4" t="n">
-        <v>834.7334594726562</v>
+        <v>1998.553833007812</v>
       </c>
       <c r="GI4" t="n">
-        <v>829.4362182617188</v>
+        <v>2001.048706054688</v>
       </c>
       <c r="GJ4" t="n">
-        <v>824.8095703125</v>
+        <v>2004.587890625</v>
       </c>
       <c r="GK4" t="n">
-        <v>802.978515625</v>
+        <v>2005.83349609375</v>
       </c>
       <c r="GL4" t="n">
-        <v>788.4967041015625</v>
+        <v>2006.104736328125</v>
       </c>
       <c r="GM4" t="n">
-        <v>763.0608520507812</v>
+        <v>2005.8662109375</v>
       </c>
       <c r="GN4" t="n">
-        <v>734.6966552734375</v>
+        <v>2003.763427734375</v>
       </c>
       <c r="GO4" t="n">
-        <v>719.2565307617188</v>
+        <v>2001.752563476562</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2000.824462890625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>1999.448974609375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2001.716430664062</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2001.03173828125</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2004.465942382812</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2002.573974609375</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2000.979248046875</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1995.494140625</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1988.997680664062</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1970.500366210938</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1963.807373046875</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1968.034301757812</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1970.809814453125</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1949.255981445312</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1920.903686523438</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1842.793823242188</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1815.00439453125</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1774.106079101562</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1722.316284179688</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1681.922607421875</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1658.00244140625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1607.749633789062</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1549.4453125</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1497.835693359375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1478.932250976562</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1444.982055664062</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1406.308471679688</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1362.26123046875</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1337.906616210938</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1288.89404296875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1241.165283203125</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1211.96728515625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1181.764892578125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1157.457641601562</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1115.942504882812</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1093.884155273438</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1052.266479492188</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1031.759033203125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1030.43115234375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1007.508178710938</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1088.27587890625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1059.567016601562</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1077.233642578125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1045.903442382812</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1020.334899902344</v>
+      </c>
+      <c r="II4" t="n">
+        <v>989.8126220703125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>967.3091430664062</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>949.0758666992188</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>935.808837890625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>758.7277221679688</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>717.640869140625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>569.2091674804688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>450.7431945800781</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>431.2535705566406</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>437.9371948242188</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>469.2113037109375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>543.0006713867188</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>589.8070678710938</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>575.6818237304688</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>641.70751953125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>812.1939697265625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>827.9441528320312</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>856.5226440429688</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>829.6244506835938</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>840.1959228515625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>896.5067749023438</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>952.5291137695312</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>972.1528930664062</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>735.8546142578125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>759.58544921875</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>769.7716674804688</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>760.5186767578125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>736.7418212890625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>713.619140625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>679.9996337890625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>645.7417602539062</v>
       </c>
     </row>
   </sheetData>

--- a/right_wrist_Data.xlsx
+++ b/right_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70.06273651123047</v>
+        <v>356.2930297851562</v>
       </c>
       <c r="B2" t="n">
-        <v>68.95851135253906</v>
+        <v>352.3481750488281</v>
       </c>
       <c r="C2" t="n">
-        <v>68.96220397949219</v>
+        <v>349.8767700195312</v>
       </c>
       <c r="D2" t="n">
-        <v>69.01495361328125</v>
+        <v>349.7634582519531</v>
       </c>
       <c r="E2" t="n">
-        <v>69.02143096923828</v>
+        <v>351.8626708984375</v>
       </c>
       <c r="F2" t="n">
-        <v>68.81664276123047</v>
+        <v>354.4925537109375</v>
       </c>
       <c r="G2" t="n">
-        <v>68.57921600341797</v>
+        <v>358.205322265625</v>
       </c>
       <c r="H2" t="n">
-        <v>68.36396789550781</v>
+        <v>360.7860717773438</v>
       </c>
       <c r="I2" t="n">
-        <v>68.224853515625</v>
+        <v>357.6201782226562</v>
       </c>
       <c r="J2" t="n">
-        <v>68.05654144287109</v>
+        <v>346.892333984375</v>
       </c>
       <c r="K2" t="n">
-        <v>67.94205474853516</v>
+        <v>330.0027770996094</v>
       </c>
       <c r="L2" t="n">
-        <v>67.40753173828125</v>
+        <v>316.5161743164062</v>
       </c>
       <c r="M2" t="n">
-        <v>66.94477081298828</v>
+        <v>314.2428588867188</v>
       </c>
       <c r="N2" t="n">
-        <v>66.73333740234375</v>
+        <v>340.1861267089844</v>
       </c>
       <c r="O2" t="n">
-        <v>66.45008850097656</v>
+        <v>332.0631408691406</v>
       </c>
       <c r="P2" t="n">
-        <v>66.21341705322266</v>
+        <v>324.7522583007812</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.19268798828125</v>
+        <v>319.4903259277344</v>
       </c>
       <c r="R2" t="n">
-        <v>66.50100708007812</v>
+        <v>316.5049133300781</v>
       </c>
       <c r="S2" t="n">
-        <v>66.94048309326172</v>
+        <v>314.6449890136719</v>
       </c>
       <c r="T2" t="n">
-        <v>66.38628387451172</v>
+        <v>313.0977172851562</v>
       </c>
       <c r="U2" t="n">
-        <v>60.9870719909668</v>
+        <v>311.4386596679688</v>
       </c>
       <c r="V2" t="n">
-        <v>56.95719909667969</v>
+        <v>311.7326049804688</v>
       </c>
       <c r="W2" t="n">
-        <v>61.71913909912109</v>
+        <v>311.67919921875</v>
       </c>
       <c r="X2" t="n">
-        <v>67.33330535888672</v>
+        <v>311.3965759277344</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.13501739501953</v>
+        <v>310.3446350097656</v>
       </c>
       <c r="Z2" t="n">
-        <v>88.03672027587891</v>
+        <v>306.4059143066406</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.25525665283203</v>
+        <v>300.415283203125</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.03178405761719</v>
+        <v>297.05859375</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.8614044189453</v>
+        <v>296.3133850097656</v>
       </c>
       <c r="AD2" t="n">
-        <v>124.8238525390625</v>
+        <v>275.9571533203125</v>
       </c>
       <c r="AE2" t="n">
-        <v>136.0137481689453</v>
+        <v>272.1590270996094</v>
       </c>
       <c r="AF2" t="n">
-        <v>144.2121887207031</v>
+        <v>269.6684265136719</v>
       </c>
       <c r="AG2" t="n">
-        <v>150.5205078125</v>
+        <v>267.9425354003906</v>
       </c>
       <c r="AH2" t="n">
-        <v>157.2019805908203</v>
+        <v>267.0772094726562</v>
       </c>
       <c r="AI2" t="n">
-        <v>166.6089172363281</v>
+        <v>267.8748779296875</v>
       </c>
       <c r="AJ2" t="n">
-        <v>174.3065490722656</v>
+        <v>271.8513488769531</v>
       </c>
       <c r="AK2" t="n">
-        <v>180.6296691894531</v>
+        <v>278.47119140625</v>
       </c>
       <c r="AL2" t="n">
-        <v>246.2602233886719</v>
+        <v>281.7020874023438</v>
       </c>
       <c r="AM2" t="n">
-        <v>246.2782592773438</v>
+        <v>283.7115173339844</v>
       </c>
       <c r="AN2" t="n">
-        <v>249.0232086181641</v>
+        <v>284.8887634277344</v>
       </c>
       <c r="AO2" t="n">
-        <v>245.4530487060547</v>
+        <v>286.8767395019531</v>
       </c>
       <c r="AP2" t="n">
-        <v>246.4523620605469</v>
+        <v>286.8093566894531</v>
       </c>
       <c r="AQ2" t="n">
-        <v>246.203857421875</v>
+        <v>286.4308471679688</v>
       </c>
       <c r="AR2" t="n">
-        <v>246.2892303466797</v>
+        <v>285.48095703125</v>
       </c>
       <c r="AS2" t="n">
-        <v>246.8248901367188</v>
+        <v>283.7965698242188</v>
       </c>
       <c r="AT2" t="n">
-        <v>247.787353515625</v>
+        <v>278.9082336425781</v>
       </c>
       <c r="AU2" t="n">
-        <v>161.2676391601562</v>
+        <v>271.9974975585938</v>
       </c>
       <c r="AV2" t="n">
-        <v>177.009521484375</v>
+        <v>260.9620666503906</v>
       </c>
       <c r="AW2" t="n">
-        <v>178.8760528564453</v>
+        <v>251.9884948730469</v>
       </c>
       <c r="AX2" t="n">
-        <v>180.5254821777344</v>
+        <v>249.0440216064453</v>
       </c>
       <c r="AY2" t="n">
-        <v>181.518798828125</v>
+        <v>243.9807434082031</v>
       </c>
       <c r="AZ2" t="n">
-        <v>184.2535400390625</v>
+        <v>239.1493530273438</v>
       </c>
       <c r="BA2" t="n">
-        <v>187.9653778076172</v>
+        <v>229.411865234375</v>
       </c>
       <c r="BB2" t="n">
-        <v>192.1709594726562</v>
+        <v>222.776611328125</v>
       </c>
       <c r="BC2" t="n">
-        <v>196.9952697753906</v>
+        <v>216.6544799804688</v>
       </c>
       <c r="BD2" t="n">
-        <v>207.3694763183594</v>
+        <v>211.2286529541016</v>
       </c>
       <c r="BE2" t="n">
-        <v>219.7472839355469</v>
+        <v>202.6182861328125</v>
       </c>
       <c r="BF2" t="n">
-        <v>226.1094970703125</v>
+        <v>195.2797241210938</v>
       </c>
       <c r="BG2" t="n">
-        <v>232.39453125</v>
+        <v>190.2094268798828</v>
       </c>
       <c r="BH2" t="n">
-        <v>236.9313201904297</v>
+        <v>183.0885162353516</v>
       </c>
       <c r="BI2" t="n">
-        <v>243.7050170898438</v>
+        <v>174.7198791503906</v>
       </c>
       <c r="BJ2" t="n">
-        <v>248.0136413574219</v>
+        <v>167.9685668945312</v>
       </c>
       <c r="BK2" t="n">
-        <v>250.5964660644531</v>
+        <v>160.5823059082031</v>
       </c>
       <c r="BL2" t="n">
-        <v>251.65478515625</v>
+        <v>153.6880798339844</v>
       </c>
       <c r="BM2" t="n">
-        <v>252.692138671875</v>
+        <v>147.3905639648438</v>
       </c>
       <c r="BN2" t="n">
-        <v>254.4408416748047</v>
+        <v>137.7498626708984</v>
       </c>
       <c r="BO2" t="n">
-        <v>259.4467163085938</v>
+        <v>131.5966491699219</v>
       </c>
       <c r="BP2" t="n">
-        <v>265.4069213867188</v>
+        <v>122.1719741821289</v>
       </c>
       <c r="BQ2" t="n">
-        <v>269.5893859863281</v>
+        <v>113.6415710449219</v>
       </c>
       <c r="BR2" t="n">
-        <v>276.0321350097656</v>
+        <v>108.3665542602539</v>
       </c>
       <c r="BS2" t="n">
-        <v>278.8443908691406</v>
+        <v>105.9540405273438</v>
       </c>
       <c r="BT2" t="n">
-        <v>279.801025390625</v>
+        <v>103.8839874267578</v>
       </c>
       <c r="BU2" t="n">
-        <v>279.8678588867188</v>
+        <v>102.2166595458984</v>
       </c>
       <c r="BV2" t="n">
-        <v>281.2622985839844</v>
+        <v>101.5726928710938</v>
       </c>
       <c r="BW2" t="n">
-        <v>285.2005920410156</v>
+        <v>100.6478271484375</v>
       </c>
       <c r="BX2" t="n">
-        <v>293.3467102050781</v>
+        <v>99.92423248291016</v>
       </c>
       <c r="BY2" t="n">
-        <v>298.4805908203125</v>
+        <v>98.99995422363281</v>
       </c>
       <c r="BZ2" t="n">
-        <v>302.0083312988281</v>
+        <v>97.5848388671875</v>
       </c>
       <c r="CA2" t="n">
-        <v>306.1592102050781</v>
+        <v>96.27813720703125</v>
       </c>
       <c r="CB2" t="n">
-        <v>306.0954284667969</v>
+        <v>94.19932556152344</v>
       </c>
       <c r="CC2" t="n">
-        <v>306.7922668457031</v>
+        <v>88.70795440673828</v>
       </c>
       <c r="CD2" t="n">
-        <v>307.9713745117188</v>
+        <v>80.08668518066406</v>
       </c>
       <c r="CE2" t="n">
-        <v>310.9149780273438</v>
+        <v>68.75904083251953</v>
       </c>
       <c r="CF2" t="n">
-        <v>312.6704711914062</v>
+        <v>58.03612518310547</v>
       </c>
       <c r="CG2" t="n">
-        <v>312.3609924316406</v>
+        <v>48.70988464355469</v>
       </c>
       <c r="CH2" t="n">
-        <v>311.6916809082031</v>
+        <v>44.91221618652344</v>
       </c>
       <c r="CI2" t="n">
-        <v>310.2834167480469</v>
+        <v>43.50240325927734</v>
       </c>
       <c r="CJ2" t="n">
-        <v>309.143310546875</v>
+        <v>43.59489440917969</v>
       </c>
       <c r="CK2" t="n">
-        <v>308.716552734375</v>
+        <v>43.534912109375</v>
       </c>
       <c r="CL2" t="n">
-        <v>308.2488403320312</v>
+        <v>45.62359619140625</v>
       </c>
       <c r="CM2" t="n">
-        <v>306.9881591796875</v>
+        <v>48.24239349365234</v>
       </c>
       <c r="CN2" t="n">
-        <v>305.8945617675781</v>
+        <v>49.28829956054688</v>
       </c>
       <c r="CO2" t="n">
-        <v>305.6558837890625</v>
+        <v>48.89321899414062</v>
       </c>
       <c r="CP2" t="n">
-        <v>304.9168090820312</v>
+        <v>47.08262634277344</v>
       </c>
       <c r="CQ2" t="n">
-        <v>303.6473388671875</v>
+        <v>47.14034271240234</v>
       </c>
       <c r="CR2" t="n">
-        <v>301.1858825683594</v>
+        <v>52.39608001708984</v>
       </c>
       <c r="CS2" t="n">
-        <v>297.7257995605469</v>
+        <v>58.29853057861328</v>
       </c>
       <c r="CT2" t="n">
-        <v>296.1370849609375</v>
+        <v>68.13946533203125</v>
       </c>
       <c r="CU2" t="n">
-        <v>294.9844970703125</v>
+        <v>81.55966186523438</v>
       </c>
       <c r="CV2" t="n">
-        <v>294.0119323730469</v>
+        <v>96.69406127929688</v>
       </c>
       <c r="CW2" t="n">
-        <v>294.0139770507812</v>
+        <v>108.0007553100586</v>
       </c>
       <c r="CX2" t="n">
-        <v>292.8786926269531</v>
+        <v>118.0597076416016</v>
       </c>
       <c r="CY2" t="n">
-        <v>290.3051452636719</v>
+        <v>131.0803985595703</v>
       </c>
       <c r="CZ2" t="n">
-        <v>288.1655883789062</v>
+        <v>143.3560333251953</v>
       </c>
       <c r="DA2" t="n">
-        <v>285.2999877929688</v>
+        <v>153.9054870605469</v>
       </c>
       <c r="DB2" t="n">
-        <v>283.0030517578125</v>
+        <v>160.3515472412109</v>
       </c>
       <c r="DC2" t="n">
-        <v>278.6561279296875</v>
+        <v>165.3421020507812</v>
       </c>
       <c r="DD2" t="n">
-        <v>276.0818481445312</v>
+        <v>168.2950744628906</v>
       </c>
       <c r="DE2" t="n">
-        <v>277.6132507324219</v>
+        <v>170.2480773925781</v>
       </c>
       <c r="DF2" t="n">
-        <v>277.5658264160156</v>
+        <v>170.9477233886719</v>
       </c>
       <c r="DG2" t="n">
-        <v>277.3531799316406</v>
+        <v>172.2651977539062</v>
       </c>
       <c r="DH2" t="n">
-        <v>277.2704467773438</v>
+        <v>171.5416259765625</v>
       </c>
       <c r="DI2" t="n">
-        <v>277.674072265625</v>
+        <v>170.6510314941406</v>
       </c>
       <c r="DJ2" t="n">
-        <v>277.6628723144531</v>
+        <v>169.4320983886719</v>
       </c>
       <c r="DK2" t="n">
-        <v>277.5921936035156</v>
+        <v>167.807861328125</v>
       </c>
       <c r="DL2" t="n">
-        <v>277.1671752929688</v>
+        <v>166.3213958740234</v>
       </c>
       <c r="DM2" t="n">
-        <v>276.6792602539062</v>
+        <v>164.7202301025391</v>
       </c>
       <c r="DN2" t="n">
-        <v>276.7221374511719</v>
+        <v>164.0748901367188</v>
       </c>
       <c r="DO2" t="n">
-        <v>277.0587768554688</v>
+        <v>165.2851257324219</v>
       </c>
       <c r="DP2" t="n">
-        <v>277.3041076660156</v>
+        <v>178.5293273925781</v>
       </c>
       <c r="DQ2" t="n">
-        <v>277.6549682617188</v>
+        <v>190.5134582519531</v>
       </c>
       <c r="DR2" t="n">
-        <v>277.971435546875</v>
+        <v>201.1912689208984</v>
       </c>
       <c r="DS2" t="n">
-        <v>278.3916015625</v>
+        <v>231.3670043945312</v>
       </c>
       <c r="DT2" t="n">
-        <v>280.7792663574219</v>
+        <v>248.5382080078125</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.2622985839844</v>
+        <v>265.3496704101562</v>
       </c>
       <c r="DV2" t="n">
-        <v>283.05615234375</v>
+        <v>291.324462890625</v>
       </c>
       <c r="DW2" t="n">
-        <v>280.4322204589844</v>
+        <v>303.7256164550781</v>
       </c>
       <c r="DX2" t="n">
-        <v>280.1461181640625</v>
+        <v>305.6574096679688</v>
       </c>
       <c r="DY2" t="n">
-        <v>279.0642700195312</v>
+        <v>306.9747924804688</v>
       </c>
       <c r="DZ2" t="n">
-        <v>273.0031433105469</v>
+        <v>307.3037414550781</v>
       </c>
       <c r="EA2" t="n">
-        <v>271.0514831542969</v>
+        <v>307.2545471191406</v>
       </c>
       <c r="EB2" t="n">
-        <v>268.9778442382812</v>
+        <v>307.08984375</v>
       </c>
       <c r="EC2" t="n">
-        <v>267.1561889648438</v>
+        <v>306.8639221191406</v>
       </c>
       <c r="ED2" t="n">
-        <v>267.3047180175781</v>
+        <v>304.9683532714844</v>
       </c>
       <c r="EE2" t="n">
-        <v>269.1944274902344</v>
+        <v>301.8236083984375</v>
       </c>
       <c r="EF2" t="n">
-        <v>271.6698303222656</v>
+        <v>297.3303527832031</v>
       </c>
       <c r="EG2" t="n">
-        <v>277.0199279785156</v>
+        <v>291.1326599121094</v>
       </c>
       <c r="EH2" t="n">
-        <v>277.3466491699219</v>
+        <v>287.4245300292969</v>
       </c>
       <c r="EI2" t="n">
-        <v>274.517333984375</v>
+        <v>280.4208984375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>276.6189575195312</v>
+        <v>276.2433471679688</v>
       </c>
       <c r="EK2" t="n">
-        <v>270.7651062011719</v>
+        <v>269.5278930664062</v>
       </c>
       <c r="EL2" t="n">
-        <v>266.3299865722656</v>
+        <v>265.2503662109375</v>
       </c>
       <c r="EM2" t="n">
-        <v>256.0577392578125</v>
+        <v>252.5342102050781</v>
       </c>
       <c r="EN2" t="n">
-        <v>245.6640930175781</v>
+        <v>246.4743804931641</v>
       </c>
       <c r="EO2" t="n">
-        <v>235.8170166015625</v>
+        <v>230.7355499267578</v>
       </c>
       <c r="EP2" t="n">
-        <v>224.6466369628906</v>
+        <v>219.7401580810547</v>
       </c>
       <c r="EQ2" t="n">
-        <v>220.4013977050781</v>
+        <v>204.4593505859375</v>
       </c>
       <c r="ER2" t="n">
-        <v>212.8150024414062</v>
+        <v>197.6617431640625</v>
       </c>
       <c r="ES2" t="n">
-        <v>214.2161407470703</v>
+        <v>178.5126495361328</v>
       </c>
       <c r="ET2" t="n">
-        <v>209.1423797607422</v>
+        <v>172.7797241210938</v>
       </c>
       <c r="EU2" t="n">
-        <v>210.4643249511719</v>
+        <v>166.4931945800781</v>
       </c>
       <c r="EV2" t="n">
-        <v>217.1453552246094</v>
+        <v>160.9255218505859</v>
       </c>
       <c r="EW2" t="n">
-        <v>210.7718658447266</v>
+        <v>158.9248657226562</v>
       </c>
       <c r="EX2" t="n">
-        <v>215.7061004638672</v>
+        <v>159.0175323486328</v>
       </c>
       <c r="EY2" t="n">
-        <v>210.6327056884766</v>
+        <v>162.9269104003906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>206.4730072021484</v>
+        <v>169.6414489746094</v>
       </c>
       <c r="FA2" t="n">
-        <v>207.2032012939453</v>
+        <v>174.2142944335938</v>
       </c>
       <c r="FB2" t="n">
-        <v>211.5045776367188</v>
+        <v>181.6569671630859</v>
       </c>
       <c r="FC2" t="n">
-        <v>205.4723205566406</v>
+        <v>192.5555114746094</v>
       </c>
       <c r="FD2" t="n">
-        <v>206.2553100585938</v>
+        <v>190.4422760009766</v>
       </c>
       <c r="FE2" t="n">
-        <v>206.0189819335938</v>
+        <v>188.2391052246094</v>
       </c>
       <c r="FF2" t="n">
-        <v>213.8379516601562</v>
+        <v>188.3620300292969</v>
       </c>
       <c r="FG2" t="n">
-        <v>205.1634216308594</v>
+        <v>190.5408020019531</v>
       </c>
       <c r="FH2" t="n">
-        <v>215.3087768554688</v>
+        <v>194.9712982177734</v>
       </c>
       <c r="FI2" t="n">
-        <v>208.588134765625</v>
+        <v>202.5599822998047</v>
       </c>
       <c r="FJ2" t="n">
-        <v>206.8621215820312</v>
+        <v>214.51513671875</v>
       </c>
       <c r="FK2" t="n">
-        <v>211.3983764648438</v>
+        <v>213.0952453613281</v>
       </c>
       <c r="FL2" t="n">
-        <v>207.0707702636719</v>
+        <v>222.4087219238281</v>
       </c>
       <c r="FM2" t="n">
-        <v>204.7732543945312</v>
+        <v>229.6302642822266</v>
       </c>
       <c r="FN2" t="n">
-        <v>204.8266296386719</v>
+        <v>237.9884643554688</v>
       </c>
       <c r="FO2" t="n">
-        <v>206.6705474853516</v>
+        <v>249.2348022460938</v>
       </c>
       <c r="FP2" t="n">
-        <v>210.0657958984375</v>
+        <v>205.125</v>
       </c>
       <c r="FQ2" t="n">
-        <v>214.3989868164062</v>
+        <v>289.7054443359375</v>
       </c>
       <c r="FR2" t="n">
-        <v>216.9454345703125</v>
+        <v>310.1460571289062</v>
       </c>
       <c r="FS2" t="n">
-        <v>224.9475250244141</v>
+        <v>321.8980407714844</v>
       </c>
       <c r="FT2" t="n">
-        <v>228.5735168457031</v>
+        <v>332.9452819824219</v>
       </c>
       <c r="FU2" t="n">
-        <v>239.2036743164062</v>
+        <v>305.9026794433594</v>
       </c>
       <c r="FV2" t="n">
-        <v>243.2598266601562</v>
+        <v>318.3019104003906</v>
       </c>
       <c r="FW2" t="n">
-        <v>261.343017578125</v>
+        <v>340.5603332519531</v>
       </c>
       <c r="FX2" t="n">
-        <v>271.9533996582031</v>
+        <v>348.3695068359375</v>
       </c>
       <c r="FY2" t="n">
-        <v>282.3126220703125</v>
+        <v>352.606201171875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>288.1211242675781</v>
+        <v>352.4970092773438</v>
       </c>
       <c r="GA2" t="n">
-        <v>291.7392883300781</v>
+        <v>353.342041015625</v>
       </c>
       <c r="GB2" t="n">
-        <v>293.6427917480469</v>
+        <v>354.352783203125</v>
       </c>
       <c r="GC2" t="n">
-        <v>294.3033752441406</v>
+        <v>361.82275390625</v>
       </c>
       <c r="GD2" t="n">
-        <v>291.9896850585938</v>
+        <v>345.0817565917969</v>
       </c>
       <c r="GE2" t="n">
-        <v>289.0950622558594</v>
+        <v>331.9632568359375</v>
       </c>
       <c r="GF2" t="n">
-        <v>279.6103820800781</v>
+        <v>324.2471618652344</v>
       </c>
       <c r="GG2" t="n">
-        <v>276.6012878417969</v>
+        <v>313.5477294921875</v>
       </c>
       <c r="GH2" t="n">
-        <v>269.5435180664062</v>
+        <v>316.6759033203125</v>
       </c>
       <c r="GI2" t="n">
-        <v>264.6985168457031</v>
+        <v>299.0919494628906</v>
       </c>
       <c r="GJ2" t="n">
-        <v>263.1563720703125</v>
+        <v>285.8280944824219</v>
       </c>
       <c r="GK2" t="n">
-        <v>261.4132995605469</v>
+        <v>318.0531616210938</v>
       </c>
       <c r="GL2" t="n">
-        <v>259.7235412597656</v>
+        <v>303.8849182128906</v>
       </c>
       <c r="GM2" t="n">
-        <v>259.5663452148438</v>
+        <v>299.0804138183594</v>
       </c>
       <c r="GN2" t="n">
-        <v>259.4154357910156</v>
+        <v>283.0708312988281</v>
       </c>
       <c r="GO2" t="n">
-        <v>259.4650268554688</v>
+        <v>279.135498046875</v>
       </c>
       <c r="GP2" t="n">
-        <v>261.4617614746094</v>
+        <v>233.7602996826172</v>
       </c>
       <c r="GQ2" t="n">
-        <v>266.5110473632812</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>267.6598510742188</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>269.1791381835938</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>272.5001220703125</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>274.4767456054688</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>274.1807861328125</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>274.61181640625</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>274.6592712402344</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>272.9663391113281</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>270.9473266601562</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>270.0373840332031</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>265.2425842285156</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>265.2908325195312</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>265.8122253417969</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>269.4790954589844</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>269.6456604003906</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>268.4464111328125</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>267.0003356933594</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>265.6750793457031</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>264.7494201660156</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>261.3943481445312</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>253.8428955078125</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>251.1073608398438</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>250.1955413818359</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>248.595458984375</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>246.1970367431641</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>242.9489135742188</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>230.9082336425781</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>210.2025604248047</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>193.956298828125</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>186.3831329345703</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>167.9734954833984</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>154.6482086181641</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>129.4398498535156</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>115.0678329467773</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>112.3540878295898</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>117.3670043945312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>98.93357849121094</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>96.74830627441406</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>197.5282135009766</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>192.0074157714844</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>165.9942474365234</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>164.1455383300781</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>164.8028411865234</v>
-      </c>
-      <c r="II2" t="n">
-        <v>170.2637023925781</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>174.2030639648438</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>176.5289459228516</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>178.23291015625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>212.4975891113281</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>198.6484069824219</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>146.78564453125</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>150.6468353271484</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>167.0579223632812</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>147.5727996826172</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>119.1564788818359</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>115.3876647949219</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>128.1805572509766</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>104.5729751586914</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>91.95648193359375</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>48.72866821289062</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>21.41642761230469</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>15.42516326904297</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>21.4055290222168</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>33.48085403442383</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>57.03993988037109</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>80.84799957275391</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>108.3833160400391</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>63.6556282043457</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>10.62836170196533</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>13.74731540679932</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>17.40015602111816</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>10.31465625762939</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>2.110302925109863</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>4.285310745239258</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>12.03506660461426</v>
+        <v>210.2462005615234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>398.932373046875</v>
+        <v>408.7241516113281</v>
       </c>
       <c r="B3" t="n">
-        <v>400.1858825683594</v>
+        <v>403.5011596679688</v>
       </c>
       <c r="C3" t="n">
-        <v>400.9762878417969</v>
+        <v>400.1754455566406</v>
       </c>
       <c r="D3" t="n">
-        <v>401.8574829101562</v>
+        <v>398.7887573242188</v>
       </c>
       <c r="E3" t="n">
-        <v>402.6952209472656</v>
+        <v>405.7473449707031</v>
       </c>
       <c r="F3" t="n">
-        <v>403.2484436035156</v>
+        <v>414.320556640625</v>
       </c>
       <c r="G3" t="n">
-        <v>403.6214904785156</v>
+        <v>417.3932800292969</v>
       </c>
       <c r="H3" t="n">
-        <v>403.843017578125</v>
+        <v>415.4378967285156</v>
       </c>
       <c r="I3" t="n">
-        <v>403.7176208496094</v>
+        <v>410.1047058105469</v>
       </c>
       <c r="J3" t="n">
-        <v>403.5390319824219</v>
+        <v>399.2730407714844</v>
       </c>
       <c r="K3" t="n">
-        <v>403.1941223144531</v>
+        <v>377.072021484375</v>
       </c>
       <c r="L3" t="n">
-        <v>402.9331970214844</v>
+        <v>362.4506530761719</v>
       </c>
       <c r="M3" t="n">
-        <v>402.5551452636719</v>
+        <v>242.40283203125</v>
       </c>
       <c r="N3" t="n">
-        <v>402.4592590332031</v>
+        <v>373.8863830566406</v>
       </c>
       <c r="O3" t="n">
-        <v>402.3746643066406</v>
+        <v>372.5483703613281</v>
       </c>
       <c r="P3" t="n">
-        <v>402.1441345214844</v>
+        <v>368.2948303222656</v>
       </c>
       <c r="Q3" t="n">
-        <v>401.1084899902344</v>
+        <v>362.8766479492188</v>
       </c>
       <c r="R3" t="n">
-        <v>399.5018615722656</v>
+        <v>355.3879089355469</v>
       </c>
       <c r="S3" t="n">
-        <v>398.8053894042969</v>
+        <v>347.8363952636719</v>
       </c>
       <c r="T3" t="n">
-        <v>398.5147399902344</v>
+        <v>341.6028442382812</v>
       </c>
       <c r="U3" t="n">
-        <v>396.2492065429688</v>
+        <v>337.7537231445312</v>
       </c>
       <c r="V3" t="n">
-        <v>393.0923767089844</v>
+        <v>333.90185546875</v>
       </c>
       <c r="W3" t="n">
-        <v>392.5846252441406</v>
+        <v>330.7997741699219</v>
       </c>
       <c r="X3" t="n">
-        <v>392.0556335449219</v>
+        <v>329.1735229492188</v>
       </c>
       <c r="Y3" t="n">
-        <v>392.6095886230469</v>
+        <v>327.4614562988281</v>
       </c>
       <c r="Z3" t="n">
-        <v>392.3210754394531</v>
+        <v>324.679443359375</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.5355224609375</v>
+        <v>321.1396484375</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.2987670898438</v>
+        <v>317.9866333007812</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.1280517578125</v>
+        <v>317.1259765625</v>
       </c>
       <c r="AD3" t="n">
-        <v>376.392333984375</v>
+        <v>314.4517822265625</v>
       </c>
       <c r="AE3" t="n">
-        <v>365.6861877441406</v>
+        <v>313.9329528808594</v>
       </c>
       <c r="AF3" t="n">
-        <v>358.3938293457031</v>
+        <v>314.4878234863281</v>
       </c>
       <c r="AG3" t="n">
-        <v>356.2940368652344</v>
+        <v>315.0779724121094</v>
       </c>
       <c r="AH3" t="n">
-        <v>351.0223999023438</v>
+        <v>314.5818176269531</v>
       </c>
       <c r="AI3" t="n">
-        <v>344.5573120117188</v>
+        <v>313.5980529785156</v>
       </c>
       <c r="AJ3" t="n">
-        <v>337.2713623046875</v>
+        <v>312.1758728027344</v>
       </c>
       <c r="AK3" t="n">
-        <v>329.7435607910156</v>
+        <v>310.9382019042969</v>
       </c>
       <c r="AL3" t="n">
-        <v>372.6471862792969</v>
+        <v>307.930419921875</v>
       </c>
       <c r="AM3" t="n">
-        <v>370.4562683105469</v>
+        <v>304.8270263671875</v>
       </c>
       <c r="AN3" t="n">
-        <v>372.0943298339844</v>
+        <v>301.7640380859375</v>
       </c>
       <c r="AO3" t="n">
-        <v>375.4336853027344</v>
+        <v>298.755126953125</v>
       </c>
       <c r="AP3" t="n">
-        <v>376.0936889648438</v>
+        <v>296.2529296875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>374.2433776855469</v>
+        <v>293.6698608398438</v>
       </c>
       <c r="AR3" t="n">
-        <v>371.7333984375</v>
+        <v>292.6375732421875</v>
       </c>
       <c r="AS3" t="n">
-        <v>368.8592224121094</v>
+        <v>293.3488159179688</v>
       </c>
       <c r="AT3" t="n">
-        <v>371.1443481445312</v>
+        <v>294.4114379882812</v>
       </c>
       <c r="AU3" t="n">
-        <v>359.5752868652344</v>
+        <v>294.6375427246094</v>
       </c>
       <c r="AV3" t="n">
-        <v>367.9633483886719</v>
+        <v>294.246337890625</v>
       </c>
       <c r="AW3" t="n">
-        <v>370.71533203125</v>
+        <v>294.6054077148438</v>
       </c>
       <c r="AX3" t="n">
-        <v>369.9351501464844</v>
+        <v>296.9233703613281</v>
       </c>
       <c r="AY3" t="n">
-        <v>370.0580444335938</v>
+        <v>307.9441528320312</v>
       </c>
       <c r="AZ3" t="n">
-        <v>370.7890014648438</v>
+        <v>320.5076904296875</v>
       </c>
       <c r="BA3" t="n">
-        <v>374.5072631835938</v>
+        <v>329.7926635742188</v>
       </c>
       <c r="BB3" t="n">
-        <v>375.3142395019531</v>
+        <v>330.1815795898438</v>
       </c>
       <c r="BC3" t="n">
-        <v>374.9574890136719</v>
+        <v>331.0279235839844</v>
       </c>
       <c r="BD3" t="n">
-        <v>374.0888366699219</v>
+        <v>332.7322692871094</v>
       </c>
       <c r="BE3" t="n">
-        <v>377.2717895507812</v>
+        <v>332.0317077636719</v>
       </c>
       <c r="BF3" t="n">
-        <v>376.1702270507812</v>
+        <v>333.1913452148438</v>
       </c>
       <c r="BG3" t="n">
-        <v>372.2277221679688</v>
+        <v>334.5312805175781</v>
       </c>
       <c r="BH3" t="n">
-        <v>369.57275390625</v>
+        <v>334.65478515625</v>
       </c>
       <c r="BI3" t="n">
-        <v>366.2956848144531</v>
+        <v>334.2196044921875</v>
       </c>
       <c r="BJ3" t="n">
-        <v>363.7185363769531</v>
+        <v>332.9068908691406</v>
       </c>
       <c r="BK3" t="n">
-        <v>365.1411437988281</v>
+        <v>331.9017333984375</v>
       </c>
       <c r="BL3" t="n">
-        <v>365.670166015625</v>
+        <v>327.4472961425781</v>
       </c>
       <c r="BM3" t="n">
-        <v>363.6181335449219</v>
+        <v>325.2559204101562</v>
       </c>
       <c r="BN3" t="n">
-        <v>362.1308288574219</v>
+        <v>323.575927734375</v>
       </c>
       <c r="BO3" t="n">
-        <v>362.4447631835938</v>
+        <v>322.6165771484375</v>
       </c>
       <c r="BP3" t="n">
-        <v>362.5939636230469</v>
+        <v>321.6818542480469</v>
       </c>
       <c r="BQ3" t="n">
-        <v>358.4395446777344</v>
+        <v>319.3799438476562</v>
       </c>
       <c r="BR3" t="n">
-        <v>352.8321533203125</v>
+        <v>318.5787658691406</v>
       </c>
       <c r="BS3" t="n">
-        <v>353.4625549316406</v>
+        <v>318.3461303710938</v>
       </c>
       <c r="BT3" t="n">
-        <v>351.4626770019531</v>
+        <v>317.3815002441406</v>
       </c>
       <c r="BU3" t="n">
-        <v>351.7217712402344</v>
+        <v>317.0719299316406</v>
       </c>
       <c r="BV3" t="n">
-        <v>349.7673034667969</v>
+        <v>317.2388000488281</v>
       </c>
       <c r="BW3" t="n">
-        <v>349.7714233398438</v>
+        <v>317.952880859375</v>
       </c>
       <c r="BX3" t="n">
-        <v>350.2022094726562</v>
+        <v>319.0584411621094</v>
       </c>
       <c r="BY3" t="n">
-        <v>356.6527099609375</v>
+        <v>319.0721130371094</v>
       </c>
       <c r="BZ3" t="n">
-        <v>356.9019470214844</v>
+        <v>318.4407958984375</v>
       </c>
       <c r="CA3" t="n">
-        <v>355.820556640625</v>
+        <v>317.3897399902344</v>
       </c>
       <c r="CB3" t="n">
-        <v>354.7398071289062</v>
+        <v>315.8048400878906</v>
       </c>
       <c r="CC3" t="n">
-        <v>355.2018127441406</v>
+        <v>309.7598571777344</v>
       </c>
       <c r="CD3" t="n">
-        <v>355.6259765625</v>
+        <v>299.6500549316406</v>
       </c>
       <c r="CE3" t="n">
-        <v>354.0695190429688</v>
+        <v>288.2654724121094</v>
       </c>
       <c r="CF3" t="n">
-        <v>352.8599853515625</v>
+        <v>276.8531799316406</v>
       </c>
       <c r="CG3" t="n">
-        <v>350.4787902832031</v>
+        <v>263.2073974609375</v>
       </c>
       <c r="CH3" t="n">
-        <v>348.7355346679688</v>
+        <v>248.2846069335938</v>
       </c>
       <c r="CI3" t="n">
-        <v>348.6374816894531</v>
+        <v>234.831298828125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>347.5626220703125</v>
+        <v>222.0538177490234</v>
       </c>
       <c r="CK3" t="n">
-        <v>347.4195556640625</v>
+        <v>213.7945251464844</v>
       </c>
       <c r="CL3" t="n">
-        <v>347.8680114746094</v>
+        <v>203.5282745361328</v>
       </c>
       <c r="CM3" t="n">
-        <v>349.8325500488281</v>
+        <v>200.0664672851562</v>
       </c>
       <c r="CN3" t="n">
-        <v>351.3818664550781</v>
+        <v>199.7702484130859</v>
       </c>
       <c r="CO3" t="n">
-        <v>351.9049377441406</v>
+        <v>201.7240753173828</v>
       </c>
       <c r="CP3" t="n">
-        <v>353.3254699707031</v>
+        <v>207.2398376464844</v>
       </c>
       <c r="CQ3" t="n">
-        <v>353.9198913574219</v>
+        <v>217.723876953125</v>
       </c>
       <c r="CR3" t="n">
-        <v>354.6200866699219</v>
+        <v>245.8729095458984</v>
       </c>
       <c r="CS3" t="n">
-        <v>356.2742309570312</v>
+        <v>263.5111389160156</v>
       </c>
       <c r="CT3" t="n">
-        <v>354.9358520507812</v>
+        <v>282.3661193847656</v>
       </c>
       <c r="CU3" t="n">
-        <v>353.549560546875</v>
+        <v>293.6631774902344</v>
       </c>
       <c r="CV3" t="n">
-        <v>351.8853454589844</v>
+        <v>301.0797119140625</v>
       </c>
       <c r="CW3" t="n">
-        <v>352.152587890625</v>
+        <v>312.4786071777344</v>
       </c>
       <c r="CX3" t="n">
-        <v>346.2010192871094</v>
+        <v>322.2307434082031</v>
       </c>
       <c r="CY3" t="n">
-        <v>338.8765258789062</v>
+        <v>329.9088439941406</v>
       </c>
       <c r="CZ3" t="n">
-        <v>341.5906677246094</v>
+        <v>336.3025817871094</v>
       </c>
       <c r="DA3" t="n">
-        <v>342.4094848632812</v>
+        <v>339.3376770019531</v>
       </c>
       <c r="DB3" t="n">
-        <v>343.1793823242188</v>
+        <v>340.8738403320312</v>
       </c>
       <c r="DC3" t="n">
-        <v>343.7246398925781</v>
+        <v>339.7374572753906</v>
       </c>
       <c r="DD3" t="n">
-        <v>344.9699096679688</v>
+        <v>340.0158081054688</v>
       </c>
       <c r="DE3" t="n">
-        <v>344.4703674316406</v>
+        <v>340.0909729003906</v>
       </c>
       <c r="DF3" t="n">
-        <v>344.2259826660156</v>
+        <v>340.619384765625</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.3287963867188</v>
+        <v>341.5295715332031</v>
       </c>
       <c r="DH3" t="n">
-        <v>342.6358337402344</v>
+        <v>341.4205322265625</v>
       </c>
       <c r="DI3" t="n">
-        <v>341.6860656738281</v>
+        <v>341.5413208007812</v>
       </c>
       <c r="DJ3" t="n">
-        <v>341.5467834472656</v>
+        <v>338.5158081054688</v>
       </c>
       <c r="DK3" t="n">
-        <v>341.7045288085938</v>
+        <v>338.4169311523438</v>
       </c>
       <c r="DL3" t="n">
-        <v>342.9730529785156</v>
+        <v>339.3088073730469</v>
       </c>
       <c r="DM3" t="n">
-        <v>344.4014587402344</v>
+        <v>338.8654174804688</v>
       </c>
       <c r="DN3" t="n">
-        <v>343.8331909179688</v>
+        <v>336.7549438476562</v>
       </c>
       <c r="DO3" t="n">
-        <v>341.6902770996094</v>
+        <v>333.352783203125</v>
       </c>
       <c r="DP3" t="n">
-        <v>340.9154052734375</v>
+        <v>332.981201171875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>340.8022155761719</v>
+        <v>335.9465942382812</v>
       </c>
       <c r="DR3" t="n">
-        <v>341.0301513671875</v>
+        <v>337.3137512207031</v>
       </c>
       <c r="DS3" t="n">
-        <v>341.7340393066406</v>
+        <v>341.2453918457031</v>
       </c>
       <c r="DT3" t="n">
-        <v>342.0336608886719</v>
+        <v>344.2777099609375</v>
       </c>
       <c r="DU3" t="n">
-        <v>342.1651306152344</v>
+        <v>345.7037353515625</v>
       </c>
       <c r="DV3" t="n">
-        <v>342.1806335449219</v>
+        <v>340.8023071289062</v>
       </c>
       <c r="DW3" t="n">
-        <v>343.2132568359375</v>
+        <v>333.3655090332031</v>
       </c>
       <c r="DX3" t="n">
-        <v>343.2907104492188</v>
+        <v>328.8694458007812</v>
       </c>
       <c r="DY3" t="n">
-        <v>343.0653381347656</v>
+        <v>325.6875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>341.5717163085938</v>
+        <v>322.9940185546875</v>
       </c>
       <c r="EA3" t="n">
-        <v>341.2856750488281</v>
+        <v>319.4793090820312</v>
       </c>
       <c r="EB3" t="n">
-        <v>341.517333984375</v>
+        <v>318.2943725585938</v>
       </c>
       <c r="EC3" t="n">
-        <v>342.9684448242188</v>
+        <v>318.3144836425781</v>
       </c>
       <c r="ED3" t="n">
-        <v>342.2391967773438</v>
+        <v>318.1279602050781</v>
       </c>
       <c r="EE3" t="n">
-        <v>340.5630187988281</v>
+        <v>317.5430908203125</v>
       </c>
       <c r="EF3" t="n">
-        <v>340.2842102050781</v>
+        <v>316.6797790527344</v>
       </c>
       <c r="EG3" t="n">
-        <v>342.1070556640625</v>
+        <v>315.4956970214844</v>
       </c>
       <c r="EH3" t="n">
-        <v>340.5301208496094</v>
+        <v>317.2347106933594</v>
       </c>
       <c r="EI3" t="n">
-        <v>343.905029296875</v>
+        <v>322.5695190429688</v>
       </c>
       <c r="EJ3" t="n">
-        <v>340.2596435546875</v>
+        <v>328.2230224609375</v>
       </c>
       <c r="EK3" t="n">
-        <v>336.4464416503906</v>
+        <v>336.5463256835938</v>
       </c>
       <c r="EL3" t="n">
-        <v>333.7254028320312</v>
+        <v>336.8965148925781</v>
       </c>
       <c r="EM3" t="n">
-        <v>330.37744140625</v>
+        <v>341.3960266113281</v>
       </c>
       <c r="EN3" t="n">
-        <v>328.9602966308594</v>
+        <v>344.0120544433594</v>
       </c>
       <c r="EO3" t="n">
-        <v>323.4203796386719</v>
+        <v>346.6500549316406</v>
       </c>
       <c r="EP3" t="n">
-        <v>307.7998962402344</v>
+        <v>348.2430725097656</v>
       </c>
       <c r="EQ3" t="n">
-        <v>301.2236022949219</v>
+        <v>356.529052734375</v>
       </c>
       <c r="ER3" t="n">
-        <v>287.7522277832031</v>
+        <v>359.1031494140625</v>
       </c>
       <c r="ES3" t="n">
-        <v>266.2086791992188</v>
+        <v>361.9334716796875</v>
       </c>
       <c r="ET3" t="n">
-        <v>273.0980834960938</v>
+        <v>364.02392578125</v>
       </c>
       <c r="EU3" t="n">
-        <v>268.8822937011719</v>
+        <v>364.9903869628906</v>
       </c>
       <c r="EV3" t="n">
-        <v>253.0636596679688</v>
+        <v>367.7406005859375</v>
       </c>
       <c r="EW3" t="n">
-        <v>253.962158203125</v>
+        <v>371.7596130371094</v>
       </c>
       <c r="EX3" t="n">
-        <v>240.5448303222656</v>
+        <v>373.9660034179688</v>
       </c>
       <c r="EY3" t="n">
-        <v>247.8990325927734</v>
+        <v>379.3402404785156</v>
       </c>
       <c r="EZ3" t="n">
-        <v>244.8083801269531</v>
+        <v>382.0866088867188</v>
       </c>
       <c r="FA3" t="n">
-        <v>241.6452026367188</v>
+        <v>381.4700927734375</v>
       </c>
       <c r="FB3" t="n">
-        <v>232.7831878662109</v>
+        <v>381.1171264648438</v>
       </c>
       <c r="FC3" t="n">
-        <v>242.8119812011719</v>
+        <v>384.3456115722656</v>
       </c>
       <c r="FD3" t="n">
-        <v>242.3295288085938</v>
+        <v>395.6907958984375</v>
       </c>
       <c r="FE3" t="n">
-        <v>242.5330657958984</v>
+        <v>408.9182434082031</v>
       </c>
       <c r="FF3" t="n">
-        <v>226.4791717529297</v>
+        <v>420.0818176269531</v>
       </c>
       <c r="FG3" t="n">
-        <v>241.4823608398438</v>
+        <v>424.1166687011719</v>
       </c>
       <c r="FH3" t="n">
-        <v>226.6791687011719</v>
+        <v>438.0452270507812</v>
       </c>
       <c r="FI3" t="n">
-        <v>238.5894775390625</v>
+        <v>444.4933166503906</v>
       </c>
       <c r="FJ3" t="n">
-        <v>245.2233428955078</v>
+        <v>465.924072265625</v>
       </c>
       <c r="FK3" t="n">
-        <v>242.3097534179688</v>
+        <v>479.5530395507812</v>
       </c>
       <c r="FL3" t="n">
-        <v>256.8780517578125</v>
+        <v>495.2698059082031</v>
       </c>
       <c r="FM3" t="n">
-        <v>268.710205078125</v>
+        <v>501.7148742675781</v>
       </c>
       <c r="FN3" t="n">
-        <v>270.6566467285156</v>
+        <v>515.0308227539062</v>
       </c>
       <c r="FO3" t="n">
-        <v>278.0114440917969</v>
+        <v>537.8018798828125</v>
       </c>
       <c r="FP3" t="n">
-        <v>287.5172424316406</v>
+        <v>422.903076171875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>297.1663818359375</v>
+        <v>529.9802856445312</v>
       </c>
       <c r="FR3" t="n">
-        <v>302.4721374511719</v>
+        <v>536.6708984375</v>
       </c>
       <c r="FS3" t="n">
-        <v>311.8758850097656</v>
+        <v>534.325927734375</v>
       </c>
       <c r="FT3" t="n">
-        <v>315.8598327636719</v>
+        <v>527.4493408203125</v>
       </c>
       <c r="FU3" t="n">
-        <v>325.2637023925781</v>
+        <v>523.9849243164062</v>
       </c>
       <c r="FV3" t="n">
-        <v>330.0497131347656</v>
+        <v>520.3633422851562</v>
       </c>
       <c r="FW3" t="n">
-        <v>336.6578674316406</v>
+        <v>518.966552734375</v>
       </c>
       <c r="FX3" t="n">
-        <v>340.2342529296875</v>
+        <v>518.9640502929688</v>
       </c>
       <c r="FY3" t="n">
-        <v>347.4542541503906</v>
+        <v>518.49072265625</v>
       </c>
       <c r="FZ3" t="n">
-        <v>346.5818481445312</v>
+        <v>515.7666015625</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.8463745117188</v>
+        <v>511.1272888183594</v>
       </c>
       <c r="GB3" t="n">
-        <v>345.6363220214844</v>
+        <v>509.9521179199219</v>
       </c>
       <c r="GC3" t="n">
-        <v>345.8753662109375</v>
+        <v>511.1410827636719</v>
       </c>
       <c r="GD3" t="n">
-        <v>345.3554382324219</v>
+        <v>511.7453308105469</v>
       </c>
       <c r="GE3" t="n">
-        <v>344.314208984375</v>
+        <v>517.9974975585938</v>
       </c>
       <c r="GF3" t="n">
-        <v>340.6207275390625</v>
+        <v>535.0975341796875</v>
       </c>
       <c r="GG3" t="n">
-        <v>339.6759948730469</v>
+        <v>532.7759399414062</v>
       </c>
       <c r="GH3" t="n">
-        <v>335.3048095703125</v>
+        <v>522.3855590820312</v>
       </c>
       <c r="GI3" t="n">
-        <v>333.6433715820312</v>
+        <v>529.0505981445312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>332.188232421875</v>
+        <v>538.6014404296875</v>
       </c>
       <c r="GK3" t="n">
-        <v>329.8232116699219</v>
+        <v>558.5570068359375</v>
       </c>
       <c r="GL3" t="n">
-        <v>330.7700805664062</v>
+        <v>571.499267578125</v>
       </c>
       <c r="GM3" t="n">
-        <v>331.7858276367188</v>
+        <v>563.8363037109375</v>
       </c>
       <c r="GN3" t="n">
-        <v>332.2032470703125</v>
+        <v>559.3526000976562</v>
       </c>
       <c r="GO3" t="n">
-        <v>332.7388916015625</v>
+        <v>556.9525756835938</v>
       </c>
       <c r="GP3" t="n">
-        <v>333.8522644042969</v>
+        <v>556.5778198242188</v>
       </c>
       <c r="GQ3" t="n">
-        <v>336.8846435546875</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>337.4487915039062</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>337.7267456054688</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>338.4631652832031</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>340.1260070800781</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>341.04736328125</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>341.0431823730469</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>341.7037353515625</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>346.4104614257812</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>351.64794921875</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>353.6114807128906</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>354.1806030273438</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>353.30419921875</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>352.8046569824219</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>358.2274780273438</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>359.8549499511719</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>362.2798461914062</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>364.6776733398438</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>363.5310668945312</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>360.8253479003906</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>354.9803161621094</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>358.4725646972656</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>359.7875061035156</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>359.154541015625</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>357.3499145507812</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>356.98779296875</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>357.5081176757812</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>352.0909423828125</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>349.3904724121094</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>350.7343444824219</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>346.00048828125</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>350.9197387695312</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>354.2838134765625</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>350.4608154296875</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>352.8277282714844</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>358.3542175292969</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>362.3185424804688</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>360.1286926269531</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>361.8891906738281</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>184.4065704345703</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>181.7870330810547</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>393.4328918457031</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>394.6676635742188</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>393.7416076660156</v>
-      </c>
-      <c r="II3" t="n">
-        <v>396.2256469726562</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>397.8070373535156</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>401.7985229492188</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>403.8507385253906</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>164.5918579101562</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>515.4703979492188</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>664.599853515625</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>808.1757202148438</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>828.0142822265625</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>797.1829223632812</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>740.125</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>658.5330810546875</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>616.2188110351562</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>569.2627563476562</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>487.9053955078125</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>425.6012878417969</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>429.2908020019531</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>436.5821533203125</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>500.1429138183594</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>535.4732055664062</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>524.7144775390625</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>511.310791015625</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>514.4177856445312</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>427.6086730957031</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>474.8423156738281</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>477.9435119628906</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>475.118408203125</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>479.2352905273438</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>488.2447204589844</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>502.6009826660156</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>518.0587158203125</v>
+        <v>557.6067504882812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>763.2379760742188</v>
+        <v>1134.355224609375</v>
       </c>
       <c r="B4" t="n">
-        <v>758.6692504882812</v>
+        <v>1167.64697265625</v>
       </c>
       <c r="C4" t="n">
-        <v>758.31201171875</v>
+        <v>1199.615356445312</v>
       </c>
       <c r="D4" t="n">
-        <v>758.0306396484375</v>
+        <v>1212.787109375</v>
       </c>
       <c r="E4" t="n">
-        <v>757.623291015625</v>
+        <v>1215.831787109375</v>
       </c>
       <c r="F4" t="n">
-        <v>756.57080078125</v>
+        <v>1224.834838867188</v>
       </c>
       <c r="G4" t="n">
-        <v>755.4923095703125</v>
+        <v>1242.286743164062</v>
       </c>
       <c r="H4" t="n">
-        <v>754.4840698242188</v>
+        <v>1263.833740234375</v>
       </c>
       <c r="I4" t="n">
-        <v>753.6482543945312</v>
+        <v>1290.719482421875</v>
       </c>
       <c r="J4" t="n">
-        <v>752.8306884765625</v>
+        <v>1362.04052734375</v>
       </c>
       <c r="K4" t="n">
-        <v>752.1973876953125</v>
+        <v>1458.924682617188</v>
       </c>
       <c r="L4" t="n">
-        <v>751.2281494140625</v>
+        <v>1508.876831054688</v>
       </c>
       <c r="M4" t="n">
-        <v>750.4140625</v>
+        <v>1326.053466796875</v>
       </c>
       <c r="N4" t="n">
-        <v>750.7813720703125</v>
+        <v>1432.119262695312</v>
       </c>
       <c r="O4" t="n">
-        <v>750.9983520507812</v>
+        <v>1421.71142578125</v>
       </c>
       <c r="P4" t="n">
-        <v>751.3573608398438</v>
+        <v>1416.606079101562</v>
       </c>
       <c r="Q4" t="n">
-        <v>752.4283447265625</v>
+        <v>1426.035400390625</v>
       </c>
       <c r="R4" t="n">
-        <v>754.4707641601562</v>
+        <v>1439.989990234375</v>
       </c>
       <c r="S4" t="n">
-        <v>757.0502319335938</v>
+        <v>1462.708129882812</v>
       </c>
       <c r="T4" t="n">
-        <v>759.9805297851562</v>
+        <v>1464.538940429688</v>
       </c>
       <c r="U4" t="n">
-        <v>763.31884765625</v>
+        <v>1464.87451171875</v>
       </c>
       <c r="V4" t="n">
-        <v>772.6047973632812</v>
+        <v>1462.947143554688</v>
       </c>
       <c r="W4" t="n">
-        <v>771.0150756835938</v>
+        <v>1462.71923828125</v>
       </c>
       <c r="X4" t="n">
-        <v>766.9598388671875</v>
+        <v>1465.6171875</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.7626953125</v>
+        <v>1471.40234375</v>
       </c>
       <c r="Z4" t="n">
-        <v>797.3909912109375</v>
+        <v>1472.904174804688</v>
       </c>
       <c r="AA4" t="n">
-        <v>804.8509521484375</v>
+        <v>1474.556030273438</v>
       </c>
       <c r="AB4" t="n">
-        <v>831.437744140625</v>
+        <v>1473.666625976562</v>
       </c>
       <c r="AC4" t="n">
-        <v>921.6563720703125</v>
+        <v>1471.15625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1003.160278320312</v>
+        <v>1381.005004882812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1058.9228515625</v>
+        <v>1359.6923828125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1085.438598632812</v>
+        <v>1339.989990234375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1078.348510742188</v>
+        <v>1322.760986328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1071.350830078125</v>
+        <v>1304.947998046875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1086.480712890625</v>
+        <v>1290.28076171875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1103.55126953125</v>
+        <v>1276.985107421875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1124.391845703125</v>
+        <v>1268.859497070312</v>
       </c>
       <c r="AL4" t="n">
-        <v>1046.10302734375</v>
+        <v>1260.537475585938</v>
       </c>
       <c r="AM4" t="n">
-        <v>1054.916015625</v>
+        <v>1254.666137695312</v>
       </c>
       <c r="AN4" t="n">
-        <v>1065.284790039062</v>
+        <v>1248.646484375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1072.0712890625</v>
+        <v>1248.66064453125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1083.877319335938</v>
+        <v>1250.923828125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1097.385498046875</v>
+        <v>1248.042358398438</v>
       </c>
       <c r="AR4" t="n">
-        <v>1113.137084960938</v>
+        <v>1245.011596679688</v>
       </c>
       <c r="AS4" t="n">
-        <v>1132.99560546875</v>
+        <v>1246.301147460938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1149.498291015625</v>
+        <v>1247.012817382812</v>
       </c>
       <c r="AU4" t="n">
-        <v>1029.762939453125</v>
+        <v>1245.9970703125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1036.098754882812</v>
+        <v>1246.556518554688</v>
       </c>
       <c r="AW4" t="n">
-        <v>1045.633544921875</v>
+        <v>1247.289916992188</v>
       </c>
       <c r="AX4" t="n">
-        <v>1051.0927734375</v>
+        <v>1248.518432617188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1063.861083984375</v>
+        <v>1244.831665039062</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1088.563110351562</v>
+        <v>1243.533203125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1110.078735351562</v>
+        <v>1244.64892578125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1142.282958984375</v>
+        <v>1253.216918945312</v>
       </c>
       <c r="BC4" t="n">
-        <v>1160.172973632812</v>
+        <v>1256.143676757812</v>
       </c>
       <c r="BD4" t="n">
-        <v>1187.781372070312</v>
+        <v>1259.150512695312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1215.933349609375</v>
+        <v>1258.591430664062</v>
       </c>
       <c r="BF4" t="n">
-        <v>1258.26806640625</v>
+        <v>1260.601684570312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1297.280029296875</v>
+        <v>1266.273559570312</v>
       </c>
       <c r="BH4" t="n">
-        <v>1321.852905273438</v>
+        <v>1269.654663085938</v>
       </c>
       <c r="BI4" t="n">
-        <v>1381.149169921875</v>
+        <v>1274.979858398438</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1418.013671875</v>
+        <v>1278.581176757812</v>
       </c>
       <c r="BK4" t="n">
-        <v>1437.53564453125</v>
+        <v>1277.45947265625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1466.170288085938</v>
+        <v>1283.588012695312</v>
       </c>
       <c r="BM4" t="n">
-        <v>1474.671752929688</v>
+        <v>1286.266235351562</v>
       </c>
       <c r="BN4" t="n">
-        <v>1477.75</v>
+        <v>1288.582763671875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1478.490478515625</v>
+        <v>1288.713623046875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1483.644775390625</v>
+        <v>1284.163208007812</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1495.2451171875</v>
+        <v>1278.475952148438</v>
       </c>
       <c r="BR4" t="n">
-        <v>1512.265258789062</v>
+        <v>1281.449829101562</v>
       </c>
       <c r="BS4" t="n">
-        <v>1525.3125</v>
+        <v>1280.184692382812</v>
       </c>
       <c r="BT4" t="n">
-        <v>1548.863037109375</v>
+        <v>1278.181640625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1557.23779296875</v>
+        <v>1276.810791015625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1580.017578125</v>
+        <v>1275.396240234375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1593.474975585938</v>
+        <v>1272.578002929688</v>
       </c>
       <c r="BX4" t="n">
-        <v>1611.377563476562</v>
+        <v>1268.417724609375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1618.94677734375</v>
+        <v>1261.022583007812</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1637.571533203125</v>
+        <v>1247.332885742188</v>
       </c>
       <c r="CA4" t="n">
-        <v>1669.98388671875</v>
+        <v>1235.235229492188</v>
       </c>
       <c r="CB4" t="n">
-        <v>1702.864501953125</v>
+        <v>1226.661743164062</v>
       </c>
       <c r="CC4" t="n">
-        <v>1704.215576171875</v>
+        <v>1208.833129882812</v>
       </c>
       <c r="CD4" t="n">
-        <v>1716.9189453125</v>
+        <v>1191.75146484375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1728.5087890625</v>
+        <v>1178.931396484375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1745.799072265625</v>
+        <v>1163.321899414062</v>
       </c>
       <c r="CG4" t="n">
-        <v>1766.7041015625</v>
+        <v>1142.700561523438</v>
       </c>
       <c r="CH4" t="n">
-        <v>1787.852661132812</v>
+        <v>1131.213500976562</v>
       </c>
       <c r="CI4" t="n">
-        <v>1808.217651367188</v>
+        <v>1128.307739257812</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1818.392456054688</v>
+        <v>1128.208618164062</v>
       </c>
       <c r="CK4" t="n">
-        <v>1833.066772460938</v>
+        <v>1128.419799804688</v>
       </c>
       <c r="CL4" t="n">
-        <v>1852.741088867188</v>
+        <v>1133.221923828125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1870.497192382812</v>
+        <v>1138.373657226562</v>
       </c>
       <c r="CN4" t="n">
-        <v>1877.59423828125</v>
+        <v>1138.816162109375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1878.609619140625</v>
+        <v>1133.056518554688</v>
       </c>
       <c r="CP4" t="n">
-        <v>1883.881591796875</v>
+        <v>1115.712768554688</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1892.267211914062</v>
+        <v>1095.837768554688</v>
       </c>
       <c r="CR4" t="n">
-        <v>1911.638916015625</v>
+        <v>1059.284545898438</v>
       </c>
       <c r="CS4" t="n">
-        <v>1931.665283203125</v>
+        <v>1056.436889648438</v>
       </c>
       <c r="CT4" t="n">
-        <v>1941.894775390625</v>
+        <v>1067.69287109375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1951.365600585938</v>
+        <v>1078.423828125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1966.17431640625</v>
+        <v>1090.89892578125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1980.681518554688</v>
+        <v>1112.91552734375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1998.47412109375</v>
+        <v>1130.658325195312</v>
       </c>
       <c r="CY4" t="n">
-        <v>2023.878784179688</v>
+        <v>1146.728515625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2017.9931640625</v>
+        <v>1167.7607421875</v>
       </c>
       <c r="DA4" t="n">
-        <v>2040.762939453125</v>
+        <v>1185.355834960938</v>
       </c>
       <c r="DB4" t="n">
-        <v>2046.67431640625</v>
+        <v>1201.276977539062</v>
       </c>
       <c r="DC4" t="n">
-        <v>2055.2978515625</v>
+        <v>1212.285400390625</v>
       </c>
       <c r="DD4" t="n">
-        <v>2071.63330078125</v>
+        <v>1217.431884765625</v>
       </c>
       <c r="DE4" t="n">
-        <v>2054.4658203125</v>
+        <v>1217.280517578125</v>
       </c>
       <c r="DF4" t="n">
-        <v>2053.88037109375</v>
+        <v>1215.504150390625</v>
       </c>
       <c r="DG4" t="n">
-        <v>2061.175048828125</v>
+        <v>1211.706298828125</v>
       </c>
       <c r="DH4" t="n">
-        <v>2068.680419921875</v>
+        <v>1206.6845703125</v>
       </c>
       <c r="DI4" t="n">
-        <v>2073.87451171875</v>
+        <v>1197.507568359375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2073.843505859375</v>
+        <v>1184.673950195312</v>
       </c>
       <c r="DK4" t="n">
-        <v>2072.212646484375</v>
+        <v>1172.684326171875</v>
       </c>
       <c r="DL4" t="n">
-        <v>2065.751708984375</v>
+        <v>1160.765380859375</v>
       </c>
       <c r="DM4" t="n">
-        <v>2058.40625</v>
+        <v>1154.50634765625</v>
       </c>
       <c r="DN4" t="n">
-        <v>2056.09814453125</v>
+        <v>1151.306030273438</v>
       </c>
       <c r="DO4" t="n">
-        <v>2047.532958984375</v>
+        <v>1150.343017578125</v>
       </c>
       <c r="DP4" t="n">
-        <v>2043.218383789062</v>
+        <v>1148.62158203125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2040.8134765625</v>
+        <v>1146.77294921875</v>
       </c>
       <c r="DR4" t="n">
-        <v>2038.587646484375</v>
+        <v>1146.763305664062</v>
       </c>
       <c r="DS4" t="n">
-        <v>2035.849243164062</v>
+        <v>1152.594970703125</v>
       </c>
       <c r="DT4" t="n">
-        <v>2036.615112304688</v>
+        <v>1162.068603515625</v>
       </c>
       <c r="DU4" t="n">
-        <v>2032.947875976562</v>
+        <v>1173.021728515625</v>
       </c>
       <c r="DV4" t="n">
-        <v>2029.311401367188</v>
+        <v>1190.25927734375</v>
       </c>
       <c r="DW4" t="n">
-        <v>2025.17041015625</v>
+        <v>1193.987670898438</v>
       </c>
       <c r="DX4" t="n">
-        <v>2024.440673828125</v>
+        <v>1195.932861328125</v>
       </c>
       <c r="DY4" t="n">
-        <v>2025.403076171875</v>
+        <v>1194.4169921875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2029.530639648438</v>
+        <v>1181.64697265625</v>
       </c>
       <c r="EA4" t="n">
-        <v>2029.628295898438</v>
+        <v>1167.84619140625</v>
       </c>
       <c r="EB4" t="n">
-        <v>2026.3603515625</v>
+        <v>1151.820434570312</v>
       </c>
       <c r="EC4" t="n">
-        <v>2029.972412109375</v>
+        <v>1146.109985351562</v>
       </c>
       <c r="ED4" t="n">
-        <v>2031.310424804688</v>
+        <v>1146.775512695312</v>
       </c>
       <c r="EE4" t="n">
-        <v>2033.140625</v>
+        <v>1148.263916015625</v>
       </c>
       <c r="EF4" t="n">
-        <v>2022.464233398438</v>
+        <v>1150.356567382812</v>
       </c>
       <c r="EG4" t="n">
-        <v>2033.869262695312</v>
+        <v>1157.46533203125</v>
       </c>
       <c r="EH4" t="n">
-        <v>2019.688720703125</v>
+        <v>1162.862915039062</v>
       </c>
       <c r="EI4" t="n">
-        <v>2052.63134765625</v>
+        <v>1164.488037109375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2018.130981445312</v>
+        <v>1156.769409179688</v>
       </c>
       <c r="EK4" t="n">
-        <v>2014.188720703125</v>
+        <v>1162.40771484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>2014.743286132812</v>
+        <v>1161.71826171875</v>
       </c>
       <c r="EM4" t="n">
-        <v>2041.3818359375</v>
+        <v>1155.015380859375</v>
       </c>
       <c r="EN4" t="n">
-        <v>2060.7578125</v>
+        <v>1151.82470703125</v>
       </c>
       <c r="EO4" t="n">
-        <v>2078.58642578125</v>
+        <v>1118.9755859375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2084.846923828125</v>
+        <v>1099.3076171875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2092.316162109375</v>
+        <v>1061.7392578125</v>
       </c>
       <c r="ER4" t="n">
-        <v>2129.98095703125</v>
+        <v>1047.44873046875</v>
       </c>
       <c r="ES4" t="n">
-        <v>2149.94677734375</v>
+        <v>1030.023071289062</v>
       </c>
       <c r="ET4" t="n">
-        <v>2181.526123046875</v>
+        <v>1019.081970214844</v>
       </c>
       <c r="EU4" t="n">
-        <v>2204.15673828125</v>
+        <v>1008.677856445312</v>
       </c>
       <c r="EV4" t="n">
-        <v>2259.40234375</v>
+        <v>982.4834594726562</v>
       </c>
       <c r="EW4" t="n">
-        <v>2239.482666015625</v>
+        <v>963.1442260742188</v>
       </c>
       <c r="EX4" t="n">
-        <v>2245.135986328125</v>
+        <v>959.648193359375</v>
       </c>
       <c r="EY4" t="n">
-        <v>2248.726806640625</v>
+        <v>947.6914672851562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2233.48046875</v>
+        <v>940.9171752929688</v>
       </c>
       <c r="FA4" t="n">
-        <v>2234.66796875</v>
+        <v>937.6199340820312</v>
       </c>
       <c r="FB4" t="n">
-        <v>2234.94287109375</v>
+        <v>932.0667114257812</v>
       </c>
       <c r="FC4" t="n">
-        <v>2234.3388671875</v>
+        <v>915.5862426757812</v>
       </c>
       <c r="FD4" t="n">
-        <v>2230.637451171875</v>
+        <v>898.240966796875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2230.4736328125</v>
+        <v>885.68408203125</v>
       </c>
       <c r="FF4" t="n">
-        <v>2225.1796875</v>
+        <v>881.724609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>2230.8994140625</v>
+        <v>882.8648681640625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2215.41552734375</v>
+        <v>878.5384521484375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2225.16259765625</v>
+        <v>876.009521484375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2230.532470703125</v>
+        <v>873.0606079101562</v>
       </c>
       <c r="FK4" t="n">
-        <v>2202.58154296875</v>
+        <v>867.6690063476562</v>
       </c>
       <c r="FL4" t="n">
-        <v>2161.83447265625</v>
+        <v>869.1632080078125</v>
       </c>
       <c r="FM4" t="n">
-        <v>2103.75146484375</v>
+        <v>869.6226196289062</v>
       </c>
       <c r="FN4" t="n">
-        <v>2150.78515625</v>
+        <v>859.8426513671875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2089.407958984375</v>
+        <v>835.9398193359375</v>
       </c>
       <c r="FP4" t="n">
-        <v>2065.6357421875</v>
+        <v>442.4067993164062</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2055.306396484375</v>
+        <v>626.40625</v>
       </c>
       <c r="FR4" t="n">
-        <v>2040.941772460938</v>
+        <v>915.0899047851562</v>
       </c>
       <c r="FS4" t="n">
-        <v>2047.021728515625</v>
+        <v>907.2576293945312</v>
       </c>
       <c r="FT4" t="n">
-        <v>2043.519287109375</v>
+        <v>906.3604125976562</v>
       </c>
       <c r="FU4" t="n">
-        <v>2035.43701171875</v>
+        <v>715.39990234375</v>
       </c>
       <c r="FV4" t="n">
-        <v>2025.89404296875</v>
+        <v>710.9335327148438</v>
       </c>
       <c r="FW4" t="n">
-        <v>1981.006958007812</v>
+        <v>708.0623168945312</v>
       </c>
       <c r="FX4" t="n">
-        <v>1990.639526367188</v>
+        <v>705.969482421875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2003.28515625</v>
+        <v>704.0938720703125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2019.415649414062</v>
+        <v>703.7488403320312</v>
       </c>
       <c r="GA4" t="n">
-        <v>2018.37890625</v>
+        <v>709.715087890625</v>
       </c>
       <c r="GB4" t="n">
-        <v>2023.355834960938</v>
+        <v>715.58056640625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2023.103515625</v>
+        <v>709.1573486328125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2020.723999023438</v>
+        <v>707.1220092773438</v>
       </c>
       <c r="GE4" t="n">
-        <v>2019.001708984375</v>
+        <v>695.721435546875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2005.829345703125</v>
+        <v>669.7750854492188</v>
       </c>
       <c r="GG4" t="n">
-        <v>2006.291259765625</v>
+        <v>641.96435546875</v>
       </c>
       <c r="GH4" t="n">
-        <v>1998.553833007812</v>
+        <v>879.525390625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2001.048706054688</v>
+        <v>867.1778564453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2004.587890625</v>
+        <v>861.1141357421875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2005.83349609375</v>
+        <v>852.077880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2006.104736328125</v>
+        <v>825.5328979492188</v>
       </c>
       <c r="GM4" t="n">
-        <v>2005.8662109375</v>
+        <v>838.7572631835938</v>
       </c>
       <c r="GN4" t="n">
-        <v>2003.763427734375</v>
+        <v>831.3522338867188</v>
       </c>
       <c r="GO4" t="n">
-        <v>2001.752563476562</v>
+        <v>830.56689453125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2000.824462890625</v>
+        <v>794.6765747070312</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1999.448974609375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2001.716430664062</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2001.03173828125</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2004.465942382812</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2002.573974609375</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2000.979248046875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>1995.494140625</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>1988.997680664062</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>1970.500366210938</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>1963.807373046875</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>1968.034301757812</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>1970.809814453125</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1949.255981445312</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1920.903686523438</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1842.793823242188</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1815.00439453125</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1774.106079101562</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1722.316284179688</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1681.922607421875</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1658.00244140625</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1607.749633789062</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1549.4453125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1497.835693359375</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1478.932250976562</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1444.982055664062</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1406.308471679688</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1362.26123046875</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1337.906616210938</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1288.89404296875</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1241.165283203125</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1211.96728515625</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1181.764892578125</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1157.457641601562</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1115.942504882812</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1093.884155273438</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1052.266479492188</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1031.759033203125</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1030.43115234375</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1007.508178710938</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1088.27587890625</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1059.567016601562</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1077.233642578125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>1045.903442382812</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>1020.334899902344</v>
-      </c>
-      <c r="II4" t="n">
-        <v>989.8126220703125</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>967.3091430664062</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>949.0758666992188</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>935.808837890625</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>758.7277221679688</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>717.640869140625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>569.2091674804688</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>450.7431945800781</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>431.2535705566406</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>437.9371948242188</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>469.2113037109375</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>543.0006713867188</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>589.8070678710938</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>575.6818237304688</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>641.70751953125</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>812.1939697265625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>827.9441528320312</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>856.5226440429688</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>829.6244506835938</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>840.1959228515625</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>896.5067749023438</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>952.5291137695312</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>972.1528930664062</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>735.8546142578125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>759.58544921875</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>769.7716674804688</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>760.5186767578125</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>736.7418212890625</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>713.619140625</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>679.9996337890625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>645.7417602539062</v>
+        <v>784.9254150390625</v>
       </c>
     </row>
   </sheetData>

--- a/right_wrist_Data.xlsx
+++ b/right_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>356.2930297851562</v>
+        <v>276.5822448730469</v>
       </c>
       <c r="B2" t="n">
-        <v>352.3481750488281</v>
+        <v>283.819580078125</v>
       </c>
       <c r="C2" t="n">
-        <v>349.8767700195312</v>
+        <v>281.0329895019531</v>
       </c>
       <c r="D2" t="n">
-        <v>349.7634582519531</v>
+        <v>271.2926025390625</v>
       </c>
       <c r="E2" t="n">
-        <v>351.8626708984375</v>
+        <v>262.6807250976562</v>
       </c>
       <c r="F2" t="n">
-        <v>354.4925537109375</v>
+        <v>250.7015380859375</v>
       </c>
       <c r="G2" t="n">
-        <v>358.205322265625</v>
+        <v>240.3191986083984</v>
       </c>
       <c r="H2" t="n">
-        <v>360.7860717773438</v>
+        <v>239.0020446777344</v>
       </c>
       <c r="I2" t="n">
-        <v>357.6201782226562</v>
+        <v>239.5108795166016</v>
       </c>
       <c r="J2" t="n">
-        <v>346.892333984375</v>
+        <v>239.6107788085938</v>
       </c>
       <c r="K2" t="n">
-        <v>330.0027770996094</v>
+        <v>237.9427185058594</v>
       </c>
       <c r="L2" t="n">
-        <v>316.5161743164062</v>
+        <v>241.3302917480469</v>
       </c>
       <c r="M2" t="n">
-        <v>314.2428588867188</v>
+        <v>244.5495300292969</v>
       </c>
       <c r="N2" t="n">
-        <v>340.1861267089844</v>
+        <v>244.5989685058594</v>
       </c>
       <c r="O2" t="n">
-        <v>332.0631408691406</v>
+        <v>245.8675537109375</v>
       </c>
       <c r="P2" t="n">
-        <v>324.7522583007812</v>
+        <v>246.0273590087891</v>
       </c>
       <c r="Q2" t="n">
-        <v>319.4903259277344</v>
+        <v>244.5865173339844</v>
       </c>
       <c r="R2" t="n">
-        <v>316.5049133300781</v>
+        <v>247.7156372070312</v>
       </c>
       <c r="S2" t="n">
-        <v>314.6449890136719</v>
+        <v>248.652099609375</v>
       </c>
       <c r="T2" t="n">
-        <v>313.0977172851562</v>
+        <v>250.2275390625</v>
       </c>
       <c r="U2" t="n">
-        <v>311.4386596679688</v>
+        <v>251.1133117675781</v>
       </c>
       <c r="V2" t="n">
-        <v>311.7326049804688</v>
+        <v>251.5791168212891</v>
       </c>
       <c r="W2" t="n">
-        <v>311.67919921875</v>
+        <v>252.0622863769531</v>
       </c>
       <c r="X2" t="n">
-        <v>311.3965759277344</v>
+        <v>252.9784545898438</v>
       </c>
       <c r="Y2" t="n">
-        <v>310.3446350097656</v>
+        <v>253.7545471191406</v>
       </c>
       <c r="Z2" t="n">
-        <v>306.4059143066406</v>
+        <v>254.8752136230469</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.415283203125</v>
+        <v>258.061767578125</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.05859375</v>
+        <v>259.5583190917969</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.3133850097656</v>
+        <v>259.9322814941406</v>
       </c>
       <c r="AD2" t="n">
-        <v>275.9571533203125</v>
+        <v>260.6318664550781</v>
       </c>
       <c r="AE2" t="n">
-        <v>272.1590270996094</v>
+        <v>261.1223449707031</v>
       </c>
       <c r="AF2" t="n">
-        <v>269.6684265136719</v>
+        <v>261.9027099609375</v>
       </c>
       <c r="AG2" t="n">
-        <v>267.9425354003906</v>
+        <v>263.3612670898438</v>
       </c>
       <c r="AH2" t="n">
-        <v>267.0772094726562</v>
+        <v>265.4601135253906</v>
       </c>
       <c r="AI2" t="n">
-        <v>267.8748779296875</v>
+        <v>269.5923461914062</v>
       </c>
       <c r="AJ2" t="n">
-        <v>271.8513488769531</v>
+        <v>272.9929809570312</v>
       </c>
       <c r="AK2" t="n">
-        <v>278.47119140625</v>
+        <v>279.1739501953125</v>
       </c>
       <c r="AL2" t="n">
-        <v>281.7020874023438</v>
+        <v>283.7977905273438</v>
       </c>
       <c r="AM2" t="n">
-        <v>283.7115173339844</v>
+        <v>287.6109313964844</v>
       </c>
       <c r="AN2" t="n">
-        <v>284.8887634277344</v>
+        <v>293.9667358398438</v>
       </c>
       <c r="AO2" t="n">
-        <v>286.8767395019531</v>
+        <v>299.4493103027344</v>
       </c>
       <c r="AP2" t="n">
-        <v>286.8093566894531</v>
+        <v>303.63525390625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>286.4308471679688</v>
+        <v>304.8040161132812</v>
       </c>
       <c r="AR2" t="n">
-        <v>285.48095703125</v>
+        <v>306.7994079589844</v>
       </c>
       <c r="AS2" t="n">
-        <v>283.7965698242188</v>
+        <v>309.7752075195312</v>
       </c>
       <c r="AT2" t="n">
-        <v>278.9082336425781</v>
+        <v>311.068603515625</v>
       </c>
       <c r="AU2" t="n">
-        <v>271.9974975585938</v>
+        <v>312.398681640625</v>
       </c>
       <c r="AV2" t="n">
-        <v>260.9620666503906</v>
+        <v>312.3631286621094</v>
       </c>
       <c r="AW2" t="n">
-        <v>251.9884948730469</v>
+        <v>312.8830261230469</v>
       </c>
       <c r="AX2" t="n">
-        <v>249.0440216064453</v>
+        <v>313.5662231445312</v>
       </c>
       <c r="AY2" t="n">
-        <v>243.9807434082031</v>
+        <v>314.0815124511719</v>
       </c>
       <c r="AZ2" t="n">
-        <v>239.1493530273438</v>
+        <v>313.95751953125</v>
       </c>
       <c r="BA2" t="n">
-        <v>229.411865234375</v>
+        <v>313.2684020996094</v>
       </c>
       <c r="BB2" t="n">
-        <v>222.776611328125</v>
+        <v>311.8811340332031</v>
       </c>
       <c r="BC2" t="n">
-        <v>216.6544799804688</v>
+        <v>311.6208801269531</v>
       </c>
       <c r="BD2" t="n">
-        <v>211.2286529541016</v>
+        <v>311.1743469238281</v>
       </c>
       <c r="BE2" t="n">
-        <v>202.6182861328125</v>
+        <v>310.96142578125</v>
       </c>
       <c r="BF2" t="n">
-        <v>195.2797241210938</v>
+        <v>312.2272644042969</v>
       </c>
       <c r="BG2" t="n">
-        <v>190.2094268798828</v>
+        <v>314.279296875</v>
       </c>
       <c r="BH2" t="n">
-        <v>183.0885162353516</v>
+        <v>313.3306274414062</v>
       </c>
       <c r="BI2" t="n">
-        <v>174.7198791503906</v>
+        <v>307.8755493164062</v>
       </c>
       <c r="BJ2" t="n">
-        <v>167.9685668945312</v>
+        <v>298.2332153320312</v>
       </c>
       <c r="BK2" t="n">
-        <v>160.5823059082031</v>
+        <v>288.0879516601562</v>
       </c>
       <c r="BL2" t="n">
-        <v>153.6880798339844</v>
+        <v>279.3193664550781</v>
       </c>
       <c r="BM2" t="n">
-        <v>147.3905639648438</v>
+        <v>271.0424499511719</v>
       </c>
       <c r="BN2" t="n">
-        <v>137.7498626708984</v>
+        <v>261.22314453125</v>
       </c>
       <c r="BO2" t="n">
-        <v>131.5966491699219</v>
+        <v>253.7506408691406</v>
       </c>
       <c r="BP2" t="n">
-        <v>122.1719741821289</v>
+        <v>252.1589660644531</v>
       </c>
       <c r="BQ2" t="n">
-        <v>113.6415710449219</v>
+        <v>247.3124084472656</v>
       </c>
       <c r="BR2" t="n">
-        <v>108.3665542602539</v>
+        <v>239.3248291015625</v>
       </c>
       <c r="BS2" t="n">
-        <v>105.9540405273438</v>
+        <v>237.3920288085938</v>
       </c>
       <c r="BT2" t="n">
-        <v>103.8839874267578</v>
+        <v>233.5498962402344</v>
       </c>
       <c r="BU2" t="n">
-        <v>102.2166595458984</v>
+        <v>229.5726623535156</v>
       </c>
       <c r="BV2" t="n">
-        <v>101.5726928710938</v>
+        <v>228.3845367431641</v>
       </c>
       <c r="BW2" t="n">
-        <v>100.6478271484375</v>
+        <v>227.4284362792969</v>
       </c>
       <c r="BX2" t="n">
-        <v>99.92423248291016</v>
+        <v>227.0196533203125</v>
       </c>
       <c r="BY2" t="n">
-        <v>98.99995422363281</v>
+        <v>226.7350158691406</v>
       </c>
       <c r="BZ2" t="n">
-        <v>97.5848388671875</v>
+        <v>226.6931304931641</v>
       </c>
       <c r="CA2" t="n">
-        <v>96.27813720703125</v>
+        <v>226.5877990722656</v>
       </c>
       <c r="CB2" t="n">
-        <v>94.19932556152344</v>
+        <v>226.5967407226562</v>
       </c>
       <c r="CC2" t="n">
-        <v>88.70795440673828</v>
+        <v>226.0010375976562</v>
       </c>
       <c r="CD2" t="n">
-        <v>80.08668518066406</v>
+        <v>229.4638366699219</v>
       </c>
       <c r="CE2" t="n">
-        <v>68.75904083251953</v>
+        <v>232.3226928710938</v>
       </c>
       <c r="CF2" t="n">
-        <v>58.03612518310547</v>
+        <v>233.0540313720703</v>
       </c>
       <c r="CG2" t="n">
-        <v>48.70988464355469</v>
+        <v>235.0519104003906</v>
       </c>
       <c r="CH2" t="n">
-        <v>44.91221618652344</v>
+        <v>236.7388916015625</v>
       </c>
       <c r="CI2" t="n">
-        <v>43.50240325927734</v>
+        <v>240.3974609375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>43.59489440917969</v>
+        <v>245.9374389648438</v>
       </c>
       <c r="CK2" t="n">
-        <v>43.534912109375</v>
+        <v>249.5604705810547</v>
       </c>
       <c r="CL2" t="n">
-        <v>45.62359619140625</v>
+        <v>254.1422271728516</v>
       </c>
       <c r="CM2" t="n">
-        <v>48.24239349365234</v>
+        <v>259.2757873535156</v>
       </c>
       <c r="CN2" t="n">
-        <v>49.28829956054688</v>
+        <v>267.9661865234375</v>
       </c>
       <c r="CO2" t="n">
-        <v>48.89321899414062</v>
+        <v>275.2595520019531</v>
       </c>
       <c r="CP2" t="n">
-        <v>47.08262634277344</v>
+        <v>282.9228515625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>47.14034271240234</v>
+        <v>285.1920166015625</v>
       </c>
       <c r="CR2" t="n">
-        <v>52.39608001708984</v>
+        <v>292.3454284667969</v>
       </c>
       <c r="CS2" t="n">
-        <v>58.29853057861328</v>
+        <v>298.1357727050781</v>
       </c>
       <c r="CT2" t="n">
-        <v>68.13946533203125</v>
+        <v>301.3636779785156</v>
       </c>
       <c r="CU2" t="n">
-        <v>81.55966186523438</v>
+        <v>303.7272338867188</v>
       </c>
       <c r="CV2" t="n">
-        <v>96.69406127929688</v>
+        <v>304.9347534179688</v>
       </c>
       <c r="CW2" t="n">
-        <v>108.0007553100586</v>
+        <v>307.5079345703125</v>
       </c>
       <c r="CX2" t="n">
-        <v>118.0597076416016</v>
+        <v>310.06298828125</v>
       </c>
       <c r="CY2" t="n">
-        <v>131.0803985595703</v>
+        <v>315.1003723144531</v>
       </c>
       <c r="CZ2" t="n">
-        <v>143.3560333251953</v>
+        <v>315.5838012695312</v>
       </c>
       <c r="DA2" t="n">
-        <v>153.9054870605469</v>
+        <v>316.5730285644531</v>
       </c>
       <c r="DB2" t="n">
-        <v>160.3515472412109</v>
+        <v>316.1133728027344</v>
       </c>
       <c r="DC2" t="n">
-        <v>165.3421020507812</v>
+        <v>316.6078796386719</v>
       </c>
       <c r="DD2" t="n">
-        <v>168.2950744628906</v>
+        <v>317.2988586425781</v>
       </c>
       <c r="DE2" t="n">
-        <v>170.2480773925781</v>
+        <v>317.6695861816406</v>
       </c>
       <c r="DF2" t="n">
-        <v>170.9477233886719</v>
+        <v>318.0844116210938</v>
       </c>
       <c r="DG2" t="n">
-        <v>172.2651977539062</v>
+        <v>318.3890991210938</v>
       </c>
       <c r="DH2" t="n">
-        <v>171.5416259765625</v>
+        <v>317.4736022949219</v>
       </c>
       <c r="DI2" t="n">
-        <v>170.6510314941406</v>
+        <v>312.852783203125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>169.4320983886719</v>
+        <v>307.0838623046875</v>
       </c>
       <c r="DK2" t="n">
-        <v>167.807861328125</v>
+        <v>293.9498596191406</v>
       </c>
       <c r="DL2" t="n">
-        <v>166.3213958740234</v>
+        <v>273.4485778808594</v>
       </c>
       <c r="DM2" t="n">
-        <v>164.7202301025391</v>
+        <v>264.1964721679688</v>
       </c>
       <c r="DN2" t="n">
-        <v>164.0748901367188</v>
+        <v>250.7715454101562</v>
       </c>
       <c r="DO2" t="n">
-        <v>165.2851257324219</v>
+        <v>246.4561462402344</v>
       </c>
       <c r="DP2" t="n">
-        <v>178.5293273925781</v>
+        <v>241.8208923339844</v>
       </c>
       <c r="DQ2" t="n">
-        <v>190.5134582519531</v>
+        <v>238.7405395507812</v>
       </c>
       <c r="DR2" t="n">
-        <v>201.1912689208984</v>
+        <v>236.8025817871094</v>
       </c>
       <c r="DS2" t="n">
-        <v>231.3670043945312</v>
+        <v>233.4812164306641</v>
       </c>
       <c r="DT2" t="n">
-        <v>248.5382080078125</v>
+        <v>229.65185546875</v>
       </c>
       <c r="DU2" t="n">
-        <v>265.3496704101562</v>
+        <v>228.0291900634766</v>
       </c>
       <c r="DV2" t="n">
-        <v>291.324462890625</v>
+        <v>227.2190856933594</v>
       </c>
       <c r="DW2" t="n">
-        <v>303.7256164550781</v>
+        <v>227.2387084960938</v>
       </c>
       <c r="DX2" t="n">
-        <v>305.6574096679688</v>
+        <v>227.2628784179688</v>
       </c>
       <c r="DY2" t="n">
-        <v>306.9747924804688</v>
+        <v>227.7610473632812</v>
       </c>
       <c r="DZ2" t="n">
-        <v>307.3037414550781</v>
+        <v>228.2578735351562</v>
       </c>
       <c r="EA2" t="n">
-        <v>307.2545471191406</v>
+        <v>231.1029357910156</v>
       </c>
       <c r="EB2" t="n">
-        <v>307.08984375</v>
+        <v>234.4160308837891</v>
       </c>
       <c r="EC2" t="n">
-        <v>306.8639221191406</v>
+        <v>236.5498504638672</v>
       </c>
       <c r="ED2" t="n">
-        <v>304.9683532714844</v>
+        <v>242.6568908691406</v>
       </c>
       <c r="EE2" t="n">
-        <v>301.8236083984375</v>
+        <v>246.3830261230469</v>
       </c>
       <c r="EF2" t="n">
-        <v>297.3303527832031</v>
+        <v>252.3779296875</v>
       </c>
       <c r="EG2" t="n">
-        <v>291.1326599121094</v>
+        <v>257.3939819335938</v>
       </c>
       <c r="EH2" t="n">
-        <v>287.4245300292969</v>
+        <v>260.9242248535156</v>
       </c>
       <c r="EI2" t="n">
-        <v>280.4208984375</v>
+        <v>266.7632446289062</v>
       </c>
       <c r="EJ2" t="n">
-        <v>276.2433471679688</v>
+        <v>272.27001953125</v>
       </c>
       <c r="EK2" t="n">
-        <v>269.5278930664062</v>
+        <v>284.58740234375</v>
       </c>
       <c r="EL2" t="n">
-        <v>265.2503662109375</v>
+        <v>284.3280639648438</v>
       </c>
       <c r="EM2" t="n">
-        <v>252.5342102050781</v>
+        <v>295.1253051757812</v>
       </c>
       <c r="EN2" t="n">
-        <v>246.4743804931641</v>
+        <v>298.6018371582031</v>
       </c>
       <c r="EO2" t="n">
-        <v>230.7355499267578</v>
+        <v>302.0275268554688</v>
       </c>
       <c r="EP2" t="n">
-        <v>219.7401580810547</v>
+        <v>306.3982238769531</v>
       </c>
       <c r="EQ2" t="n">
-        <v>204.4593505859375</v>
+        <v>306.4229736328125</v>
       </c>
       <c r="ER2" t="n">
-        <v>197.6617431640625</v>
+        <v>311.1125183105469</v>
       </c>
       <c r="ES2" t="n">
-        <v>178.5126495361328</v>
+        <v>311.5475158691406</v>
       </c>
       <c r="ET2" t="n">
-        <v>172.7797241210938</v>
+        <v>311.843505859375</v>
       </c>
       <c r="EU2" t="n">
-        <v>166.4931945800781</v>
+        <v>311.9690856933594</v>
       </c>
       <c r="EV2" t="n">
-        <v>160.9255218505859</v>
+        <v>311.6851501464844</v>
       </c>
       <c r="EW2" t="n">
-        <v>158.9248657226562</v>
+        <v>309.2828063964844</v>
       </c>
       <c r="EX2" t="n">
-        <v>159.0175323486328</v>
+        <v>297.5126342773438</v>
       </c>
       <c r="EY2" t="n">
-        <v>162.9269104003906</v>
+        <v>293.0492553710938</v>
       </c>
       <c r="EZ2" t="n">
-        <v>169.6414489746094</v>
+        <v>288.0263977050781</v>
       </c>
       <c r="FA2" t="n">
-        <v>174.2142944335938</v>
+        <v>273.1944274902344</v>
       </c>
       <c r="FB2" t="n">
-        <v>181.6569671630859</v>
+        <v>260.4910278320312</v>
       </c>
       <c r="FC2" t="n">
-        <v>192.5555114746094</v>
+        <v>250.5026550292969</v>
       </c>
       <c r="FD2" t="n">
-        <v>190.4422760009766</v>
+        <v>242.4364013671875</v>
       </c>
       <c r="FE2" t="n">
-        <v>188.2391052246094</v>
+        <v>241.0989685058594</v>
       </c>
       <c r="FF2" t="n">
-        <v>188.3620300292969</v>
+        <v>238.9765625</v>
       </c>
       <c r="FG2" t="n">
-        <v>190.5408020019531</v>
+        <v>236.3672637939453</v>
       </c>
       <c r="FH2" t="n">
-        <v>194.9712982177734</v>
+        <v>235.4933471679688</v>
       </c>
       <c r="FI2" t="n">
-        <v>202.5599822998047</v>
+        <v>233.5367431640625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>214.51513671875</v>
+        <v>233.7181396484375</v>
       </c>
       <c r="FK2" t="n">
-        <v>213.0952453613281</v>
+        <v>233.5271301269531</v>
       </c>
       <c r="FL2" t="n">
-        <v>222.4087219238281</v>
+        <v>233.6041564941406</v>
       </c>
       <c r="FM2" t="n">
-        <v>229.6302642822266</v>
+        <v>233.498291015625</v>
       </c>
       <c r="FN2" t="n">
-        <v>237.9884643554688</v>
+        <v>233.4493713378906</v>
       </c>
       <c r="FO2" t="n">
-        <v>249.2348022460938</v>
+        <v>234.2008056640625</v>
       </c>
       <c r="FP2" t="n">
-        <v>205.125</v>
+        <v>240.0725708007812</v>
       </c>
       <c r="FQ2" t="n">
-        <v>289.7054443359375</v>
+        <v>243.8327941894531</v>
       </c>
       <c r="FR2" t="n">
-        <v>310.1460571289062</v>
+        <v>249.660400390625</v>
       </c>
       <c r="FS2" t="n">
-        <v>321.8980407714844</v>
+        <v>252.4883728027344</v>
       </c>
       <c r="FT2" t="n">
-        <v>332.9452819824219</v>
+        <v>261.7594604492188</v>
       </c>
       <c r="FU2" t="n">
-        <v>305.9026794433594</v>
+        <v>269.36083984375</v>
       </c>
       <c r="FV2" t="n">
-        <v>318.3019104003906</v>
+        <v>273.7068481445312</v>
       </c>
       <c r="FW2" t="n">
-        <v>340.5603332519531</v>
+        <v>286.5892944335938</v>
       </c>
       <c r="FX2" t="n">
-        <v>348.3695068359375</v>
+        <v>288.8991394042969</v>
       </c>
       <c r="FY2" t="n">
-        <v>352.606201171875</v>
+        <v>296.8544006347656</v>
       </c>
       <c r="FZ2" t="n">
-        <v>352.4970092773438</v>
+        <v>299.3993835449219</v>
       </c>
       <c r="GA2" t="n">
-        <v>353.342041015625</v>
+        <v>303.1339416503906</v>
       </c>
       <c r="GB2" t="n">
-        <v>354.352783203125</v>
+        <v>306.7537231445312</v>
       </c>
       <c r="GC2" t="n">
-        <v>361.82275390625</v>
+        <v>308.1984252929688</v>
       </c>
       <c r="GD2" t="n">
-        <v>345.0817565917969</v>
+        <v>308.4790954589844</v>
       </c>
       <c r="GE2" t="n">
-        <v>331.9632568359375</v>
+        <v>307.4887390136719</v>
       </c>
       <c r="GF2" t="n">
-        <v>324.2471618652344</v>
+        <v>306.0443115234375</v>
       </c>
       <c r="GG2" t="n">
-        <v>313.5477294921875</v>
+        <v>305.9556579589844</v>
       </c>
       <c r="GH2" t="n">
-        <v>316.6759033203125</v>
+        <v>306.2028198242188</v>
       </c>
       <c r="GI2" t="n">
-        <v>299.0919494628906</v>
+        <v>305.5174865722656</v>
       </c>
       <c r="GJ2" t="n">
-        <v>285.8280944824219</v>
+        <v>294.4371948242188</v>
       </c>
       <c r="GK2" t="n">
-        <v>318.0531616210938</v>
+        <v>286.2690734863281</v>
       </c>
       <c r="GL2" t="n">
-        <v>303.8849182128906</v>
+        <v>280.7783508300781</v>
       </c>
       <c r="GM2" t="n">
-        <v>299.0804138183594</v>
+        <v>259.9049987792969</v>
       </c>
       <c r="GN2" t="n">
-        <v>283.0708312988281</v>
+        <v>253.5724182128906</v>
       </c>
       <c r="GO2" t="n">
-        <v>279.135498046875</v>
+        <v>243.8262939453125</v>
       </c>
       <c r="GP2" t="n">
-        <v>233.7602996826172</v>
+        <v>238.2272644042969</v>
       </c>
       <c r="GQ2" t="n">
-        <v>210.2462005615234</v>
+        <v>231.6200103759766</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>229.4534606933594</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>227.4093933105469</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>225.8604125976562</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>226.0458068847656</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>227.6601867675781</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>227.9319915771484</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>228.6444091796875</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>236.4810485839844</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>243.7059631347656</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>250.4060668945312</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>255.9937133789062</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>266.7510681152344</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>279.8125915527344</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>289.8073425292969</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>291.0412292480469</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>300.5423583984375</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>304.6065673828125</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>309.5115966796875</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>306.8370666503906</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>306.21142578125</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>307.2615356445312</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>307.886474609375</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>308.6697692871094</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>307.9018249511719</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>298.91064453125</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>288.7582702636719</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>282.2051086425781</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>275.9337768554688</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>252.8351135253906</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>246.0930786132812</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>239.2129211425781</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>232.622314453125</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>230.5657196044922</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>227.304443359375</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>226.0444030761719</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>225.4887084960938</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>225.6205596923828</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>226.3493194580078</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>227.8424224853516</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>230.0677185058594</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>235.1800231933594</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>240.0560150146484</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>245.705078125</v>
+      </c>
+      <c r="II2" t="n">
+        <v>253.735595703125</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>260.8202819824219</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>269.1768493652344</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>279.4275207519531</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>292.7851257324219</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>295.73828125</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>300.8081665039062</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>301.9336242675781</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>302.7192687988281</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>304.5990295410156</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>305.590576171875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>305.6830139160156</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>303.9710998535156</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>291.5172729492188</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>284.7805786132812</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>266.9160766601562</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>247.5306396484375</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>237.7299346923828</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>232.2854461669922</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>227.17431640625</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>225.7249145507812</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>224.6961822509766</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>222.7393798828125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>222.6214447021484</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>223.417236328125</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>225.0134582519531</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>227.3834381103516</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>233.7715454101562</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>238.0084533691406</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>244.9086303710938</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>250.9031982421875</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>260.5830688476562</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>268.6080322265625</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>272.9247741699219</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>288.2145080566406</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>293.1501770019531</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>293.9292602539062</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>305.1243591308594</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>305.4552307128906</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>305.0073547363281</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>305.0693054199219</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>304.68310546875</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>304.5315551757812</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>301.3121337890625</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>300.2152099609375</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>294.6210632324219</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>295.169189453125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>272.1592712402344</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>263.7064514160156</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>254.6916198730469</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>246.3115539550781</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>240.3981323242188</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>237.3427429199219</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>236.6604766845703</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>235.3403015136719</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>232.2921142578125</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>240.6522216796875</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>244.8521728515625</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>254.3087921142578</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>256.8076477050781</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>255.2557067871094</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>261.7037353515625</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>260.2422485351562</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>255.7489166259766</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>246.8154754638672</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>238.9050903320312</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>220.2890014648438</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>190.8152618408203</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>177.5438690185547</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>153.5065612792969</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>84.89736938476562</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>73.48151397705078</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>72.13722229003906</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>75.15584564208984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>408.7241516113281</v>
+        <v>473.3362731933594</v>
       </c>
       <c r="B3" t="n">
-        <v>403.5011596679688</v>
+        <v>444.17822265625</v>
       </c>
       <c r="C3" t="n">
-        <v>400.1754455566406</v>
+        <v>425.8966979980469</v>
       </c>
       <c r="D3" t="n">
-        <v>398.7887573242188</v>
+        <v>412.1126403808594</v>
       </c>
       <c r="E3" t="n">
-        <v>405.7473449707031</v>
+        <v>403.7748107910156</v>
       </c>
       <c r="F3" t="n">
-        <v>414.320556640625</v>
+        <v>398.2543029785156</v>
       </c>
       <c r="G3" t="n">
-        <v>417.3932800292969</v>
+        <v>396.6736755371094</v>
       </c>
       <c r="H3" t="n">
-        <v>415.4378967285156</v>
+        <v>395.9191284179688</v>
       </c>
       <c r="I3" t="n">
-        <v>410.1047058105469</v>
+        <v>393.6564636230469</v>
       </c>
       <c r="J3" t="n">
-        <v>399.2730407714844</v>
+        <v>391.2277221679688</v>
       </c>
       <c r="K3" t="n">
-        <v>377.072021484375</v>
+        <v>395.2243957519531</v>
       </c>
       <c r="L3" t="n">
-        <v>362.4506530761719</v>
+        <v>396.8864440917969</v>
       </c>
       <c r="M3" t="n">
-        <v>242.40283203125</v>
+        <v>396.6318359375</v>
       </c>
       <c r="N3" t="n">
-        <v>373.8863830566406</v>
+        <v>393.9317016601562</v>
       </c>
       <c r="O3" t="n">
-        <v>372.5483703613281</v>
+        <v>392.7860107421875</v>
       </c>
       <c r="P3" t="n">
-        <v>368.2948303222656</v>
+        <v>388.6660461425781</v>
       </c>
       <c r="Q3" t="n">
-        <v>362.8766479492188</v>
+        <v>385.6511840820312</v>
       </c>
       <c r="R3" t="n">
-        <v>355.3879089355469</v>
+        <v>378.8504638671875</v>
       </c>
       <c r="S3" t="n">
-        <v>347.8363952636719</v>
+        <v>373.9423522949219</v>
       </c>
       <c r="T3" t="n">
-        <v>341.6028442382812</v>
+        <v>368.8620300292969</v>
       </c>
       <c r="U3" t="n">
-        <v>337.7537231445312</v>
+        <v>366.1887817382812</v>
       </c>
       <c r="V3" t="n">
-        <v>333.90185546875</v>
+        <v>363.9151306152344</v>
       </c>
       <c r="W3" t="n">
-        <v>330.7997741699219</v>
+        <v>363.9359130859375</v>
       </c>
       <c r="X3" t="n">
-        <v>329.1735229492188</v>
+        <v>363.2567443847656</v>
       </c>
       <c r="Y3" t="n">
-        <v>327.4614562988281</v>
+        <v>365.1251220703125</v>
       </c>
       <c r="Z3" t="n">
-        <v>324.679443359375</v>
+        <v>366.5559997558594</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.1396484375</v>
+        <v>371.5007934570312</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.9866333007812</v>
+        <v>371.9564819335938</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.1259765625</v>
+        <v>374.2536926269531</v>
       </c>
       <c r="AD3" t="n">
-        <v>314.4517822265625</v>
+        <v>371.8889465332031</v>
       </c>
       <c r="AE3" t="n">
-        <v>313.9329528808594</v>
+        <v>369.7787780761719</v>
       </c>
       <c r="AF3" t="n">
-        <v>314.4878234863281</v>
+        <v>370.4556274414062</v>
       </c>
       <c r="AG3" t="n">
-        <v>315.0779724121094</v>
+        <v>369.6475219726562</v>
       </c>
       <c r="AH3" t="n">
-        <v>314.5818176269531</v>
+        <v>366.7611083984375</v>
       </c>
       <c r="AI3" t="n">
-        <v>313.5980529785156</v>
+        <v>363.6722106933594</v>
       </c>
       <c r="AJ3" t="n">
-        <v>312.1758728027344</v>
+        <v>356.7313842773438</v>
       </c>
       <c r="AK3" t="n">
-        <v>310.9382019042969</v>
+        <v>350.3260803222656</v>
       </c>
       <c r="AL3" t="n">
-        <v>307.930419921875</v>
+        <v>342.6752014160156</v>
       </c>
       <c r="AM3" t="n">
-        <v>304.8270263671875</v>
+        <v>335.0357055664062</v>
       </c>
       <c r="AN3" t="n">
-        <v>301.7640380859375</v>
+        <v>327.5876159667969</v>
       </c>
       <c r="AO3" t="n">
-        <v>298.755126953125</v>
+        <v>318.5245666503906</v>
       </c>
       <c r="AP3" t="n">
-        <v>296.2529296875</v>
+        <v>309.8625793457031</v>
       </c>
       <c r="AQ3" t="n">
-        <v>293.6698608398438</v>
+        <v>305.4357299804688</v>
       </c>
       <c r="AR3" t="n">
-        <v>292.6375732421875</v>
+        <v>302.1077575683594</v>
       </c>
       <c r="AS3" t="n">
-        <v>293.3488159179688</v>
+        <v>298.6352233886719</v>
       </c>
       <c r="AT3" t="n">
-        <v>294.4114379882812</v>
+        <v>296.2677612304688</v>
       </c>
       <c r="AU3" t="n">
-        <v>294.6375427246094</v>
+        <v>296.5563354492188</v>
       </c>
       <c r="AV3" t="n">
-        <v>294.246337890625</v>
+        <v>296.7248229980469</v>
       </c>
       <c r="AW3" t="n">
-        <v>294.6054077148438</v>
+        <v>296.5484008789062</v>
       </c>
       <c r="AX3" t="n">
-        <v>296.9233703613281</v>
+        <v>295.7546691894531</v>
       </c>
       <c r="AY3" t="n">
-        <v>307.9441528320312</v>
+        <v>295.308349609375</v>
       </c>
       <c r="AZ3" t="n">
-        <v>320.5076904296875</v>
+        <v>295.4879760742188</v>
       </c>
       <c r="BA3" t="n">
-        <v>329.7926635742188</v>
+        <v>296.1496276855469</v>
       </c>
       <c r="BB3" t="n">
-        <v>330.1815795898438</v>
+        <v>297.2242736816406</v>
       </c>
       <c r="BC3" t="n">
-        <v>331.0279235839844</v>
+        <v>297.4474487304688</v>
       </c>
       <c r="BD3" t="n">
-        <v>332.7322692871094</v>
+        <v>297.2804260253906</v>
       </c>
       <c r="BE3" t="n">
-        <v>332.0317077636719</v>
+        <v>296.9377136230469</v>
       </c>
       <c r="BF3" t="n">
-        <v>333.1913452148438</v>
+        <v>296.0092163085938</v>
       </c>
       <c r="BG3" t="n">
-        <v>334.5312805175781</v>
+        <v>293.9742126464844</v>
       </c>
       <c r="BH3" t="n">
-        <v>334.65478515625</v>
+        <v>294.1753845214844</v>
       </c>
       <c r="BI3" t="n">
-        <v>334.2196044921875</v>
+        <v>292.6686096191406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>332.9068908691406</v>
+        <v>289.8179016113281</v>
       </c>
       <c r="BK3" t="n">
-        <v>331.9017333984375</v>
+        <v>286.5858459472656</v>
       </c>
       <c r="BL3" t="n">
-        <v>327.4472961425781</v>
+        <v>284.7846984863281</v>
       </c>
       <c r="BM3" t="n">
-        <v>325.2559204101562</v>
+        <v>287.8701477050781</v>
       </c>
       <c r="BN3" t="n">
-        <v>323.575927734375</v>
+        <v>296.1694641113281</v>
       </c>
       <c r="BO3" t="n">
-        <v>322.6165771484375</v>
+        <v>299.6111145019531</v>
       </c>
       <c r="BP3" t="n">
-        <v>321.6818542480469</v>
+        <v>305.0971069335938</v>
       </c>
       <c r="BQ3" t="n">
-        <v>319.3799438476562</v>
+        <v>304.2341613769531</v>
       </c>
       <c r="BR3" t="n">
-        <v>318.5787658691406</v>
+        <v>299.8726501464844</v>
       </c>
       <c r="BS3" t="n">
-        <v>318.3461303710938</v>
+        <v>297.25146484375</v>
       </c>
       <c r="BT3" t="n">
-        <v>317.3815002441406</v>
+        <v>298.1717834472656</v>
       </c>
       <c r="BU3" t="n">
-        <v>317.0719299316406</v>
+        <v>297.7372131347656</v>
       </c>
       <c r="BV3" t="n">
-        <v>317.2388000488281</v>
+        <v>297.7755126953125</v>
       </c>
       <c r="BW3" t="n">
-        <v>317.952880859375</v>
+        <v>297.77392578125</v>
       </c>
       <c r="BX3" t="n">
-        <v>319.0584411621094</v>
+        <v>297.3293762207031</v>
       </c>
       <c r="BY3" t="n">
-        <v>319.0721130371094</v>
+        <v>297.6986389160156</v>
       </c>
       <c r="BZ3" t="n">
-        <v>318.4407958984375</v>
+        <v>298.148681640625</v>
       </c>
       <c r="CA3" t="n">
-        <v>317.3897399902344</v>
+        <v>298.7884216308594</v>
       </c>
       <c r="CB3" t="n">
-        <v>315.8048400878906</v>
+        <v>298.9702758789062</v>
       </c>
       <c r="CC3" t="n">
-        <v>309.7598571777344</v>
+        <v>307.8920288085938</v>
       </c>
       <c r="CD3" t="n">
-        <v>299.6500549316406</v>
+        <v>298.0140686035156</v>
       </c>
       <c r="CE3" t="n">
-        <v>288.2654724121094</v>
+        <v>294.9223937988281</v>
       </c>
       <c r="CF3" t="n">
-        <v>276.8531799316406</v>
+        <v>295.9175415039062</v>
       </c>
       <c r="CG3" t="n">
-        <v>263.2073974609375</v>
+        <v>295.9732360839844</v>
       </c>
       <c r="CH3" t="n">
-        <v>248.2846069335938</v>
+        <v>295.7490234375</v>
       </c>
       <c r="CI3" t="n">
-        <v>234.831298828125</v>
+        <v>294.9880981445312</v>
       </c>
       <c r="CJ3" t="n">
-        <v>222.0538177490234</v>
+        <v>296.569580078125</v>
       </c>
       <c r="CK3" t="n">
-        <v>213.7945251464844</v>
+        <v>299.0945129394531</v>
       </c>
       <c r="CL3" t="n">
-        <v>203.5282745361328</v>
+        <v>300.2861328125</v>
       </c>
       <c r="CM3" t="n">
-        <v>200.0664672851562</v>
+        <v>299.7402648925781</v>
       </c>
       <c r="CN3" t="n">
-        <v>199.7702484130859</v>
+        <v>297.9760131835938</v>
       </c>
       <c r="CO3" t="n">
-        <v>201.7240753173828</v>
+        <v>295.4727783203125</v>
       </c>
       <c r="CP3" t="n">
-        <v>207.2398376464844</v>
+        <v>291.57080078125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>217.723876953125</v>
+        <v>289.0845947265625</v>
       </c>
       <c r="CR3" t="n">
-        <v>245.8729095458984</v>
+        <v>287.81396484375</v>
       </c>
       <c r="CS3" t="n">
-        <v>263.5111389160156</v>
+        <v>286.70947265625</v>
       </c>
       <c r="CT3" t="n">
-        <v>282.3661193847656</v>
+        <v>290.1421813964844</v>
       </c>
       <c r="CU3" t="n">
-        <v>293.6631774902344</v>
+        <v>291.7080078125</v>
       </c>
       <c r="CV3" t="n">
-        <v>301.0797119140625</v>
+        <v>293.7401733398438</v>
       </c>
       <c r="CW3" t="n">
-        <v>312.4786071777344</v>
+        <v>295.1766357421875</v>
       </c>
       <c r="CX3" t="n">
-        <v>322.2307434082031</v>
+        <v>295.7639465332031</v>
       </c>
       <c r="CY3" t="n">
-        <v>329.9088439941406</v>
+        <v>297.5994262695312</v>
       </c>
       <c r="CZ3" t="n">
-        <v>336.3025817871094</v>
+        <v>298.0238647460938</v>
       </c>
       <c r="DA3" t="n">
-        <v>339.3376770019531</v>
+        <v>298.2174072265625</v>
       </c>
       <c r="DB3" t="n">
-        <v>340.8738403320312</v>
+        <v>297.0876770019531</v>
       </c>
       <c r="DC3" t="n">
-        <v>339.7374572753906</v>
+        <v>296.6217346191406</v>
       </c>
       <c r="DD3" t="n">
-        <v>340.0158081054688</v>
+        <v>296.4947204589844</v>
       </c>
       <c r="DE3" t="n">
-        <v>340.0909729003906</v>
+        <v>296.28955078125</v>
       </c>
       <c r="DF3" t="n">
-        <v>340.619384765625</v>
+        <v>296.1048889160156</v>
       </c>
       <c r="DG3" t="n">
-        <v>341.5295715332031</v>
+        <v>295.97900390625</v>
       </c>
       <c r="DH3" t="n">
-        <v>341.4205322265625</v>
+        <v>295.6295471191406</v>
       </c>
       <c r="DI3" t="n">
-        <v>341.5413208007812</v>
+        <v>294.257568359375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>338.5158081054688</v>
+        <v>292.7076721191406</v>
       </c>
       <c r="DK3" t="n">
-        <v>338.4169311523438</v>
+        <v>285.2944641113281</v>
       </c>
       <c r="DL3" t="n">
-        <v>339.3088073730469</v>
+        <v>280.4302978515625</v>
       </c>
       <c r="DM3" t="n">
-        <v>338.8654174804688</v>
+        <v>292.7418212890625</v>
       </c>
       <c r="DN3" t="n">
-        <v>336.7549438476562</v>
+        <v>302.7334594726562</v>
       </c>
       <c r="DO3" t="n">
-        <v>333.352783203125</v>
+        <v>303.2441101074219</v>
       </c>
       <c r="DP3" t="n">
-        <v>332.981201171875</v>
+        <v>303.3685607910156</v>
       </c>
       <c r="DQ3" t="n">
-        <v>335.9465942382812</v>
+        <v>302.7902221679688</v>
       </c>
       <c r="DR3" t="n">
-        <v>337.3137512207031</v>
+        <v>301.990966796875</v>
       </c>
       <c r="DS3" t="n">
-        <v>341.2453918457031</v>
+        <v>301.1409301757812</v>
       </c>
       <c r="DT3" t="n">
-        <v>344.2777099609375</v>
+        <v>301.5703430175781</v>
       </c>
       <c r="DU3" t="n">
-        <v>345.7037353515625</v>
+        <v>302.6125793457031</v>
       </c>
       <c r="DV3" t="n">
-        <v>340.8023071289062</v>
+        <v>304.8458557128906</v>
       </c>
       <c r="DW3" t="n">
-        <v>333.3655090332031</v>
+        <v>304.726318359375</v>
       </c>
       <c r="DX3" t="n">
-        <v>328.8694458007812</v>
+        <v>304.5829772949219</v>
       </c>
       <c r="DY3" t="n">
-        <v>325.6875</v>
+        <v>304.6399841308594</v>
       </c>
       <c r="DZ3" t="n">
-        <v>322.9940185546875</v>
+        <v>304.6936340332031</v>
       </c>
       <c r="EA3" t="n">
-        <v>319.4793090820312</v>
+        <v>304.9037170410156</v>
       </c>
       <c r="EB3" t="n">
-        <v>318.2943725585938</v>
+        <v>305.2044982910156</v>
       </c>
       <c r="EC3" t="n">
-        <v>318.3144836425781</v>
+        <v>306.2825927734375</v>
       </c>
       <c r="ED3" t="n">
-        <v>318.1279602050781</v>
+        <v>306.4443969726562</v>
       </c>
       <c r="EE3" t="n">
-        <v>317.5430908203125</v>
+        <v>306.5195922851562</v>
       </c>
       <c r="EF3" t="n">
-        <v>316.6797790527344</v>
+        <v>308.1824645996094</v>
       </c>
       <c r="EG3" t="n">
-        <v>315.4956970214844</v>
+        <v>310.0421447753906</v>
       </c>
       <c r="EH3" t="n">
-        <v>317.2347106933594</v>
+        <v>305.6121520996094</v>
       </c>
       <c r="EI3" t="n">
-        <v>322.5695190429688</v>
+        <v>301.5493469238281</v>
       </c>
       <c r="EJ3" t="n">
-        <v>328.2230224609375</v>
+        <v>296.7604675292969</v>
       </c>
       <c r="EK3" t="n">
-        <v>336.5463256835938</v>
+        <v>285.668701171875</v>
       </c>
       <c r="EL3" t="n">
-        <v>336.8965148925781</v>
+        <v>291.9891662597656</v>
       </c>
       <c r="EM3" t="n">
-        <v>341.3960266113281</v>
+        <v>291.7522277832031</v>
       </c>
       <c r="EN3" t="n">
-        <v>344.0120544433594</v>
+        <v>292.7530212402344</v>
       </c>
       <c r="EO3" t="n">
-        <v>346.6500549316406</v>
+        <v>297.1029052734375</v>
       </c>
       <c r="EP3" t="n">
-        <v>348.2430725097656</v>
+        <v>297.8825378417969</v>
       </c>
       <c r="EQ3" t="n">
-        <v>356.529052734375</v>
+        <v>299.5421447753906</v>
       </c>
       <c r="ER3" t="n">
-        <v>359.1031494140625</v>
+        <v>300.2979736328125</v>
       </c>
       <c r="ES3" t="n">
-        <v>361.9334716796875</v>
+        <v>300.4837646484375</v>
       </c>
       <c r="ET3" t="n">
-        <v>364.02392578125</v>
+        <v>300.514892578125</v>
       </c>
       <c r="EU3" t="n">
-        <v>364.9903869628906</v>
+        <v>300.551025390625</v>
       </c>
       <c r="EV3" t="n">
-        <v>367.7406005859375</v>
+        <v>300.6396179199219</v>
       </c>
       <c r="EW3" t="n">
-        <v>371.7596130371094</v>
+        <v>299.8764038085938</v>
       </c>
       <c r="EX3" t="n">
-        <v>373.9660034179688</v>
+        <v>296.2456665039062</v>
       </c>
       <c r="EY3" t="n">
-        <v>379.3402404785156</v>
+        <v>294.5210266113281</v>
       </c>
       <c r="EZ3" t="n">
-        <v>382.0866088867188</v>
+        <v>289.986572265625</v>
       </c>
       <c r="FA3" t="n">
-        <v>381.4700927734375</v>
+        <v>287.4245910644531</v>
       </c>
       <c r="FB3" t="n">
-        <v>381.1171264648438</v>
+        <v>295.3914489746094</v>
       </c>
       <c r="FC3" t="n">
-        <v>384.3456115722656</v>
+        <v>306.431884765625</v>
       </c>
       <c r="FD3" t="n">
-        <v>395.6907958984375</v>
+        <v>305.7691040039062</v>
       </c>
       <c r="FE3" t="n">
-        <v>408.9182434082031</v>
+        <v>303.968505859375</v>
       </c>
       <c r="FF3" t="n">
-        <v>420.0818176269531</v>
+        <v>304.6928405761719</v>
       </c>
       <c r="FG3" t="n">
-        <v>424.1166687011719</v>
+        <v>303.927734375</v>
       </c>
       <c r="FH3" t="n">
-        <v>438.0452270507812</v>
+        <v>304.0880126953125</v>
       </c>
       <c r="FI3" t="n">
-        <v>444.4933166503906</v>
+        <v>304.4391174316406</v>
       </c>
       <c r="FJ3" t="n">
-        <v>465.924072265625</v>
+        <v>304.6275024414062</v>
       </c>
       <c r="FK3" t="n">
-        <v>479.5530395507812</v>
+        <v>304.4567565917969</v>
       </c>
       <c r="FL3" t="n">
-        <v>495.2698059082031</v>
+        <v>304.1343383789062</v>
       </c>
       <c r="FM3" t="n">
-        <v>501.7148742675781</v>
+        <v>304.1392211914062</v>
       </c>
       <c r="FN3" t="n">
-        <v>515.0308227539062</v>
+        <v>304.0775146484375</v>
       </c>
       <c r="FO3" t="n">
-        <v>537.8018798828125</v>
+        <v>304.1050720214844</v>
       </c>
       <c r="FP3" t="n">
-        <v>422.903076171875</v>
+        <v>305.0201110839844</v>
       </c>
       <c r="FQ3" t="n">
-        <v>529.9802856445312</v>
+        <v>304.1781311035156</v>
       </c>
       <c r="FR3" t="n">
-        <v>536.6708984375</v>
+        <v>304.3531188964844</v>
       </c>
       <c r="FS3" t="n">
-        <v>534.325927734375</v>
+        <v>304.3515319824219</v>
       </c>
       <c r="FT3" t="n">
-        <v>527.4493408203125</v>
+        <v>304.1346130371094</v>
       </c>
       <c r="FU3" t="n">
-        <v>523.9849243164062</v>
+        <v>297.97607421875</v>
       </c>
       <c r="FV3" t="n">
-        <v>520.3633422851562</v>
+        <v>300.8408203125</v>
       </c>
       <c r="FW3" t="n">
-        <v>518.966552734375</v>
+        <v>286.5528869628906</v>
       </c>
       <c r="FX3" t="n">
-        <v>518.9640502929688</v>
+        <v>290.1246337890625</v>
       </c>
       <c r="FY3" t="n">
-        <v>518.49072265625</v>
+        <v>293.6841735839844</v>
       </c>
       <c r="FZ3" t="n">
-        <v>515.7666015625</v>
+        <v>294.4942932128906</v>
       </c>
       <c r="GA3" t="n">
-        <v>511.1272888183594</v>
+        <v>297.529541015625</v>
       </c>
       <c r="GB3" t="n">
-        <v>509.9521179199219</v>
+        <v>298.3594055175781</v>
       </c>
       <c r="GC3" t="n">
-        <v>511.1410827636719</v>
+        <v>300.2018127441406</v>
       </c>
       <c r="GD3" t="n">
-        <v>511.7453308105469</v>
+        <v>300.7794799804688</v>
       </c>
       <c r="GE3" t="n">
-        <v>517.9974975585938</v>
+        <v>301.3390808105469</v>
       </c>
       <c r="GF3" t="n">
-        <v>535.0975341796875</v>
+        <v>300.5231323242188</v>
       </c>
       <c r="GG3" t="n">
-        <v>532.7759399414062</v>
+        <v>300.5615234375</v>
       </c>
       <c r="GH3" t="n">
-        <v>522.3855590820312</v>
+        <v>300.6624145507812</v>
       </c>
       <c r="GI3" t="n">
-        <v>529.0505981445312</v>
+        <v>299.404052734375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>538.6014404296875</v>
+        <v>296.0291137695312</v>
       </c>
       <c r="GK3" t="n">
-        <v>558.5570068359375</v>
+        <v>289.2229309082031</v>
       </c>
       <c r="GL3" t="n">
-        <v>571.499267578125</v>
+        <v>284.8792114257812</v>
       </c>
       <c r="GM3" t="n">
-        <v>563.8363037109375</v>
+        <v>297.8057861328125</v>
       </c>
       <c r="GN3" t="n">
-        <v>559.3526000976562</v>
+        <v>316.2966918945312</v>
       </c>
       <c r="GO3" t="n">
-        <v>556.9525756835938</v>
+        <v>309.0285034179688</v>
       </c>
       <c r="GP3" t="n">
-        <v>556.5778198242188</v>
+        <v>304.3153991699219</v>
       </c>
       <c r="GQ3" t="n">
-        <v>557.6067504882812</v>
+        <v>307.1419067382812</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>304.7900085449219</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>304.5758666992188</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>304.9472961425781</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>304.7459106445312</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>304.9032287597656</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>304.7955017089844</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>305.1335144042969</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>305.7886352539062</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>307.1366271972656</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>305.9119567871094</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>308.6522521972656</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>302.5910949707031</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>284.3522644042969</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>284.43359375</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>285.0897827148438</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>292.3826599121094</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>296.2968139648438</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>299.8357849121094</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>299.7212219238281</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>299.4990234375</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>299.3931274414062</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>299.46142578125</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>299.2852783203125</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>298.0830688476562</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>295.8097534179688</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>291.9062805175781</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>287.3644104003906</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>294.5179443359375</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>308.4782104492188</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>307.082763671875</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>306.4032592773438</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>304.7342834472656</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>304.121826171875</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>304.0612487792969</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>304.7706298828125</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>304.6633605957031</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>304.7249145507812</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>304.7234497070312</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>304.7572937011719</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>305.0331115722656</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>305.6461486816406</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>306.6044616699219</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>305.55078125</v>
+      </c>
+      <c r="II3" t="n">
+        <v>307.0278625488281</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>306.11279296875</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>293.4407653808594</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>290.2568664550781</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>293.1414489746094</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>294.14794921875</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>296.5034790039062</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>297.2035827636719</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>297.7389526367188</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>297.5392761230469</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>297.3935852050781</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>297.349609375</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>297.0823059082031</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>297.042236328125</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>284.1903381347656</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>289.0358581542969</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>301.7771606445312</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>299.233642578125</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>298.0103454589844</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>299.7866516113281</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>302.7750244140625</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>304.7352905273438</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>304.2972412109375</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>303.7745056152344</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>303.7996520996094</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>302.7611389160156</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>299.4864196777344</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>299.400634765625</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>302.0975036621094</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>303.1388244628906</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>303.7902221679688</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>310.5247802734375</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>293.1333618164062</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>294.4660034179688</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>287.9215087890625</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>298.7373352050781</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>297.5703125</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>302.00927734375</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>301.2345275878906</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>300.9241027832031</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>301.1123962402344</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>301.4865417480469</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>301.6895446777344</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>300.8216552734375</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>303.1399536132812</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>307.1299743652344</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>313.5967102050781</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>351.271728515625</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>355.9625854492188</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>366.9014282226562</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>375.3693237304688</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>376.1639099121094</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>374.4939270019531</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>373.1703796386719</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>378.36376953125</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>385.4713134765625</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>393.4348754882812</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>393.7813720703125</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>386.1529235839844</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>378.4136657714844</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>367.9828186035156</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>365.9282531738281</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>358.3073120117188</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>359.8250732421875</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>370.2153015136719</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>382.4610900878906</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>393.728759765625</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>401.7619018554688</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>408.3260192871094</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>417.9696655273438</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>460.0599670410156</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>470.3405456542969</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>471.5133056640625</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>475.111083984375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1134.355224609375</v>
+        <v>424.629638671875</v>
       </c>
       <c r="B4" t="n">
-        <v>1167.64697265625</v>
+        <v>439.0185546875</v>
       </c>
       <c r="C4" t="n">
-        <v>1199.615356445312</v>
+        <v>462.4111022949219</v>
       </c>
       <c r="D4" t="n">
-        <v>1212.787109375</v>
+        <v>496.1530151367188</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.831787109375</v>
+        <v>540.0595092773438</v>
       </c>
       <c r="F4" t="n">
-        <v>1224.834838867188</v>
+        <v>590.7767944335938</v>
       </c>
       <c r="G4" t="n">
-        <v>1242.286743164062</v>
+        <v>644.8246459960938</v>
       </c>
       <c r="H4" t="n">
-        <v>1263.833740234375</v>
+        <v>699.9502563476562</v>
       </c>
       <c r="I4" t="n">
-        <v>1290.719482421875</v>
+        <v>762.0928344726562</v>
       </c>
       <c r="J4" t="n">
-        <v>1362.04052734375</v>
+        <v>833.8143920898438</v>
       </c>
       <c r="K4" t="n">
-        <v>1458.924682617188</v>
+        <v>905.8060302734375</v>
       </c>
       <c r="L4" t="n">
-        <v>1508.876831054688</v>
+        <v>979.644287109375</v>
       </c>
       <c r="M4" t="n">
-        <v>1326.053466796875</v>
+        <v>1053.35302734375</v>
       </c>
       <c r="N4" t="n">
-        <v>1432.119262695312</v>
+        <v>1120.964477539062</v>
       </c>
       <c r="O4" t="n">
-        <v>1421.71142578125</v>
+        <v>1184.281982421875</v>
       </c>
       <c r="P4" t="n">
-        <v>1416.606079101562</v>
+        <v>1252.193481445312</v>
       </c>
       <c r="Q4" t="n">
-        <v>1426.035400390625</v>
+        <v>1315.63671875</v>
       </c>
       <c r="R4" t="n">
-        <v>1439.989990234375</v>
+        <v>1381.17138671875</v>
       </c>
       <c r="S4" t="n">
-        <v>1462.708129882812</v>
+        <v>1430.85205078125</v>
       </c>
       <c r="T4" t="n">
-        <v>1464.538940429688</v>
+        <v>1467.977294921875</v>
       </c>
       <c r="U4" t="n">
-        <v>1464.87451171875</v>
+        <v>1509.757080078125</v>
       </c>
       <c r="V4" t="n">
-        <v>1462.947143554688</v>
+        <v>1536.150512695312</v>
       </c>
       <c r="W4" t="n">
-        <v>1462.71923828125</v>
+        <v>1547.547973632812</v>
       </c>
       <c r="X4" t="n">
-        <v>1465.6171875</v>
+        <v>1555.376586914062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1471.40234375</v>
+        <v>1555.203857421875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1472.904174804688</v>
+        <v>1559.293090820312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1474.556030273438</v>
+        <v>1582.309814453125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1473.666625976562</v>
+        <v>1605.092041015625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1471.15625</v>
+        <v>1622.071044921875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1381.005004882812</v>
+        <v>1643.591552734375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1359.6923828125</v>
+        <v>1656.002563476562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1339.989990234375</v>
+        <v>1665.884643554688</v>
       </c>
       <c r="AG4" t="n">
-        <v>1322.760986328125</v>
+        <v>1681.19287109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1304.947998046875</v>
+        <v>1692.608642578125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1290.28076171875</v>
+        <v>1711.472412109375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1276.985107421875</v>
+        <v>1723.885375976562</v>
       </c>
       <c r="AK4" t="n">
-        <v>1268.859497070312</v>
+        <v>1735.367065429688</v>
       </c>
       <c r="AL4" t="n">
-        <v>1260.537475585938</v>
+        <v>1747.886474609375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1254.666137695312</v>
+        <v>1764.73779296875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1248.646484375</v>
+        <v>1773.176147460938</v>
       </c>
       <c r="AO4" t="n">
-        <v>1248.66064453125</v>
+        <v>1794.388549804688</v>
       </c>
       <c r="AP4" t="n">
-        <v>1250.923828125</v>
+        <v>1816.170654296875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1248.042358398438</v>
+        <v>1820.732421875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1245.011596679688</v>
+        <v>1823.397216796875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1246.301147460938</v>
+        <v>1825.643310546875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1247.012817382812</v>
+        <v>1831.510986328125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1245.9970703125</v>
+        <v>1835.346435546875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1246.556518554688</v>
+        <v>1837.3388671875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1247.289916992188</v>
+        <v>1839.808837890625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1248.518432617188</v>
+        <v>1838.043701171875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1244.831665039062</v>
+        <v>1836.64306640625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1243.533203125</v>
+        <v>1837.204956054688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1244.64892578125</v>
+        <v>1841.830200195312</v>
       </c>
       <c r="BB4" t="n">
-        <v>1253.216918945312</v>
+        <v>1851.218627929688</v>
       </c>
       <c r="BC4" t="n">
-        <v>1256.143676757812</v>
+        <v>1853.117797851562</v>
       </c>
       <c r="BD4" t="n">
-        <v>1259.150512695312</v>
+        <v>1856.652465820312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1258.591430664062</v>
+        <v>1861.923828125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1260.601684570312</v>
+        <v>1867.115844726562</v>
       </c>
       <c r="BG4" t="n">
-        <v>1266.273559570312</v>
+        <v>1880.560668945312</v>
       </c>
       <c r="BH4" t="n">
-        <v>1269.654663085938</v>
+        <v>1877.970336914062</v>
       </c>
       <c r="BI4" t="n">
-        <v>1274.979858398438</v>
+        <v>1863.130493164062</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1278.581176757812</v>
+        <v>1843.135864257812</v>
       </c>
       <c r="BK4" t="n">
-        <v>1277.45947265625</v>
+        <v>1825.911254882812</v>
       </c>
       <c r="BL4" t="n">
-        <v>1283.588012695312</v>
+        <v>1819.845458984375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1286.266235351562</v>
+        <v>1822.008178710938</v>
       </c>
       <c r="BN4" t="n">
-        <v>1288.582763671875</v>
+        <v>1840.365844726562</v>
       </c>
       <c r="BO4" t="n">
-        <v>1288.713623046875</v>
+        <v>1852.16357421875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1284.163208007812</v>
+        <v>1858.357421875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1278.475952148438</v>
+        <v>1871.473510742188</v>
       </c>
       <c r="BR4" t="n">
-        <v>1281.449829101562</v>
+        <v>1895.253540039062</v>
       </c>
       <c r="BS4" t="n">
-        <v>1280.184692382812</v>
+        <v>1904.028198242188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1278.181640625</v>
+        <v>1912.800537109375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1276.810791015625</v>
+        <v>1930.532348632812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1275.396240234375</v>
+        <v>1941.0966796875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1272.578002929688</v>
+        <v>1951.733520507812</v>
       </c>
       <c r="BX4" t="n">
-        <v>1268.417724609375</v>
+        <v>1959.333862304688</v>
       </c>
       <c r="BY4" t="n">
-        <v>1261.022583007812</v>
+        <v>1954.472778320312</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1247.332885742188</v>
+        <v>1951.813354492188</v>
       </c>
       <c r="CA4" t="n">
-        <v>1235.235229492188</v>
+        <v>1944.61865234375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1226.661743164062</v>
+        <v>1940.571044921875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1208.833129882812</v>
+        <v>1916.318969726562</v>
       </c>
       <c r="CD4" t="n">
-        <v>1191.75146484375</v>
+        <v>1918.335815429688</v>
       </c>
       <c r="CE4" t="n">
-        <v>1178.931396484375</v>
+        <v>1906.338500976562</v>
       </c>
       <c r="CF4" t="n">
-        <v>1163.321899414062</v>
+        <v>1893.674438476562</v>
       </c>
       <c r="CG4" t="n">
-        <v>1142.700561523438</v>
+        <v>1882.31591796875</v>
       </c>
       <c r="CH4" t="n">
-        <v>1131.213500976562</v>
+        <v>1871.219482421875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1128.307739257812</v>
+        <v>1863.017944335938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1128.208618164062</v>
+        <v>1847.80712890625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1128.419799804688</v>
+        <v>1837.006103515625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1133.221923828125</v>
+        <v>1831.582641601562</v>
       </c>
       <c r="CM4" t="n">
-        <v>1138.373657226562</v>
+        <v>1827.364135742188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1138.816162109375</v>
+        <v>1821.528076171875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1133.056518554688</v>
+        <v>1814.273193359375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1115.712768554688</v>
+        <v>1811.421875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1095.837768554688</v>
+        <v>1792.502563476562</v>
       </c>
       <c r="CR4" t="n">
-        <v>1059.284545898438</v>
+        <v>1810.1669921875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1056.436889648438</v>
+        <v>1827.161865234375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1067.69287109375</v>
+        <v>1843.983642578125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1078.423828125</v>
+        <v>1851.972534179688</v>
       </c>
       <c r="CV4" t="n">
-        <v>1090.89892578125</v>
+        <v>1855.128540039062</v>
       </c>
       <c r="CW4" t="n">
-        <v>1112.91552734375</v>
+        <v>1855.078125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1130.658325195312</v>
+        <v>1858.239624023438</v>
       </c>
       <c r="CY4" t="n">
-        <v>1146.728515625</v>
+        <v>1874.003540039062</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1167.7607421875</v>
+        <v>1876.94921875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1185.355834960938</v>
+        <v>1878.243408203125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1201.276977539062</v>
+        <v>1870.594848632812</v>
       </c>
       <c r="DC4" t="n">
-        <v>1212.285400390625</v>
+        <v>1867.787109375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1217.431884765625</v>
+        <v>1867.18212890625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1217.280517578125</v>
+        <v>1865.66650390625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1215.504150390625</v>
+        <v>1864.05615234375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1211.706298828125</v>
+        <v>1862.770385742188</v>
       </c>
       <c r="DH4" t="n">
-        <v>1206.6845703125</v>
+        <v>1859.718505859375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1197.507568359375</v>
+        <v>1847.920043945312</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1184.673950195312</v>
+        <v>1836.079345703125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1172.684326171875</v>
+        <v>1801.362182617188</v>
       </c>
       <c r="DL4" t="n">
-        <v>1160.765380859375</v>
+        <v>1801.365478515625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1154.50634765625</v>
+        <v>1806.123657226562</v>
       </c>
       <c r="DN4" t="n">
-        <v>1151.306030273438</v>
+        <v>1825.326782226562</v>
       </c>
       <c r="DO4" t="n">
-        <v>1150.343017578125</v>
+        <v>1835.578125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1148.62158203125</v>
+        <v>1845.206909179688</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1146.77294921875</v>
+        <v>1851.149169921875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1146.763305664062</v>
+        <v>1854.918823242188</v>
       </c>
       <c r="DS4" t="n">
-        <v>1152.594970703125</v>
+        <v>1863.106201171875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1162.068603515625</v>
+        <v>1874.719360351562</v>
       </c>
       <c r="DU4" t="n">
-        <v>1173.021728515625</v>
+        <v>1876.7001953125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1190.25927734375</v>
+        <v>1873.619873046875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1193.987670898438</v>
+        <v>1873.313720703125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1195.932861328125</v>
+        <v>1873.505126953125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1194.4169921875</v>
+        <v>1872.72802734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1181.64697265625</v>
+        <v>1871.08544921875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1167.84619140625</v>
+        <v>1859.525146484375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1151.820434570312</v>
+        <v>1847.68798828125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1146.109985351562</v>
+        <v>1841.025390625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1146.775512695312</v>
+        <v>1831.112915039062</v>
       </c>
       <c r="EE4" t="n">
-        <v>1148.263916015625</v>
+        <v>1827.754516601562</v>
       </c>
       <c r="EF4" t="n">
-        <v>1150.356567382812</v>
+        <v>1822.397094726562</v>
       </c>
       <c r="EG4" t="n">
-        <v>1157.46533203125</v>
+        <v>1816.719482421875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1162.862915039062</v>
+        <v>1820.039794921875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1164.488037109375</v>
+        <v>1797.099487304688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1156.769409179688</v>
+        <v>1786.272705078125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1162.40771484375</v>
+        <v>1803.010620117188</v>
       </c>
       <c r="EL4" t="n">
-        <v>1161.71826171875</v>
+        <v>1793.28271484375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1155.015380859375</v>
+        <v>1827.669067382812</v>
       </c>
       <c r="EN4" t="n">
-        <v>1151.82470703125</v>
+        <v>1824.812744140625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1118.9755859375</v>
+        <v>1849.6572265625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1099.3076171875</v>
+        <v>1855.857177734375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1061.7392578125</v>
+        <v>1853.83837890625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1047.44873046875</v>
+        <v>1871.9951171875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1030.023071289062</v>
+        <v>1873.15576171875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1019.081970214844</v>
+        <v>1870.26513671875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1008.677856445312</v>
+        <v>1867.8486328125</v>
       </c>
       <c r="EV4" t="n">
-        <v>982.4834594726562</v>
+        <v>1865.950439453125</v>
       </c>
       <c r="EW4" t="n">
-        <v>963.1442260742188</v>
+        <v>1853.322143554688</v>
       </c>
       <c r="EX4" t="n">
-        <v>959.648193359375</v>
+        <v>1825.8466796875</v>
       </c>
       <c r="EY4" t="n">
-        <v>947.6914672851562</v>
+        <v>1815.049682617188</v>
       </c>
       <c r="EZ4" t="n">
-        <v>940.9171752929688</v>
+        <v>1799.43896484375</v>
       </c>
       <c r="FA4" t="n">
-        <v>937.6199340820312</v>
+        <v>1792.148681640625</v>
       </c>
       <c r="FB4" t="n">
-        <v>932.0667114257812</v>
+        <v>1796.463989257812</v>
       </c>
       <c r="FC4" t="n">
-        <v>915.5862426757812</v>
+        <v>1817.263305664062</v>
       </c>
       <c r="FD4" t="n">
-        <v>898.240966796875</v>
+        <v>1834.756469726562</v>
       </c>
       <c r="FE4" t="n">
-        <v>885.68408203125</v>
+        <v>1843.222778320312</v>
       </c>
       <c r="FF4" t="n">
-        <v>881.724609375</v>
+        <v>1848.7958984375</v>
       </c>
       <c r="FG4" t="n">
-        <v>882.8648681640625</v>
+        <v>1860.729370117188</v>
       </c>
       <c r="FH4" t="n">
-        <v>878.5384521484375</v>
+        <v>1865.317993164062</v>
       </c>
       <c r="FI4" t="n">
-        <v>876.009521484375</v>
+        <v>1868.303588867188</v>
       </c>
       <c r="FJ4" t="n">
-        <v>873.0606079101562</v>
+        <v>1866.906005859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>867.6690063476562</v>
+        <v>1866.802368164062</v>
       </c>
       <c r="FL4" t="n">
-        <v>869.1632080078125</v>
+        <v>1866.112182617188</v>
       </c>
       <c r="FM4" t="n">
-        <v>869.6226196289062</v>
+        <v>1865.063232421875</v>
       </c>
       <c r="FN4" t="n">
-        <v>859.8426513671875</v>
+        <v>1858.566528320312</v>
       </c>
       <c r="FO4" t="n">
-        <v>835.9398193359375</v>
+        <v>1853.358276367188</v>
       </c>
       <c r="FP4" t="n">
-        <v>442.4067993164062</v>
+        <v>1833.689208984375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>626.40625</v>
+        <v>1830.989013671875</v>
       </c>
       <c r="FR4" t="n">
-        <v>915.0899047851562</v>
+        <v>1828.012817382812</v>
       </c>
       <c r="FS4" t="n">
-        <v>907.2576293945312</v>
+        <v>1825.213745117188</v>
       </c>
       <c r="FT4" t="n">
-        <v>906.3604125976562</v>
+        <v>1812.505493164062</v>
       </c>
       <c r="FU4" t="n">
-        <v>715.39990234375</v>
+        <v>1775.815551757812</v>
       </c>
       <c r="FV4" t="n">
-        <v>710.9335327148438</v>
+        <v>1772.387939453125</v>
       </c>
       <c r="FW4" t="n">
-        <v>708.0623168945312</v>
+        <v>1801.926391601562</v>
       </c>
       <c r="FX4" t="n">
-        <v>705.969482421875</v>
+        <v>1811.612060546875</v>
       </c>
       <c r="FY4" t="n">
-        <v>704.0938720703125</v>
+        <v>1832.271118164062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>703.7488403320312</v>
+        <v>1842.132934570312</v>
       </c>
       <c r="GA4" t="n">
-        <v>709.715087890625</v>
+        <v>1852.699096679688</v>
       </c>
       <c r="GB4" t="n">
-        <v>715.58056640625</v>
+        <v>1858.522705078125</v>
       </c>
       <c r="GC4" t="n">
-        <v>709.1573486328125</v>
+        <v>1865.744140625</v>
       </c>
       <c r="GD4" t="n">
-        <v>707.1220092773438</v>
+        <v>1867.324951171875</v>
       </c>
       <c r="GE4" t="n">
-        <v>695.721435546875</v>
+        <v>1866.383056640625</v>
       </c>
       <c r="GF4" t="n">
-        <v>669.7750854492188</v>
+        <v>1863.130981445312</v>
       </c>
       <c r="GG4" t="n">
-        <v>641.96435546875</v>
+        <v>1864.171020507812</v>
       </c>
       <c r="GH4" t="n">
-        <v>879.525390625</v>
+        <v>1865.628784179688</v>
       </c>
       <c r="GI4" t="n">
-        <v>867.1778564453125</v>
+        <v>1859.27783203125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>861.1141357421875</v>
+        <v>1827.212890625</v>
       </c>
       <c r="GK4" t="n">
-        <v>852.077880859375</v>
+        <v>1784.321533203125</v>
       </c>
       <c r="GL4" t="n">
-        <v>825.5328979492188</v>
+        <v>1785.597778320312</v>
       </c>
       <c r="GM4" t="n">
-        <v>838.7572631835938</v>
+        <v>1796.185791015625</v>
       </c>
       <c r="GN4" t="n">
-        <v>831.3522338867188</v>
+        <v>1800.681640625</v>
       </c>
       <c r="GO4" t="n">
-        <v>830.56689453125</v>
+        <v>1829.8095703125</v>
       </c>
       <c r="GP4" t="n">
-        <v>794.6765747070312</v>
+        <v>1851.197143554688</v>
       </c>
       <c r="GQ4" t="n">
-        <v>784.9254150390625</v>
+        <v>1860.646240234375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1874.405639648438</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1885.741455078125</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1888.144897460938</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1885.49169921875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1880.837158203125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1879.97607421875</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1867.510131835938</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1842.381591796875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1820.40625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1813.524536132812</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1804.527587890625</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1772.661010742188</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1778.802978515625</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1804.92529296875</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1808.023193359375</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1796.113891601562</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1834.874755859375</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1862.38818359375</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1859.198364257812</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1855.061279296875</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1852.227172851562</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1852.258544921875</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1850.734252929688</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1846.26708984375</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1828.752563476562</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1809.471069335938</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1788.355834960938</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1775.192138671875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1795.011962890625</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1828.132934570312</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1840.1337890625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1858.261596679688</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1869.361938476562</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1882.758911132812</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1885.133178710938</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1883.10302734375</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1883.777954101562</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1882.357055664062</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1875.9853515625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1861.546020507812</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1844.674438476562</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1828.142822265625</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1813.738525390625</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1812.0283203125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1804.58837890625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1775.583251953125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1778.031005859375</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1803.172119140625</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1816.676391601562</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1831.380249023438</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1834.099731445312</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1836.277099609375</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1845.632202148438</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1853.785400390625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1851.72021484375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1843.242309570312</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1810.767333984375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1796.765747070312</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1785.921997070312</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1816.8134765625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1837.040893554688</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1859.421508789062</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1874.430908203125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1880.1513671875</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1889.380249023438</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1888.035400390625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1883.29931640625</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1877.542846679688</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1862.96533203125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1855.58935546875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1835.18798828125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1820.891845703125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1808.145751953125</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1803.255859375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1790.312622070312</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1778.33544921875</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1757.251342773438</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1781.864990234375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1788.283935546875</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1811.677978515625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1852.472045898438</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1848.128051757812</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1845.77880859375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1846.035766601562</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1843.708862304688</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1838.37548828125</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1821.629272460938</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1814.455444335938</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1793.484375</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1791.650512695312</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1747.197387695312</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1748.040283203125</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1764.650024414062</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1827.05126953125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1862.178466796875</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1882.365112304688</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1864.138793945312</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1822.575439453125</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1684.245361328125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1598.29443359375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1500.73876953125</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1366.94970703125</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1277.034790039062</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1202.6572265625</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1135.8662109375</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1069.154907226562</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1014.347778320312</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>907.0572509765625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>818.9403686523438</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>742.104248046875</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>636.943359375</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>572.7510986328125</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>521.8229370117188</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>478.0589904785156</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>449.2503356933594</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>434.838623046875</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>425.5518798828125</v>
       </c>
     </row>
   </sheetData>

--- a/right_wrist_Data.xlsx
+++ b/right_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>276.5822448730469</v>
+        <v>167.8570861816406</v>
       </c>
       <c r="B2" t="n">
-        <v>283.819580078125</v>
+        <v>171.8821716308594</v>
       </c>
       <c r="C2" t="n">
-        <v>281.0329895019531</v>
+        <v>176.0980224609375</v>
       </c>
       <c r="D2" t="n">
-        <v>271.2926025390625</v>
+        <v>179.2294616699219</v>
       </c>
       <c r="E2" t="n">
-        <v>262.6807250976562</v>
+        <v>180.4512634277344</v>
       </c>
       <c r="F2" t="n">
-        <v>250.7015380859375</v>
+        <v>179.3567810058594</v>
       </c>
       <c r="G2" t="n">
-        <v>240.3191986083984</v>
+        <v>184.6951446533203</v>
       </c>
       <c r="H2" t="n">
-        <v>239.0020446777344</v>
+        <v>187.6802368164062</v>
       </c>
       <c r="I2" t="n">
-        <v>239.5108795166016</v>
+        <v>187.8085174560547</v>
       </c>
       <c r="J2" t="n">
-        <v>239.6107788085938</v>
+        <v>183.46484375</v>
       </c>
       <c r="K2" t="n">
-        <v>237.9427185058594</v>
+        <v>180.1353149414062</v>
       </c>
       <c r="L2" t="n">
-        <v>241.3302917480469</v>
+        <v>180.4478759765625</v>
       </c>
       <c r="M2" t="n">
-        <v>244.5495300292969</v>
+        <v>181.6505432128906</v>
       </c>
       <c r="N2" t="n">
-        <v>244.5989685058594</v>
+        <v>183.2962799072266</v>
       </c>
       <c r="O2" t="n">
-        <v>245.8675537109375</v>
+        <v>187.390380859375</v>
       </c>
       <c r="P2" t="n">
-        <v>246.0273590087891</v>
+        <v>190.67626953125</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.5865173339844</v>
+        <v>193.5930633544922</v>
       </c>
       <c r="R2" t="n">
-        <v>247.7156372070312</v>
+        <v>196.8699645996094</v>
       </c>
       <c r="S2" t="n">
-        <v>248.652099609375</v>
+        <v>200.0802764892578</v>
       </c>
       <c r="T2" t="n">
-        <v>250.2275390625</v>
+        <v>203.3843994140625</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1133117675781</v>
+        <v>206.8322448730469</v>
       </c>
       <c r="V2" t="n">
-        <v>251.5791168212891</v>
+        <v>209.3072357177734</v>
       </c>
       <c r="W2" t="n">
-        <v>252.0622863769531</v>
+        <v>211.7055358886719</v>
       </c>
       <c r="X2" t="n">
-        <v>252.9784545898438</v>
+        <v>215.3320617675781</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.7545471191406</v>
+        <v>224.3389587402344</v>
       </c>
       <c r="Z2" t="n">
-        <v>254.8752136230469</v>
+        <v>232.1524810791016</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.061767578125</v>
+        <v>237.0438232421875</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.5583190917969</v>
+        <v>242.1747741699219</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.9322814941406</v>
+        <v>247.4621276855469</v>
       </c>
       <c r="AD2" t="n">
-        <v>260.6318664550781</v>
+        <v>252.4949493408203</v>
       </c>
       <c r="AE2" t="n">
-        <v>261.1223449707031</v>
+        <v>252.982421875</v>
       </c>
       <c r="AF2" t="n">
-        <v>261.9027099609375</v>
+        <v>255.0081176757812</v>
       </c>
       <c r="AG2" t="n">
-        <v>263.3612670898438</v>
+        <v>255.9019775390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>265.4601135253906</v>
+        <v>257.5547485351562</v>
       </c>
       <c r="AI2" t="n">
-        <v>269.5923461914062</v>
+        <v>258.1103515625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>272.9929809570312</v>
+        <v>258.6764526367188</v>
       </c>
       <c r="AK2" t="n">
-        <v>279.1739501953125</v>
+        <v>259.2506103515625</v>
       </c>
       <c r="AL2" t="n">
-        <v>283.7977905273438</v>
+        <v>259.8660583496094</v>
       </c>
       <c r="AM2" t="n">
-        <v>287.6109313964844</v>
+        <v>260.1161499023438</v>
       </c>
       <c r="AN2" t="n">
-        <v>293.9667358398438</v>
+        <v>259.9053039550781</v>
       </c>
       <c r="AO2" t="n">
-        <v>299.4493103027344</v>
+        <v>259.4934997558594</v>
       </c>
       <c r="AP2" t="n">
-        <v>303.63525390625</v>
+        <v>258.5596008300781</v>
       </c>
       <c r="AQ2" t="n">
-        <v>304.8040161132812</v>
+        <v>256.3481140136719</v>
       </c>
       <c r="AR2" t="n">
-        <v>306.7994079589844</v>
+        <v>255.22216796875</v>
       </c>
       <c r="AS2" t="n">
-        <v>309.7752075195312</v>
+        <v>254.7226257324219</v>
       </c>
       <c r="AT2" t="n">
-        <v>311.068603515625</v>
+        <v>254.3081665039062</v>
       </c>
       <c r="AU2" t="n">
-        <v>312.398681640625</v>
+        <v>254.8215484619141</v>
       </c>
       <c r="AV2" t="n">
-        <v>312.3631286621094</v>
+        <v>255.3076019287109</v>
       </c>
       <c r="AW2" t="n">
-        <v>312.8830261230469</v>
+        <v>255.6918334960938</v>
       </c>
       <c r="AX2" t="n">
-        <v>313.5662231445312</v>
+        <v>255.8370971679688</v>
       </c>
       <c r="AY2" t="n">
-        <v>314.0815124511719</v>
+        <v>255.5690155029297</v>
       </c>
       <c r="AZ2" t="n">
-        <v>313.95751953125</v>
+        <v>255.7884216308594</v>
       </c>
       <c r="BA2" t="n">
-        <v>313.2684020996094</v>
+        <v>256.0997314453125</v>
       </c>
       <c r="BB2" t="n">
-        <v>311.8811340332031</v>
+        <v>256.6324462890625</v>
       </c>
       <c r="BC2" t="n">
-        <v>311.6208801269531</v>
+        <v>257.0952453613281</v>
       </c>
       <c r="BD2" t="n">
-        <v>311.1743469238281</v>
+        <v>258.3294067382812</v>
       </c>
       <c r="BE2" t="n">
-        <v>310.96142578125</v>
+        <v>261.7734375</v>
       </c>
       <c r="BF2" t="n">
-        <v>312.2272644042969</v>
+        <v>265.5802612304688</v>
       </c>
       <c r="BG2" t="n">
-        <v>314.279296875</v>
+        <v>268.6831665039062</v>
       </c>
       <c r="BH2" t="n">
-        <v>313.3306274414062</v>
+        <v>267.8863220214844</v>
       </c>
       <c r="BI2" t="n">
-        <v>307.8755493164062</v>
+        <v>266.8236389160156</v>
       </c>
       <c r="BJ2" t="n">
-        <v>298.2332153320312</v>
+        <v>269.7265930175781</v>
       </c>
       <c r="BK2" t="n">
-        <v>288.0879516601562</v>
+        <v>275.4566345214844</v>
       </c>
       <c r="BL2" t="n">
-        <v>279.3193664550781</v>
+        <v>280.9664611816406</v>
       </c>
       <c r="BM2" t="n">
-        <v>271.0424499511719</v>
+        <v>283.7236938476562</v>
       </c>
       <c r="BN2" t="n">
-        <v>261.22314453125</v>
+        <v>282.2453308105469</v>
       </c>
       <c r="BO2" t="n">
-        <v>253.7506408691406</v>
+        <v>280.5313720703125</v>
       </c>
       <c r="BP2" t="n">
-        <v>252.1589660644531</v>
+        <v>279.935791015625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>247.3124084472656</v>
+        <v>280.1449890136719</v>
       </c>
       <c r="BR2" t="n">
-        <v>239.3248291015625</v>
+        <v>281.1976623535156</v>
       </c>
       <c r="BS2" t="n">
-        <v>237.3920288085938</v>
+        <v>283.03857421875</v>
       </c>
       <c r="BT2" t="n">
-        <v>233.5498962402344</v>
+        <v>283.9044189453125</v>
       </c>
       <c r="BU2" t="n">
-        <v>229.5726623535156</v>
+        <v>285.2835083007812</v>
       </c>
       <c r="BV2" t="n">
-        <v>228.3845367431641</v>
+        <v>290.1571960449219</v>
       </c>
       <c r="BW2" t="n">
-        <v>227.4284362792969</v>
+        <v>294.6578674316406</v>
       </c>
       <c r="BX2" t="n">
-        <v>227.0196533203125</v>
+        <v>294.7266540527344</v>
       </c>
       <c r="BY2" t="n">
-        <v>226.7350158691406</v>
+        <v>294.8939819335938</v>
       </c>
       <c r="BZ2" t="n">
-        <v>226.6931304931641</v>
+        <v>295.0929565429688</v>
       </c>
       <c r="CA2" t="n">
-        <v>226.5877990722656</v>
+        <v>296.3814086914062</v>
       </c>
       <c r="CB2" t="n">
-        <v>226.5967407226562</v>
+        <v>299.6633911132812</v>
       </c>
       <c r="CC2" t="n">
-        <v>226.0010375976562</v>
+        <v>301.0747680664062</v>
       </c>
       <c r="CD2" t="n">
-        <v>229.4638366699219</v>
+        <v>300.4957885742188</v>
       </c>
       <c r="CE2" t="n">
-        <v>232.3226928710938</v>
+        <v>299.712158203125</v>
       </c>
       <c r="CF2" t="n">
-        <v>233.0540313720703</v>
+        <v>297.35009765625</v>
       </c>
       <c r="CG2" t="n">
-        <v>235.0519104003906</v>
+        <v>295.614990234375</v>
       </c>
       <c r="CH2" t="n">
-        <v>236.7388916015625</v>
+        <v>292.8600769042969</v>
       </c>
       <c r="CI2" t="n">
-        <v>240.3974609375</v>
+        <v>291.0299377441406</v>
       </c>
       <c r="CJ2" t="n">
-        <v>245.9374389648438</v>
+        <v>292.2399291992188</v>
       </c>
       <c r="CK2" t="n">
-        <v>249.5604705810547</v>
+        <v>291.6190795898438</v>
       </c>
       <c r="CL2" t="n">
-        <v>254.1422271728516</v>
+        <v>290.9812927246094</v>
       </c>
       <c r="CM2" t="n">
-        <v>259.2757873535156</v>
+        <v>291.1817932128906</v>
       </c>
       <c r="CN2" t="n">
-        <v>267.9661865234375</v>
+        <v>291.0200500488281</v>
       </c>
       <c r="CO2" t="n">
-        <v>275.2595520019531</v>
+        <v>290.883544921875</v>
       </c>
       <c r="CP2" t="n">
-        <v>282.9228515625</v>
+        <v>289.1109924316406</v>
       </c>
       <c r="CQ2" t="n">
-        <v>285.1920166015625</v>
+        <v>282.8466491699219</v>
       </c>
       <c r="CR2" t="n">
-        <v>292.3454284667969</v>
+        <v>283.1474304199219</v>
       </c>
       <c r="CS2" t="n">
-        <v>298.1357727050781</v>
+        <v>291.2827758789062</v>
       </c>
       <c r="CT2" t="n">
-        <v>301.3636779785156</v>
+        <v>283.1061401367188</v>
       </c>
       <c r="CU2" t="n">
-        <v>303.7272338867188</v>
+        <v>281.3270263671875</v>
       </c>
       <c r="CV2" t="n">
-        <v>304.9347534179688</v>
+        <v>281.0838623046875</v>
       </c>
       <c r="CW2" t="n">
-        <v>307.5079345703125</v>
+        <v>283.4555358886719</v>
       </c>
       <c r="CX2" t="n">
-        <v>310.06298828125</v>
+        <v>282.4017639160156</v>
       </c>
       <c r="CY2" t="n">
-        <v>315.1003723144531</v>
+        <v>282.9525756835938</v>
       </c>
       <c r="CZ2" t="n">
-        <v>315.5838012695312</v>
+        <v>283.4105834960938</v>
       </c>
       <c r="DA2" t="n">
-        <v>316.5730285644531</v>
+        <v>284.4808959960938</v>
       </c>
       <c r="DB2" t="n">
-        <v>316.1133728027344</v>
+        <v>290.0074462890625</v>
       </c>
       <c r="DC2" t="n">
-        <v>316.6078796386719</v>
+        <v>280.5286560058594</v>
       </c>
       <c r="DD2" t="n">
-        <v>317.2988586425781</v>
+        <v>261.3061828613281</v>
       </c>
       <c r="DE2" t="n">
-        <v>317.6695861816406</v>
+        <v>253.8560180664062</v>
       </c>
       <c r="DF2" t="n">
-        <v>318.0844116210938</v>
+        <v>249.677001953125</v>
       </c>
       <c r="DG2" t="n">
-        <v>318.3890991210938</v>
+        <v>271.4988098144531</v>
       </c>
       <c r="DH2" t="n">
-        <v>317.4736022949219</v>
+        <v>235.3594055175781</v>
       </c>
       <c r="DI2" t="n">
-        <v>312.852783203125</v>
+        <v>225.6863708496094</v>
       </c>
       <c r="DJ2" t="n">
-        <v>307.0838623046875</v>
+        <v>223.0546875</v>
       </c>
       <c r="DK2" t="n">
-        <v>293.9498596191406</v>
+        <v>216.3157348632812</v>
       </c>
       <c r="DL2" t="n">
-        <v>273.4485778808594</v>
+        <v>213.8537445068359</v>
       </c>
       <c r="DM2" t="n">
-        <v>264.1964721679688</v>
+        <v>212.0077819824219</v>
       </c>
       <c r="DN2" t="n">
-        <v>250.7715454101562</v>
+        <v>213.3518676757812</v>
       </c>
       <c r="DO2" t="n">
-        <v>246.4561462402344</v>
+        <v>213.3455200195312</v>
       </c>
       <c r="DP2" t="n">
-        <v>241.8208923339844</v>
+        <v>213.2973327636719</v>
       </c>
       <c r="DQ2" t="n">
-        <v>238.7405395507812</v>
+        <v>212.914306640625</v>
       </c>
       <c r="DR2" t="n">
-        <v>236.8025817871094</v>
+        <v>212.8894195556641</v>
       </c>
       <c r="DS2" t="n">
-        <v>233.4812164306641</v>
+        <v>213.1036071777344</v>
       </c>
       <c r="DT2" t="n">
-        <v>229.65185546875</v>
+        <v>213.2136535644531</v>
       </c>
       <c r="DU2" t="n">
-        <v>228.0291900634766</v>
+        <v>213.2816925048828</v>
       </c>
       <c r="DV2" t="n">
-        <v>227.2190856933594</v>
+        <v>214.0198364257812</v>
       </c>
       <c r="DW2" t="n">
-        <v>227.2387084960938</v>
+        <v>218.5357055664062</v>
       </c>
       <c r="DX2" t="n">
-        <v>227.2628784179688</v>
+        <v>221.5040435791016</v>
       </c>
       <c r="DY2" t="n">
-        <v>227.7610473632812</v>
+        <v>226.9230804443359</v>
       </c>
       <c r="DZ2" t="n">
-        <v>228.2578735351562</v>
+        <v>274.1116333007812</v>
       </c>
       <c r="EA2" t="n">
-        <v>231.1029357910156</v>
+        <v>267.2444458007812</v>
       </c>
       <c r="EB2" t="n">
-        <v>234.4160308837891</v>
+        <v>270.8731994628906</v>
       </c>
       <c r="EC2" t="n">
-        <v>236.5498504638672</v>
+        <v>272.6473693847656</v>
       </c>
       <c r="ED2" t="n">
-        <v>242.6568908691406</v>
+        <v>281.0293273925781</v>
       </c>
       <c r="EE2" t="n">
-        <v>246.3830261230469</v>
+        <v>266.4243469238281</v>
       </c>
       <c r="EF2" t="n">
-        <v>252.3779296875</v>
+        <v>259.5251770019531</v>
       </c>
       <c r="EG2" t="n">
-        <v>257.3939819335938</v>
+        <v>265.8115234375</v>
       </c>
       <c r="EH2" t="n">
-        <v>260.9242248535156</v>
+        <v>273.0198669433594</v>
       </c>
       <c r="EI2" t="n">
-        <v>266.7632446289062</v>
+        <v>264.7327880859375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>272.27001953125</v>
+        <v>258.6653137207031</v>
       </c>
       <c r="EK2" t="n">
-        <v>284.58740234375</v>
+        <v>263.4664611816406</v>
       </c>
       <c r="EL2" t="n">
-        <v>284.3280639648438</v>
+        <v>267.0680236816406</v>
       </c>
       <c r="EM2" t="n">
-        <v>295.1253051757812</v>
+        <v>265.5753784179688</v>
       </c>
       <c r="EN2" t="n">
-        <v>298.6018371582031</v>
+        <v>270.2568664550781</v>
       </c>
       <c r="EO2" t="n">
-        <v>302.0275268554688</v>
+        <v>232.1137390136719</v>
       </c>
       <c r="EP2" t="n">
-        <v>306.3982238769531</v>
+        <v>222.4254150390625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>306.4229736328125</v>
+        <v>217.4038391113281</v>
       </c>
       <c r="ER2" t="n">
-        <v>311.1125183105469</v>
+        <v>212.1661529541016</v>
       </c>
       <c r="ES2" t="n">
-        <v>311.5475158691406</v>
+        <v>212.1694183349609</v>
       </c>
       <c r="ET2" t="n">
-        <v>311.843505859375</v>
+        <v>210.8285827636719</v>
       </c>
       <c r="EU2" t="n">
-        <v>311.9690856933594</v>
+        <v>209.8919982910156</v>
       </c>
       <c r="EV2" t="n">
-        <v>311.6851501464844</v>
+        <v>210.6006774902344</v>
       </c>
       <c r="EW2" t="n">
-        <v>309.2828063964844</v>
+        <v>210.6795654296875</v>
       </c>
       <c r="EX2" t="n">
-        <v>297.5126342773438</v>
+        <v>210.8234252929688</v>
       </c>
       <c r="EY2" t="n">
-        <v>293.0492553710938</v>
+        <v>210.8764343261719</v>
       </c>
       <c r="EZ2" t="n">
-        <v>288.0263977050781</v>
+        <v>211.0772399902344</v>
       </c>
       <c r="FA2" t="n">
-        <v>273.1944274902344</v>
+        <v>211.4462432861328</v>
       </c>
       <c r="FB2" t="n">
-        <v>260.4910278320312</v>
+        <v>212.2597351074219</v>
       </c>
       <c r="FC2" t="n">
-        <v>250.5026550292969</v>
+        <v>214.0317993164062</v>
       </c>
       <c r="FD2" t="n">
-        <v>242.4364013671875</v>
+        <v>216.4377593994141</v>
       </c>
       <c r="FE2" t="n">
-        <v>241.0989685058594</v>
+        <v>223.3703308105469</v>
       </c>
       <c r="FF2" t="n">
-        <v>238.9765625</v>
+        <v>227.2407379150391</v>
       </c>
       <c r="FG2" t="n">
-        <v>236.3672637939453</v>
+        <v>229.7795867919922</v>
       </c>
       <c r="FH2" t="n">
-        <v>235.4933471679688</v>
+        <v>276.2464599609375</v>
       </c>
       <c r="FI2" t="n">
-        <v>233.5367431640625</v>
+        <v>276.2713012695312</v>
       </c>
       <c r="FJ2" t="n">
-        <v>233.7181396484375</v>
+        <v>276.2843627929688</v>
       </c>
       <c r="FK2" t="n">
-        <v>233.5271301269531</v>
+        <v>265.3158874511719</v>
       </c>
       <c r="FL2" t="n">
-        <v>233.6041564941406</v>
+        <v>265.38037109375</v>
       </c>
       <c r="FM2" t="n">
-        <v>233.498291015625</v>
+        <v>265.3301391601562</v>
       </c>
       <c r="FN2" t="n">
-        <v>233.4493713378906</v>
+        <v>264.9646911621094</v>
       </c>
       <c r="FO2" t="n">
-        <v>234.2008056640625</v>
+        <v>263.1650695800781</v>
       </c>
       <c r="FP2" t="n">
-        <v>240.0725708007812</v>
+        <v>267.6322021484375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>243.8327941894531</v>
+        <v>270.1041870117188</v>
       </c>
       <c r="FR2" t="n">
-        <v>249.660400390625</v>
+        <v>238.9216918945312</v>
       </c>
       <c r="FS2" t="n">
-        <v>252.4883728027344</v>
+        <v>222.5297241210938</v>
       </c>
       <c r="FT2" t="n">
-        <v>261.7594604492188</v>
+        <v>211.93798828125</v>
       </c>
       <c r="FU2" t="n">
-        <v>269.36083984375</v>
+        <v>209.3968811035156</v>
       </c>
       <c r="FV2" t="n">
-        <v>273.7068481445312</v>
+        <v>209.0737609863281</v>
       </c>
       <c r="FW2" t="n">
-        <v>286.5892944335938</v>
+        <v>208.8991546630859</v>
       </c>
       <c r="FX2" t="n">
-        <v>288.8991394042969</v>
+        <v>208.7815246582031</v>
       </c>
       <c r="FY2" t="n">
-        <v>296.8544006347656</v>
+        <v>208.7969055175781</v>
       </c>
       <c r="FZ2" t="n">
-        <v>299.3993835449219</v>
+        <v>208.9286956787109</v>
       </c>
       <c r="GA2" t="n">
-        <v>303.1339416503906</v>
+        <v>209.3160705566406</v>
       </c>
       <c r="GB2" t="n">
-        <v>306.7537231445312</v>
+        <v>209.5866241455078</v>
       </c>
       <c r="GC2" t="n">
-        <v>308.1984252929688</v>
+        <v>209.6180114746094</v>
       </c>
       <c r="GD2" t="n">
-        <v>308.4790954589844</v>
+        <v>209.9040222167969</v>
       </c>
       <c r="GE2" t="n">
-        <v>307.4887390136719</v>
+        <v>210.2478332519531</v>
       </c>
       <c r="GF2" t="n">
-        <v>306.0443115234375</v>
+        <v>213.5950927734375</v>
       </c>
       <c r="GG2" t="n">
-        <v>305.9556579589844</v>
+        <v>222.7751922607422</v>
       </c>
       <c r="GH2" t="n">
-        <v>306.2028198242188</v>
+        <v>234.2552490234375</v>
       </c>
       <c r="GI2" t="n">
-        <v>305.5174865722656</v>
+        <v>275.1412353515625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>294.4371948242188</v>
+        <v>275.0853576660156</v>
       </c>
       <c r="GK2" t="n">
-        <v>286.2690734863281</v>
+        <v>262.8108825683594</v>
       </c>
       <c r="GL2" t="n">
-        <v>280.7783508300781</v>
+        <v>262.7629699707031</v>
       </c>
       <c r="GM2" t="n">
-        <v>259.9049987792969</v>
+        <v>262.7442016601562</v>
       </c>
       <c r="GN2" t="n">
-        <v>253.5724182128906</v>
+        <v>262.8552856445312</v>
       </c>
       <c r="GO2" t="n">
-        <v>243.8262939453125</v>
+        <v>262.8562622070312</v>
       </c>
       <c r="GP2" t="n">
-        <v>238.2272644042969</v>
+        <v>262.8704833984375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>231.6200103759766</v>
+        <v>262.9859313964844</v>
       </c>
       <c r="GR2" t="n">
-        <v>229.4534606933594</v>
+        <v>263.047607421875</v>
       </c>
       <c r="GS2" t="n">
-        <v>227.4093933105469</v>
+        <v>263.6432800292969</v>
       </c>
       <c r="GT2" t="n">
-        <v>225.8604125976562</v>
+        <v>265.154296875</v>
       </c>
       <c r="GU2" t="n">
-        <v>226.0458068847656</v>
+        <v>265.0520629882812</v>
       </c>
       <c r="GV2" t="n">
-        <v>227.6601867675781</v>
+        <v>264.5149841308594</v>
       </c>
       <c r="GW2" t="n">
-        <v>227.9319915771484</v>
+        <v>214.2959747314453</v>
       </c>
       <c r="GX2" t="n">
-        <v>228.6444091796875</v>
+        <v>209.0575866699219</v>
       </c>
       <c r="GY2" t="n">
-        <v>236.4810485839844</v>
+        <v>208.1563415527344</v>
       </c>
       <c r="GZ2" t="n">
-        <v>243.7059631347656</v>
+        <v>209.1825714111328</v>
       </c>
       <c r="HA2" t="n">
-        <v>250.4060668945312</v>
+        <v>208.7767944335938</v>
       </c>
       <c r="HB2" t="n">
-        <v>255.9937133789062</v>
+        <v>208.9095764160156</v>
       </c>
       <c r="HC2" t="n">
-        <v>266.7510681152344</v>
+        <v>208.8894958496094</v>
       </c>
       <c r="HD2" t="n">
-        <v>279.8125915527344</v>
+        <v>208.8892822265625</v>
       </c>
       <c r="HE2" t="n">
-        <v>289.8073425292969</v>
+        <v>209.1083679199219</v>
       </c>
       <c r="HF2" t="n">
-        <v>291.0412292480469</v>
+        <v>209.2929840087891</v>
       </c>
       <c r="HG2" t="n">
-        <v>300.5423583984375</v>
+        <v>209.2423400878906</v>
       </c>
       <c r="HH2" t="n">
-        <v>304.6065673828125</v>
+        <v>209.9764404296875</v>
       </c>
       <c r="HI2" t="n">
-        <v>309.5115966796875</v>
+        <v>212.9747314453125</v>
       </c>
       <c r="HJ2" t="n">
-        <v>306.8370666503906</v>
+        <v>217.5792694091797</v>
       </c>
       <c r="HK2" t="n">
-        <v>306.21142578125</v>
+        <v>223.5906677246094</v>
       </c>
       <c r="HL2" t="n">
-        <v>307.2615356445312</v>
+        <v>234.8135528564453</v>
       </c>
       <c r="HM2" t="n">
-        <v>307.886474609375</v>
+        <v>262.7498474121094</v>
       </c>
       <c r="HN2" t="n">
-        <v>308.6697692871094</v>
+        <v>264.0474548339844</v>
       </c>
       <c r="HO2" t="n">
-        <v>307.9018249511719</v>
+        <v>264.0039978027344</v>
       </c>
       <c r="HP2" t="n">
-        <v>298.91064453125</v>
+        <v>263.5528564453125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>288.7582702636719</v>
+        <v>262.3063659667969</v>
       </c>
       <c r="HR2" t="n">
-        <v>282.2051086425781</v>
+        <v>262.2893371582031</v>
       </c>
       <c r="HS2" t="n">
-        <v>275.9337768554688</v>
+        <v>262.7910461425781</v>
       </c>
       <c r="HT2" t="n">
-        <v>252.8351135253906</v>
+        <v>263.9000549316406</v>
       </c>
       <c r="HU2" t="n">
-        <v>246.0930786132812</v>
+        <v>264.4854736328125</v>
       </c>
       <c r="HV2" t="n">
-        <v>239.2129211425781</v>
+        <v>265.2908630371094</v>
       </c>
       <c r="HW2" t="n">
-        <v>232.622314453125</v>
+        <v>259.3434143066406</v>
       </c>
       <c r="HX2" t="n">
-        <v>230.5657196044922</v>
+        <v>210.6227264404297</v>
       </c>
       <c r="HY2" t="n">
-        <v>227.304443359375</v>
+        <v>209.8343200683594</v>
       </c>
       <c r="HZ2" t="n">
-        <v>226.0444030761719</v>
+        <v>212.1654510498047</v>
       </c>
       <c r="IA2" t="n">
-        <v>225.4887084960938</v>
+        <v>210.2018432617188</v>
       </c>
       <c r="IB2" t="n">
-        <v>225.6205596923828</v>
+        <v>209.3572692871094</v>
       </c>
       <c r="IC2" t="n">
-        <v>226.3493194580078</v>
+        <v>210.0479278564453</v>
       </c>
       <c r="ID2" t="n">
-        <v>227.8424224853516</v>
+        <v>210.6182556152344</v>
       </c>
       <c r="IE2" t="n">
-        <v>230.0677185058594</v>
+        <v>211.0068054199219</v>
       </c>
       <c r="IF2" t="n">
-        <v>235.1800231933594</v>
+        <v>210.7686462402344</v>
       </c>
       <c r="IG2" t="n">
-        <v>240.0560150146484</v>
+        <v>208.9735412597656</v>
       </c>
       <c r="IH2" t="n">
-        <v>245.705078125</v>
+        <v>208.7632446289062</v>
       </c>
       <c r="II2" t="n">
-        <v>253.735595703125</v>
+        <v>217.0963287353516</v>
       </c>
       <c r="IJ2" t="n">
-        <v>260.8202819824219</v>
+        <v>221.000244140625</v>
       </c>
       <c r="IK2" t="n">
-        <v>269.1768493652344</v>
+        <v>267.6085510253906</v>
       </c>
       <c r="IL2" t="n">
-        <v>279.4275207519531</v>
+        <v>268.7413330078125</v>
       </c>
       <c r="IM2" t="n">
-        <v>292.7851257324219</v>
+        <v>276.8023376464844</v>
       </c>
       <c r="IN2" t="n">
-        <v>295.73828125</v>
+        <v>272.511962890625</v>
       </c>
       <c r="IO2" t="n">
-        <v>300.8081665039062</v>
+        <v>266.2850952148438</v>
       </c>
       <c r="IP2" t="n">
-        <v>301.9336242675781</v>
+        <v>267.0644836425781</v>
       </c>
       <c r="IQ2" t="n">
-        <v>302.7192687988281</v>
+        <v>269.1069030761719</v>
       </c>
       <c r="IR2" t="n">
-        <v>304.5990295410156</v>
+        <v>264.4464416503906</v>
       </c>
       <c r="IS2" t="n">
-        <v>305.590576171875</v>
+        <v>264.2935791015625</v>
       </c>
       <c r="IT2" t="n">
-        <v>305.6830139160156</v>
+        <v>260.3184509277344</v>
       </c>
       <c r="IU2" t="n">
-        <v>303.9710998535156</v>
+        <v>213.7729797363281</v>
       </c>
       <c r="IV2" t="n">
-        <v>291.5172729492188</v>
+        <v>208.1169281005859</v>
       </c>
       <c r="IW2" t="n">
-        <v>284.7805786132812</v>
+        <v>208.4112243652344</v>
       </c>
       <c r="IX2" t="n">
-        <v>266.9160766601562</v>
+        <v>210.2960968017578</v>
       </c>
       <c r="IY2" t="n">
-        <v>247.5306396484375</v>
+        <v>208.099853515625</v>
       </c>
       <c r="IZ2" t="n">
-        <v>237.7299346923828</v>
+        <v>207.4951019287109</v>
       </c>
       <c r="JA2" t="n">
-        <v>232.2854461669922</v>
+        <v>207.4868469238281</v>
       </c>
       <c r="JB2" t="n">
-        <v>227.17431640625</v>
+        <v>207.7758636474609</v>
       </c>
       <c r="JC2" t="n">
-        <v>225.7249145507812</v>
+        <v>210.7400207519531</v>
       </c>
       <c r="JD2" t="n">
-        <v>224.6961822509766</v>
+        <v>214.7681274414062</v>
       </c>
       <c r="JE2" t="n">
-        <v>222.7393798828125</v>
+        <v>230.9791870117188</v>
       </c>
       <c r="JF2" t="n">
-        <v>222.6214447021484</v>
+        <v>242.9958953857422</v>
       </c>
       <c r="JG2" t="n">
-        <v>223.417236328125</v>
+        <v>264.1603698730469</v>
       </c>
       <c r="JH2" t="n">
-        <v>225.0134582519531</v>
+        <v>264.4986267089844</v>
       </c>
       <c r="JI2" t="n">
-        <v>227.3834381103516</v>
+        <v>263.8515319824219</v>
       </c>
       <c r="JJ2" t="n">
-        <v>233.7715454101562</v>
+        <v>263.1945495605469</v>
       </c>
       <c r="JK2" t="n">
-        <v>238.0084533691406</v>
+        <v>265.8390808105469</v>
       </c>
       <c r="JL2" t="n">
-        <v>244.9086303710938</v>
+        <v>259.5681762695312</v>
       </c>
       <c r="JM2" t="n">
-        <v>250.9031982421875</v>
+        <v>231.5887145996094</v>
       </c>
       <c r="JN2" t="n">
-        <v>260.5830688476562</v>
+        <v>215.4463958740234</v>
       </c>
       <c r="JO2" t="n">
-        <v>268.6080322265625</v>
+        <v>207.7182769775391</v>
       </c>
       <c r="JP2" t="n">
-        <v>272.9247741699219</v>
+        <v>208.0714111328125</v>
       </c>
       <c r="JQ2" t="n">
-        <v>288.2145080566406</v>
+        <v>208.7114562988281</v>
       </c>
       <c r="JR2" t="n">
-        <v>293.1501770019531</v>
+        <v>209.9251708984375</v>
       </c>
       <c r="JS2" t="n">
-        <v>293.9292602539062</v>
+        <v>210.4993896484375</v>
       </c>
       <c r="JT2" t="n">
-        <v>305.1243591308594</v>
+        <v>211.2853088378906</v>
       </c>
       <c r="JU2" t="n">
-        <v>305.4552307128906</v>
+        <v>211.0963134765625</v>
       </c>
       <c r="JV2" t="n">
-        <v>305.0073547363281</v>
+        <v>209.3676910400391</v>
       </c>
       <c r="JW2" t="n">
-        <v>305.0693054199219</v>
+        <v>209.3518829345703</v>
       </c>
       <c r="JX2" t="n">
-        <v>304.68310546875</v>
+        <v>209.8766174316406</v>
       </c>
       <c r="JY2" t="n">
-        <v>304.5315551757812</v>
+        <v>209.8847351074219</v>
       </c>
       <c r="JZ2" t="n">
-        <v>301.3121337890625</v>
+        <v>208.3411865234375</v>
       </c>
       <c r="KA2" t="n">
-        <v>300.2152099609375</v>
+        <v>208.4155578613281</v>
       </c>
       <c r="KB2" t="n">
-        <v>294.6210632324219</v>
+        <v>211.9807739257812</v>
       </c>
       <c r="KC2" t="n">
-        <v>295.169189453125</v>
+        <v>221.5328826904297</v>
       </c>
       <c r="KD2" t="n">
-        <v>272.1592712402344</v>
+        <v>230.6437683105469</v>
       </c>
       <c r="KE2" t="n">
-        <v>263.7064514160156</v>
+        <v>245.0442199707031</v>
       </c>
       <c r="KF2" t="n">
-        <v>254.6916198730469</v>
+        <v>263.203125</v>
       </c>
       <c r="KG2" t="n">
-        <v>246.3115539550781</v>
+        <v>272.0078430175781</v>
       </c>
       <c r="KH2" t="n">
-        <v>240.3981323242188</v>
+        <v>297.1718139648438</v>
       </c>
       <c r="KI2" t="n">
-        <v>237.3427429199219</v>
+        <v>289.6044616699219</v>
       </c>
       <c r="KJ2" t="n">
-        <v>236.6604766845703</v>
+        <v>285.1408996582031</v>
       </c>
       <c r="KK2" t="n">
-        <v>235.3403015136719</v>
+        <v>285.1101684570312</v>
       </c>
       <c r="KL2" t="n">
-        <v>232.2921142578125</v>
+        <v>285.6592102050781</v>
       </c>
       <c r="KM2" t="n">
-        <v>240.6522216796875</v>
+        <v>273.2887573242188</v>
       </c>
       <c r="KN2" t="n">
-        <v>244.8521728515625</v>
+        <v>273.8777465820312</v>
       </c>
       <c r="KO2" t="n">
-        <v>254.3087921142578</v>
+        <v>275.5036315917969</v>
       </c>
       <c r="KP2" t="n">
-        <v>256.8076477050781</v>
+        <v>267.4678344726562</v>
       </c>
       <c r="KQ2" t="n">
-        <v>255.2557067871094</v>
+        <v>266.1095581054688</v>
       </c>
       <c r="KR2" t="n">
-        <v>261.7037353515625</v>
+        <v>266.1271057128906</v>
       </c>
       <c r="KS2" t="n">
-        <v>260.2422485351562</v>
+        <v>268.0043029785156</v>
       </c>
       <c r="KT2" t="n">
-        <v>255.7489166259766</v>
+        <v>265.2343444824219</v>
       </c>
       <c r="KU2" t="n">
-        <v>246.8154754638672</v>
+        <v>262.1125793457031</v>
       </c>
       <c r="KV2" t="n">
-        <v>238.9050903320312</v>
+        <v>259.2647399902344</v>
       </c>
       <c r="KW2" t="n">
-        <v>220.2890014648438</v>
+        <v>256.6316223144531</v>
       </c>
       <c r="KX2" t="n">
-        <v>190.8152618408203</v>
+        <v>250.1803588867188</v>
       </c>
       <c r="KY2" t="n">
-        <v>177.5438690185547</v>
+        <v>244.7854919433594</v>
       </c>
       <c r="KZ2" t="n">
-        <v>153.5065612792969</v>
+        <v>236.8307800292969</v>
       </c>
       <c r="LA2" t="n">
-        <v>84.89736938476562</v>
+        <v>226.8527984619141</v>
       </c>
       <c r="LB2" t="n">
-        <v>73.48151397705078</v>
+        <v>215.2500762939453</v>
       </c>
       <c r="LC2" t="n">
-        <v>72.13722229003906</v>
+        <v>202.5543975830078</v>
       </c>
       <c r="LD2" t="n">
-        <v>75.15584564208984</v>
+        <v>196.9508514404297</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>189.3602600097656</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>170.8362579345703</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>154.6462097167969</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>122.3128509521484</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>82.89666748046875</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>-52.91007232666016</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>-157.2605743408203</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>49.81220245361328</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>18.97352027893066</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>16.95210266113281</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>44.07650756835938</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>42.07501983642578</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>25.221435546875</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>30.29644775390625</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>62.26984405517578</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>50.73677825927734</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>270.5865783691406</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>259.7637634277344</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>129.6626434326172</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>86.70155334472656</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>89.42839050292969</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>98.84940338134766</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>112.326904296875</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>126.5767669677734</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>121.8015975952148</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>123.4816741943359</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>129.8203887939453</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>-177.9287414550781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>473.3362731933594</v>
+        <v>414.0116882324219</v>
       </c>
       <c r="B3" t="n">
-        <v>444.17822265625</v>
+        <v>418.8824768066406</v>
       </c>
       <c r="C3" t="n">
-        <v>425.8966979980469</v>
+        <v>418.3865356445312</v>
       </c>
       <c r="D3" t="n">
-        <v>412.1126403808594</v>
+        <v>417.9029541015625</v>
       </c>
       <c r="E3" t="n">
-        <v>403.7748107910156</v>
+        <v>415.348388671875</v>
       </c>
       <c r="F3" t="n">
-        <v>398.2543029785156</v>
+        <v>415.7027893066406</v>
       </c>
       <c r="G3" t="n">
-        <v>396.6736755371094</v>
+        <v>414.3112487792969</v>
       </c>
       <c r="H3" t="n">
-        <v>395.9191284179688</v>
+        <v>407.8126525878906</v>
       </c>
       <c r="I3" t="n">
-        <v>393.6564636230469</v>
+        <v>406.3995056152344</v>
       </c>
       <c r="J3" t="n">
-        <v>391.2277221679688</v>
+        <v>405.1435241699219</v>
       </c>
       <c r="K3" t="n">
-        <v>395.2243957519531</v>
+        <v>400.5823974609375</v>
       </c>
       <c r="L3" t="n">
-        <v>396.8864440917969</v>
+        <v>396.2937622070312</v>
       </c>
       <c r="M3" t="n">
-        <v>396.6318359375</v>
+        <v>389.5859375</v>
       </c>
       <c r="N3" t="n">
-        <v>393.9317016601562</v>
+        <v>379.8541259765625</v>
       </c>
       <c r="O3" t="n">
-        <v>392.7860107421875</v>
+        <v>373.0230712890625</v>
       </c>
       <c r="P3" t="n">
-        <v>388.6660461425781</v>
+        <v>368.4880981445312</v>
       </c>
       <c r="Q3" t="n">
-        <v>385.6511840820312</v>
+        <v>366.1589050292969</v>
       </c>
       <c r="R3" t="n">
-        <v>378.8504638671875</v>
+        <v>360.5278015136719</v>
       </c>
       <c r="S3" t="n">
-        <v>373.9423522949219</v>
+        <v>357.6766357421875</v>
       </c>
       <c r="T3" t="n">
-        <v>368.8620300292969</v>
+        <v>353.1970825195312</v>
       </c>
       <c r="U3" t="n">
-        <v>366.1887817382812</v>
+        <v>351.0865783691406</v>
       </c>
       <c r="V3" t="n">
-        <v>363.9151306152344</v>
+        <v>350.1978454589844</v>
       </c>
       <c r="W3" t="n">
-        <v>363.9359130859375</v>
+        <v>348.3442687988281</v>
       </c>
       <c r="X3" t="n">
-        <v>363.2567443847656</v>
+        <v>348.01611328125</v>
       </c>
       <c r="Y3" t="n">
-        <v>365.1251220703125</v>
+        <v>346.8600769042969</v>
       </c>
       <c r="Z3" t="n">
-        <v>366.5559997558594</v>
+        <v>344.7191467285156</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.5007934570312</v>
+        <v>344.2281188964844</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.9564819335938</v>
+        <v>342.7268371582031</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.2536926269531</v>
+        <v>339.8216552734375</v>
       </c>
       <c r="AD3" t="n">
-        <v>371.8889465332031</v>
+        <v>336.5773315429688</v>
       </c>
       <c r="AE3" t="n">
-        <v>369.7787780761719</v>
+        <v>337.2305908203125</v>
       </c>
       <c r="AF3" t="n">
-        <v>370.4556274414062</v>
+        <v>337.4929504394531</v>
       </c>
       <c r="AG3" t="n">
-        <v>369.6475219726562</v>
+        <v>333.5389404296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>366.7611083984375</v>
+        <v>327.5139465332031</v>
       </c>
       <c r="AI3" t="n">
-        <v>363.6722106933594</v>
+        <v>326.5202331542969</v>
       </c>
       <c r="AJ3" t="n">
-        <v>356.7313842773438</v>
+        <v>323.5760803222656</v>
       </c>
       <c r="AK3" t="n">
-        <v>350.3260803222656</v>
+        <v>321.9996032714844</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.6752014160156</v>
+        <v>320.0044250488281</v>
       </c>
       <c r="AM3" t="n">
-        <v>335.0357055664062</v>
+        <v>317.3243103027344</v>
       </c>
       <c r="AN3" t="n">
-        <v>327.5876159667969</v>
+        <v>314.6742553710938</v>
       </c>
       <c r="AO3" t="n">
-        <v>318.5245666503906</v>
+        <v>312.2759094238281</v>
       </c>
       <c r="AP3" t="n">
-        <v>309.8625793457031</v>
+        <v>309.3857116699219</v>
       </c>
       <c r="AQ3" t="n">
-        <v>305.4357299804688</v>
+        <v>309.0732421875</v>
       </c>
       <c r="AR3" t="n">
-        <v>302.1077575683594</v>
+        <v>310.2618713378906</v>
       </c>
       <c r="AS3" t="n">
-        <v>298.6352233886719</v>
+        <v>311.7581176757812</v>
       </c>
       <c r="AT3" t="n">
-        <v>296.2677612304688</v>
+        <v>313.8117370605469</v>
       </c>
       <c r="AU3" t="n">
-        <v>296.5563354492188</v>
+        <v>315.4920349121094</v>
       </c>
       <c r="AV3" t="n">
-        <v>296.7248229980469</v>
+        <v>315.6560668945312</v>
       </c>
       <c r="AW3" t="n">
-        <v>296.5484008789062</v>
+        <v>315.0728454589844</v>
       </c>
       <c r="AX3" t="n">
-        <v>295.7546691894531</v>
+        <v>311.4560546875</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.308349609375</v>
+        <v>304.9587097167969</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.4879760742188</v>
+        <v>301.4575805664062</v>
       </c>
       <c r="BA3" t="n">
-        <v>296.1496276855469</v>
+        <v>298.9961853027344</v>
       </c>
       <c r="BB3" t="n">
-        <v>297.2242736816406</v>
+        <v>298.214599609375</v>
       </c>
       <c r="BC3" t="n">
-        <v>297.4474487304688</v>
+        <v>296.8623657226562</v>
       </c>
       <c r="BD3" t="n">
-        <v>297.2804260253906</v>
+        <v>297.5944519042969</v>
       </c>
       <c r="BE3" t="n">
-        <v>296.9377136230469</v>
+        <v>295.7562561035156</v>
       </c>
       <c r="BF3" t="n">
-        <v>296.0092163085938</v>
+        <v>293.5887756347656</v>
       </c>
       <c r="BG3" t="n">
-        <v>293.9742126464844</v>
+        <v>292.9393310546875</v>
       </c>
       <c r="BH3" t="n">
-        <v>294.1753845214844</v>
+        <v>293.3774108886719</v>
       </c>
       <c r="BI3" t="n">
-        <v>292.6686096191406</v>
+        <v>291.3522033691406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>289.8179016113281</v>
+        <v>288.99560546875</v>
       </c>
       <c r="BK3" t="n">
-        <v>286.5858459472656</v>
+        <v>290.1682739257812</v>
       </c>
       <c r="BL3" t="n">
-        <v>284.7846984863281</v>
+        <v>295.5158386230469</v>
       </c>
       <c r="BM3" t="n">
-        <v>287.8701477050781</v>
+        <v>300.3837585449219</v>
       </c>
       <c r="BN3" t="n">
-        <v>296.1694641113281</v>
+        <v>299.7670593261719</v>
       </c>
       <c r="BO3" t="n">
-        <v>299.6111145019531</v>
+        <v>293.8388671875</v>
       </c>
       <c r="BP3" t="n">
-        <v>305.0971069335938</v>
+        <v>289.8250122070312</v>
       </c>
       <c r="BQ3" t="n">
-        <v>304.2341613769531</v>
+        <v>287.1741638183594</v>
       </c>
       <c r="BR3" t="n">
-        <v>299.8726501464844</v>
+        <v>287.2126159667969</v>
       </c>
       <c r="BS3" t="n">
-        <v>297.25146484375</v>
+        <v>286.8114624023438</v>
       </c>
       <c r="BT3" t="n">
-        <v>298.1717834472656</v>
+        <v>285.9499206542969</v>
       </c>
       <c r="BU3" t="n">
-        <v>297.7372131347656</v>
+        <v>284.3815612792969</v>
       </c>
       <c r="BV3" t="n">
-        <v>297.7755126953125</v>
+        <v>282.7102661132812</v>
       </c>
       <c r="BW3" t="n">
-        <v>297.77392578125</v>
+        <v>284.8880920410156</v>
       </c>
       <c r="BX3" t="n">
-        <v>297.3293762207031</v>
+        <v>282.2301940917969</v>
       </c>
       <c r="BY3" t="n">
-        <v>297.6986389160156</v>
+        <v>281.09033203125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>298.148681640625</v>
+        <v>279.9072570800781</v>
       </c>
       <c r="CA3" t="n">
-        <v>298.7884216308594</v>
+        <v>281.0164489746094</v>
       </c>
       <c r="CB3" t="n">
-        <v>298.9702758789062</v>
+        <v>283.692626953125</v>
       </c>
       <c r="CC3" t="n">
-        <v>307.8920288085938</v>
+        <v>284.5553588867188</v>
       </c>
       <c r="CD3" t="n">
-        <v>298.0140686035156</v>
+        <v>280.2340698242188</v>
       </c>
       <c r="CE3" t="n">
-        <v>294.9223937988281</v>
+        <v>278.0235290527344</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.9175415039062</v>
+        <v>276.5398254394531</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.9732360839844</v>
+        <v>275.7562255859375</v>
       </c>
       <c r="CH3" t="n">
-        <v>295.7490234375</v>
+        <v>273.3670959472656</v>
       </c>
       <c r="CI3" t="n">
-        <v>294.9880981445312</v>
+        <v>272.0403747558594</v>
       </c>
       <c r="CJ3" t="n">
-        <v>296.569580078125</v>
+        <v>270.4807739257812</v>
       </c>
       <c r="CK3" t="n">
-        <v>299.0945129394531</v>
+        <v>269.4554748535156</v>
       </c>
       <c r="CL3" t="n">
-        <v>300.2861328125</v>
+        <v>269.3162231445312</v>
       </c>
       <c r="CM3" t="n">
-        <v>299.7402648925781</v>
+        <v>269.2726440429688</v>
       </c>
       <c r="CN3" t="n">
-        <v>297.9760131835938</v>
+        <v>269.3223876953125</v>
       </c>
       <c r="CO3" t="n">
-        <v>295.4727783203125</v>
+        <v>269.4502868652344</v>
       </c>
       <c r="CP3" t="n">
-        <v>291.57080078125</v>
+        <v>269.6429138183594</v>
       </c>
       <c r="CQ3" t="n">
-        <v>289.0845947265625</v>
+        <v>268.1493530273438</v>
       </c>
       <c r="CR3" t="n">
-        <v>287.81396484375</v>
+        <v>269.3473205566406</v>
       </c>
       <c r="CS3" t="n">
-        <v>286.70947265625</v>
+        <v>271.2106323242188</v>
       </c>
       <c r="CT3" t="n">
-        <v>290.1421813964844</v>
+        <v>267.5497741699219</v>
       </c>
       <c r="CU3" t="n">
-        <v>291.7080078125</v>
+        <v>265.5001220703125</v>
       </c>
       <c r="CV3" t="n">
-        <v>293.7401733398438</v>
+        <v>264.0526733398438</v>
       </c>
       <c r="CW3" t="n">
-        <v>295.1766357421875</v>
+        <v>262.0377807617188</v>
       </c>
       <c r="CX3" t="n">
-        <v>295.7639465332031</v>
+        <v>261.5472412109375</v>
       </c>
       <c r="CY3" t="n">
-        <v>297.5994262695312</v>
+        <v>261.3326416015625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>298.0238647460938</v>
+        <v>263.5928344726562</v>
       </c>
       <c r="DA3" t="n">
-        <v>298.2174072265625</v>
+        <v>266.1930541992188</v>
       </c>
       <c r="DB3" t="n">
-        <v>297.0876770019531</v>
+        <v>267.26611328125</v>
       </c>
       <c r="DC3" t="n">
-        <v>296.6217346191406</v>
+        <v>261.1100158691406</v>
       </c>
       <c r="DD3" t="n">
-        <v>296.4947204589844</v>
+        <v>257.8026428222656</v>
       </c>
       <c r="DE3" t="n">
-        <v>296.28955078125</v>
+        <v>265.5361938476562</v>
       </c>
       <c r="DF3" t="n">
-        <v>296.1048889160156</v>
+        <v>271.6685180664062</v>
       </c>
       <c r="DG3" t="n">
-        <v>295.97900390625</v>
+        <v>313.1826171875</v>
       </c>
       <c r="DH3" t="n">
-        <v>295.6295471191406</v>
+        <v>267.1287841796875</v>
       </c>
       <c r="DI3" t="n">
-        <v>294.257568359375</v>
+        <v>268.12646484375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>292.7076721191406</v>
+        <v>268.5182495117188</v>
       </c>
       <c r="DK3" t="n">
-        <v>285.2944641113281</v>
+        <v>267.7526245117188</v>
       </c>
       <c r="DL3" t="n">
-        <v>280.4302978515625</v>
+        <v>267.658447265625</v>
       </c>
       <c r="DM3" t="n">
-        <v>292.7418212890625</v>
+        <v>268.0215148925781</v>
       </c>
       <c r="DN3" t="n">
-        <v>302.7334594726562</v>
+        <v>266.7462463378906</v>
       </c>
       <c r="DO3" t="n">
-        <v>303.2441101074219</v>
+        <v>266.5199584960938</v>
       </c>
       <c r="DP3" t="n">
-        <v>303.3685607910156</v>
+        <v>266.1948852539062</v>
       </c>
       <c r="DQ3" t="n">
-        <v>302.7902221679688</v>
+        <v>265.1159973144531</v>
       </c>
       <c r="DR3" t="n">
-        <v>301.990966796875</v>
+        <v>264.9848937988281</v>
       </c>
       <c r="DS3" t="n">
-        <v>301.1409301757812</v>
+        <v>263.8466796875</v>
       </c>
       <c r="DT3" t="n">
-        <v>301.5703430175781</v>
+        <v>264.3765869140625</v>
       </c>
       <c r="DU3" t="n">
-        <v>302.6125793457031</v>
+        <v>264.3427429199219</v>
       </c>
       <c r="DV3" t="n">
-        <v>304.8458557128906</v>
+        <v>264.3914489746094</v>
       </c>
       <c r="DW3" t="n">
-        <v>304.726318359375</v>
+        <v>264.8868408203125</v>
       </c>
       <c r="DX3" t="n">
-        <v>304.5829772949219</v>
+        <v>265.2637939453125</v>
       </c>
       <c r="DY3" t="n">
-        <v>304.6399841308594</v>
+        <v>265.6515197753906</v>
       </c>
       <c r="DZ3" t="n">
-        <v>304.6936340332031</v>
+        <v>310.3928833007812</v>
       </c>
       <c r="EA3" t="n">
-        <v>304.9037170410156</v>
+        <v>312.5353393554688</v>
       </c>
       <c r="EB3" t="n">
-        <v>305.2044982910156</v>
+        <v>312.5704345703125</v>
       </c>
       <c r="EC3" t="n">
-        <v>306.2825927734375</v>
+        <v>312.14013671875</v>
       </c>
       <c r="ED3" t="n">
-        <v>306.4443969726562</v>
+        <v>303.3845825195312</v>
       </c>
       <c r="EE3" t="n">
-        <v>306.5195922851562</v>
+        <v>263.295654296875</v>
       </c>
       <c r="EF3" t="n">
-        <v>308.1824645996094</v>
+        <v>257.7727966308594</v>
       </c>
       <c r="EG3" t="n">
-        <v>310.0421447753906</v>
+        <v>260.8551025390625</v>
       </c>
       <c r="EH3" t="n">
-        <v>305.6121520996094</v>
+        <v>259.7638244628906</v>
       </c>
       <c r="EI3" t="n">
-        <v>301.5493469238281</v>
+        <v>260.5924072265625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>296.7604675292969</v>
+        <v>253.8306121826172</v>
       </c>
       <c r="EK3" t="n">
-        <v>285.668701171875</v>
+        <v>258.5534973144531</v>
       </c>
       <c r="EL3" t="n">
-        <v>291.9891662597656</v>
+        <v>267.1382446289062</v>
       </c>
       <c r="EM3" t="n">
-        <v>291.7522277832031</v>
+        <v>285.7009887695312</v>
       </c>
       <c r="EN3" t="n">
-        <v>292.7530212402344</v>
+        <v>313.2723693847656</v>
       </c>
       <c r="EO3" t="n">
-        <v>297.1029052734375</v>
+        <v>268.1724853515625</v>
       </c>
       <c r="EP3" t="n">
-        <v>297.8825378417969</v>
+        <v>264.8340148925781</v>
       </c>
       <c r="EQ3" t="n">
-        <v>299.5421447753906</v>
+        <v>263.7951049804688</v>
       </c>
       <c r="ER3" t="n">
-        <v>300.2979736328125</v>
+        <v>260.7998046875</v>
       </c>
       <c r="ES3" t="n">
-        <v>300.4837646484375</v>
+        <v>259.5360717773438</v>
       </c>
       <c r="ET3" t="n">
-        <v>300.514892578125</v>
+        <v>257.1704711914062</v>
       </c>
       <c r="EU3" t="n">
-        <v>300.551025390625</v>
+        <v>257.5857543945312</v>
       </c>
       <c r="EV3" t="n">
-        <v>300.6396179199219</v>
+        <v>257.9873962402344</v>
       </c>
       <c r="EW3" t="n">
-        <v>299.8764038085938</v>
+        <v>258.1610412597656</v>
       </c>
       <c r="EX3" t="n">
-        <v>296.2456665039062</v>
+        <v>258.8299255371094</v>
       </c>
       <c r="EY3" t="n">
-        <v>294.5210266113281</v>
+        <v>258.7218017578125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>289.986572265625</v>
+        <v>258.577880859375</v>
       </c>
       <c r="FA3" t="n">
-        <v>287.4245910644531</v>
+        <v>258.7431030273438</v>
       </c>
       <c r="FB3" t="n">
-        <v>295.3914489746094</v>
+        <v>258.9512329101562</v>
       </c>
       <c r="FC3" t="n">
-        <v>306.431884765625</v>
+        <v>259.1329650878906</v>
       </c>
       <c r="FD3" t="n">
-        <v>305.7691040039062</v>
+        <v>259.4371948242188</v>
       </c>
       <c r="FE3" t="n">
-        <v>303.968505859375</v>
+        <v>260.2505187988281</v>
       </c>
       <c r="FF3" t="n">
-        <v>304.6928405761719</v>
+        <v>261.8084716796875</v>
       </c>
       <c r="FG3" t="n">
-        <v>303.927734375</v>
+        <v>264.0195617675781</v>
       </c>
       <c r="FH3" t="n">
-        <v>304.0880126953125</v>
+        <v>313.3550415039062</v>
       </c>
       <c r="FI3" t="n">
-        <v>304.4391174316406</v>
+        <v>313.3258972167969</v>
       </c>
       <c r="FJ3" t="n">
-        <v>304.6275024414062</v>
+        <v>313.3204345703125</v>
       </c>
       <c r="FK3" t="n">
-        <v>304.4567565917969</v>
+        <v>313.1989135742188</v>
       </c>
       <c r="FL3" t="n">
-        <v>304.1343383789062</v>
+        <v>313.2794189453125</v>
       </c>
       <c r="FM3" t="n">
-        <v>304.1392211914062</v>
+        <v>313.3177490234375</v>
       </c>
       <c r="FN3" t="n">
-        <v>304.0775146484375</v>
+        <v>270.8761291503906</v>
       </c>
       <c r="FO3" t="n">
-        <v>304.1050720214844</v>
+        <v>270.6655883789062</v>
       </c>
       <c r="FP3" t="n">
-        <v>305.0201110839844</v>
+        <v>268.8406677246094</v>
       </c>
       <c r="FQ3" t="n">
-        <v>304.1781311035156</v>
+        <v>271.5498352050781</v>
       </c>
       <c r="FR3" t="n">
-        <v>304.3531188964844</v>
+        <v>273.8684692382812</v>
       </c>
       <c r="FS3" t="n">
-        <v>304.3515319824219</v>
+        <v>265.6779479980469</v>
       </c>
       <c r="FT3" t="n">
-        <v>304.1346130371094</v>
+        <v>259.2970275878906</v>
       </c>
       <c r="FU3" t="n">
-        <v>297.97607421875</v>
+        <v>255.9627990722656</v>
       </c>
       <c r="FV3" t="n">
-        <v>300.8408203125</v>
+        <v>255.9973449707031</v>
       </c>
       <c r="FW3" t="n">
-        <v>286.5528869628906</v>
+        <v>255.9138946533203</v>
       </c>
       <c r="FX3" t="n">
-        <v>290.1246337890625</v>
+        <v>255.9802093505859</v>
       </c>
       <c r="FY3" t="n">
-        <v>293.6841735839844</v>
+        <v>255.9481658935547</v>
       </c>
       <c r="FZ3" t="n">
-        <v>294.4942932128906</v>
+        <v>256.0630187988281</v>
       </c>
       <c r="GA3" t="n">
-        <v>297.529541015625</v>
+        <v>256.5790710449219</v>
       </c>
       <c r="GB3" t="n">
-        <v>298.3594055175781</v>
+        <v>257.3415222167969</v>
       </c>
       <c r="GC3" t="n">
-        <v>300.2018127441406</v>
+        <v>258.11083984375</v>
       </c>
       <c r="GD3" t="n">
-        <v>300.7794799804688</v>
+        <v>258.0844116210938</v>
       </c>
       <c r="GE3" t="n">
-        <v>301.3390808105469</v>
+        <v>258.0990905761719</v>
       </c>
       <c r="GF3" t="n">
-        <v>300.5231323242188</v>
+        <v>258.4070434570312</v>
       </c>
       <c r="GG3" t="n">
-        <v>300.5615234375</v>
+        <v>259.7606506347656</v>
       </c>
       <c r="GH3" t="n">
-        <v>300.6624145507812</v>
+        <v>262.4521484375</v>
       </c>
       <c r="GI3" t="n">
-        <v>299.404052734375</v>
+        <v>313.6323852539062</v>
       </c>
       <c r="GJ3" t="n">
-        <v>296.0291137695312</v>
+        <v>313.6631469726562</v>
       </c>
       <c r="GK3" t="n">
-        <v>289.2229309082031</v>
+        <v>313.2837524414062</v>
       </c>
       <c r="GL3" t="n">
-        <v>284.8792114257812</v>
+        <v>313.3312072753906</v>
       </c>
       <c r="GM3" t="n">
-        <v>297.8057861328125</v>
+        <v>313.3433837890625</v>
       </c>
       <c r="GN3" t="n">
-        <v>316.2966918945312</v>
+        <v>313.4341430664062</v>
       </c>
       <c r="GO3" t="n">
-        <v>309.0285034179688</v>
+        <v>313.4525756835938</v>
       </c>
       <c r="GP3" t="n">
-        <v>304.3153991699219</v>
+        <v>313.4673156738281</v>
       </c>
       <c r="GQ3" t="n">
-        <v>307.1419067382812</v>
+        <v>313.4910583496094</v>
       </c>
       <c r="GR3" t="n">
-        <v>304.7900085449219</v>
+        <v>313.4948425292969</v>
       </c>
       <c r="GS3" t="n">
-        <v>304.5758666992188</v>
+        <v>313.4926147460938</v>
       </c>
       <c r="GT3" t="n">
-        <v>304.9472961425781</v>
+        <v>313.8152465820312</v>
       </c>
       <c r="GU3" t="n">
-        <v>304.7459106445312</v>
+        <v>313.7265625</v>
       </c>
       <c r="GV3" t="n">
-        <v>304.9032287597656</v>
+        <v>313.6034240722656</v>
       </c>
       <c r="GW3" t="n">
-        <v>304.7955017089844</v>
+        <v>264.81005859375</v>
       </c>
       <c r="GX3" t="n">
-        <v>305.1335144042969</v>
+        <v>261.9881591796875</v>
       </c>
       <c r="GY3" t="n">
-        <v>305.7886352539062</v>
+        <v>256.5614624023438</v>
       </c>
       <c r="GZ3" t="n">
-        <v>307.1366271972656</v>
+        <v>255.5340881347656</v>
       </c>
       <c r="HA3" t="n">
-        <v>305.9119567871094</v>
+        <v>255.0257720947266</v>
       </c>
       <c r="HB3" t="n">
-        <v>308.6522521972656</v>
+        <v>255.1289978027344</v>
       </c>
       <c r="HC3" t="n">
-        <v>302.5910949707031</v>
+        <v>255.1782684326172</v>
       </c>
       <c r="HD3" t="n">
-        <v>284.3522644042969</v>
+        <v>255.2548065185547</v>
       </c>
       <c r="HE3" t="n">
-        <v>284.43359375</v>
+        <v>255.4460906982422</v>
       </c>
       <c r="HF3" t="n">
-        <v>285.0897827148438</v>
+        <v>255.5458221435547</v>
       </c>
       <c r="HG3" t="n">
-        <v>292.3826599121094</v>
+        <v>255.4077453613281</v>
       </c>
       <c r="HH3" t="n">
-        <v>296.2968139648438</v>
+        <v>255.1772918701172</v>
       </c>
       <c r="HI3" t="n">
-        <v>299.8357849121094</v>
+        <v>255.0658569335938</v>
       </c>
       <c r="HJ3" t="n">
-        <v>299.7212219238281</v>
+        <v>256.0170593261719</v>
       </c>
       <c r="HK3" t="n">
-        <v>299.4990234375</v>
+        <v>263.4748840332031</v>
       </c>
       <c r="HL3" t="n">
-        <v>299.3931274414062</v>
+        <v>268.6145629882812</v>
       </c>
       <c r="HM3" t="n">
-        <v>299.46142578125</v>
+        <v>311.7594909667969</v>
       </c>
       <c r="HN3" t="n">
-        <v>299.2852783203125</v>
+        <v>312.6664123535156</v>
       </c>
       <c r="HO3" t="n">
-        <v>298.0830688476562</v>
+        <v>312.6094970703125</v>
       </c>
       <c r="HP3" t="n">
-        <v>295.8097534179688</v>
+        <v>312.5059204101562</v>
       </c>
       <c r="HQ3" t="n">
-        <v>291.9062805175781</v>
+        <v>312.1532592773438</v>
       </c>
       <c r="HR3" t="n">
-        <v>287.3644104003906</v>
+        <v>311.93115234375</v>
       </c>
       <c r="HS3" t="n">
-        <v>294.5179443359375</v>
+        <v>311.7760925292969</v>
       </c>
       <c r="HT3" t="n">
-        <v>308.4782104492188</v>
+        <v>312.0924682617188</v>
       </c>
       <c r="HU3" t="n">
-        <v>307.082763671875</v>
+        <v>312.2451782226562</v>
       </c>
       <c r="HV3" t="n">
-        <v>306.4032592773438</v>
+        <v>312.3673706054688</v>
       </c>
       <c r="HW3" t="n">
-        <v>304.7342834472656</v>
+        <v>310.8486938476562</v>
       </c>
       <c r="HX3" t="n">
-        <v>304.121826171875</v>
+        <v>257.3955383300781</v>
       </c>
       <c r="HY3" t="n">
-        <v>304.0612487792969</v>
+        <v>254.0042266845703</v>
       </c>
       <c r="HZ3" t="n">
-        <v>304.7706298828125</v>
+        <v>252.8511962890625</v>
       </c>
       <c r="IA3" t="n">
-        <v>304.6633605957031</v>
+        <v>252.4935150146484</v>
       </c>
       <c r="IB3" t="n">
-        <v>304.7249145507812</v>
+        <v>252.5624694824219</v>
       </c>
       <c r="IC3" t="n">
-        <v>304.7234497070312</v>
+        <v>252.7341003417969</v>
       </c>
       <c r="ID3" t="n">
-        <v>304.7572937011719</v>
+        <v>252.8374633789062</v>
       </c>
       <c r="IE3" t="n">
-        <v>305.0331115722656</v>
+        <v>252.9488830566406</v>
       </c>
       <c r="IF3" t="n">
-        <v>305.6461486816406</v>
+        <v>252.9096832275391</v>
       </c>
       <c r="IG3" t="n">
-        <v>306.6044616699219</v>
+        <v>252.5453033447266</v>
       </c>
       <c r="IH3" t="n">
-        <v>305.55078125</v>
+        <v>252.4703369140625</v>
       </c>
       <c r="II3" t="n">
-        <v>307.0278625488281</v>
+        <v>253.4215393066406</v>
       </c>
       <c r="IJ3" t="n">
-        <v>306.11279296875</v>
+        <v>255.1379852294922</v>
       </c>
       <c r="IK3" t="n">
-        <v>293.4407653808594</v>
+        <v>311.7207946777344</v>
       </c>
       <c r="IL3" t="n">
-        <v>290.2568664550781</v>
+        <v>312.0294189453125</v>
       </c>
       <c r="IM3" t="n">
-        <v>293.1414489746094</v>
+        <v>311.7715759277344</v>
       </c>
       <c r="IN3" t="n">
-        <v>294.14794921875</v>
+        <v>312.8200073242188</v>
       </c>
       <c r="IO3" t="n">
-        <v>296.5034790039062</v>
+        <v>312.7794494628906</v>
       </c>
       <c r="IP3" t="n">
-        <v>297.2035827636719</v>
+        <v>312.3931884765625</v>
       </c>
       <c r="IQ3" t="n">
-        <v>297.7389526367188</v>
+        <v>312.8549499511719</v>
       </c>
       <c r="IR3" t="n">
-        <v>297.5392761230469</v>
+        <v>312.73681640625</v>
       </c>
       <c r="IS3" t="n">
-        <v>297.3935852050781</v>
+        <v>312.7098693847656</v>
       </c>
       <c r="IT3" t="n">
-        <v>297.349609375</v>
+        <v>311.7305603027344</v>
       </c>
       <c r="IU3" t="n">
-        <v>297.0823059082031</v>
+        <v>260.9120178222656</v>
       </c>
       <c r="IV3" t="n">
-        <v>297.042236328125</v>
+        <v>256.1485595703125</v>
       </c>
       <c r="IW3" t="n">
-        <v>284.1903381347656</v>
+        <v>254.5135955810547</v>
       </c>
       <c r="IX3" t="n">
-        <v>289.0358581542969</v>
+        <v>253.2603607177734</v>
       </c>
       <c r="IY3" t="n">
-        <v>301.7771606445312</v>
+        <v>254.3702850341797</v>
       </c>
       <c r="IZ3" t="n">
-        <v>299.233642578125</v>
+        <v>256.1634216308594</v>
       </c>
       <c r="JA3" t="n">
-        <v>298.0103454589844</v>
+        <v>257.0702514648438</v>
       </c>
       <c r="JB3" t="n">
-        <v>299.7866516113281</v>
+        <v>256.9004211425781</v>
       </c>
       <c r="JC3" t="n">
-        <v>302.7750244140625</v>
+        <v>256.8502502441406</v>
       </c>
       <c r="JD3" t="n">
-        <v>304.7352905273438</v>
+        <v>256.5728149414062</v>
       </c>
       <c r="JE3" t="n">
-        <v>304.2972412109375</v>
+        <v>260.3098754882812</v>
       </c>
       <c r="JF3" t="n">
-        <v>303.7745056152344</v>
+        <v>257.9353637695312</v>
       </c>
       <c r="JG3" t="n">
-        <v>303.7996520996094</v>
+        <v>268.1203308105469</v>
       </c>
       <c r="JH3" t="n">
-        <v>302.7611389160156</v>
+        <v>256.4380187988281</v>
       </c>
       <c r="JI3" t="n">
-        <v>299.4864196777344</v>
+        <v>259.1915588378906</v>
       </c>
       <c r="JJ3" t="n">
-        <v>299.400634765625</v>
+        <v>252.6163330078125</v>
       </c>
       <c r="JK3" t="n">
-        <v>302.0975036621094</v>
+        <v>261.9530029296875</v>
       </c>
       <c r="JL3" t="n">
-        <v>303.1388244628906</v>
+        <v>276.0401916503906</v>
       </c>
       <c r="JM3" t="n">
-        <v>303.7902221679688</v>
+        <v>267.9744567871094</v>
       </c>
       <c r="JN3" t="n">
-        <v>310.5247802734375</v>
+        <v>265.1866149902344</v>
       </c>
       <c r="JO3" t="n">
-        <v>293.1333618164062</v>
+        <v>259.7393188476562</v>
       </c>
       <c r="JP3" t="n">
-        <v>294.4660034179688</v>
+        <v>256.4803466796875</v>
       </c>
       <c r="JQ3" t="n">
-        <v>287.9215087890625</v>
+        <v>255.1138610839844</v>
       </c>
       <c r="JR3" t="n">
-        <v>298.7373352050781</v>
+        <v>255.0140991210938</v>
       </c>
       <c r="JS3" t="n">
-        <v>297.5703125</v>
+        <v>255.1846771240234</v>
       </c>
       <c r="JT3" t="n">
-        <v>302.00927734375</v>
+        <v>255.3753967285156</v>
       </c>
       <c r="JU3" t="n">
-        <v>301.2345275878906</v>
+        <v>255.6595153808594</v>
       </c>
       <c r="JV3" t="n">
-        <v>300.9241027832031</v>
+        <v>255.4448089599609</v>
       </c>
       <c r="JW3" t="n">
-        <v>301.1123962402344</v>
+        <v>255.5042877197266</v>
       </c>
       <c r="JX3" t="n">
-        <v>301.4865417480469</v>
+        <v>255.6084899902344</v>
       </c>
       <c r="JY3" t="n">
-        <v>301.6895446777344</v>
+        <v>255.6119995117188</v>
       </c>
       <c r="JZ3" t="n">
-        <v>300.8216552734375</v>
+        <v>255.4856872558594</v>
       </c>
       <c r="KA3" t="n">
-        <v>303.1399536132812</v>
+        <v>255.0523223876953</v>
       </c>
       <c r="KB3" t="n">
-        <v>307.1299743652344</v>
+        <v>255.0410614013672</v>
       </c>
       <c r="KC3" t="n">
-        <v>313.5967102050781</v>
+        <v>256.7402954101562</v>
       </c>
       <c r="KD3" t="n">
-        <v>351.271728515625</v>
+        <v>260.4929504394531</v>
       </c>
       <c r="KE3" t="n">
-        <v>355.9625854492188</v>
+        <v>289.4837646484375</v>
       </c>
       <c r="KF3" t="n">
-        <v>366.9014282226562</v>
+        <v>271.0923767089844</v>
       </c>
       <c r="KG3" t="n">
-        <v>375.3693237304688</v>
+        <v>263.4170837402344</v>
       </c>
       <c r="KH3" t="n">
-        <v>376.1639099121094</v>
+        <v>263.3157043457031</v>
       </c>
       <c r="KI3" t="n">
-        <v>374.4939270019531</v>
+        <v>271.2981567382812</v>
       </c>
       <c r="KJ3" t="n">
-        <v>373.1703796386719</v>
+        <v>281.2810668945312</v>
       </c>
       <c r="KK3" t="n">
-        <v>378.36376953125</v>
+        <v>279.3229675292969</v>
       </c>
       <c r="KL3" t="n">
-        <v>385.4713134765625</v>
+        <v>278.1820983886719</v>
       </c>
       <c r="KM3" t="n">
-        <v>393.4348754882812</v>
+        <v>277.4211730957031</v>
       </c>
       <c r="KN3" t="n">
-        <v>393.7813720703125</v>
+        <v>283.8404541015625</v>
       </c>
       <c r="KO3" t="n">
-        <v>386.1529235839844</v>
+        <v>302.4922180175781</v>
       </c>
       <c r="KP3" t="n">
-        <v>378.4136657714844</v>
+        <v>313.5506286621094</v>
       </c>
       <c r="KQ3" t="n">
-        <v>367.9828186035156</v>
+        <v>316.6766357421875</v>
       </c>
       <c r="KR3" t="n">
-        <v>365.9282531738281</v>
+        <v>316.8274536132812</v>
       </c>
       <c r="KS3" t="n">
-        <v>358.3073120117188</v>
+        <v>313.855224609375</v>
       </c>
       <c r="KT3" t="n">
-        <v>359.8250732421875</v>
+        <v>320.3578796386719</v>
       </c>
       <c r="KU3" t="n">
-        <v>370.2153015136719</v>
+        <v>328.6051635742188</v>
       </c>
       <c r="KV3" t="n">
-        <v>382.4610900878906</v>
+        <v>339.8699340820312</v>
       </c>
       <c r="KW3" t="n">
-        <v>393.728759765625</v>
+        <v>349.7005310058594</v>
       </c>
       <c r="KX3" t="n">
-        <v>401.7619018554688</v>
+        <v>352.503173828125</v>
       </c>
       <c r="KY3" t="n">
-        <v>408.3260192871094</v>
+        <v>355.4039306640625</v>
       </c>
       <c r="KZ3" t="n">
-        <v>417.9696655273438</v>
+        <v>357.4299926757812</v>
       </c>
       <c r="LA3" t="n">
-        <v>460.0599670410156</v>
+        <v>358.2039794921875</v>
       </c>
       <c r="LB3" t="n">
-        <v>470.3405456542969</v>
+        <v>363.9085693359375</v>
       </c>
       <c r="LC3" t="n">
-        <v>471.5133056640625</v>
+        <v>382.2056579589844</v>
       </c>
       <c r="LD3" t="n">
-        <v>475.111083984375</v>
+        <v>402.1492004394531</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>414.9282836914062</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>413.0508728027344</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>410.9526672363281</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>402.9129943847656</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>374.4021606445312</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>436.0907592773438</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>488.5646362304688</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>676.2535400390625</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>744.0750732421875</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>756.89453125</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>759.2671508789062</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>748.4387817382812</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>761.110107421875</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>766.8192138671875</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>776.8519287109375</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>815.6384887695312</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>165.8644409179688</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>151.1917877197266</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>112.0371856689453</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>123.1441955566406</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>138.3555145263672</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>126.9954452514648</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>112.3473892211914</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>113.3835983276367</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>117.3777236938477</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>133.87744140625</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>130.6233978271484</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>1147.937255859375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>424.629638671875</v>
+        <v>581.462890625</v>
       </c>
       <c r="B4" t="n">
-        <v>439.0185546875</v>
+        <v>622.7040405273438</v>
       </c>
       <c r="C4" t="n">
-        <v>462.4111022949219</v>
+        <v>662.39013671875</v>
       </c>
       <c r="D4" t="n">
-        <v>496.1530151367188</v>
+        <v>697.3828125</v>
       </c>
       <c r="E4" t="n">
-        <v>540.0595092773438</v>
+        <v>726.0615234375</v>
       </c>
       <c r="F4" t="n">
-        <v>590.7767944335938</v>
+        <v>751.8060913085938</v>
       </c>
       <c r="G4" t="n">
-        <v>644.8246459960938</v>
+        <v>780.7925415039062</v>
       </c>
       <c r="H4" t="n">
-        <v>699.9502563476562</v>
+        <v>813.2001953125</v>
       </c>
       <c r="I4" t="n">
-        <v>762.0928344726562</v>
+        <v>843.837158203125</v>
       </c>
       <c r="J4" t="n">
-        <v>833.8143920898438</v>
+        <v>879.9400024414062</v>
       </c>
       <c r="K4" t="n">
-        <v>905.8060302734375</v>
+        <v>915.998046875</v>
       </c>
       <c r="L4" t="n">
-        <v>979.644287109375</v>
+        <v>957.9987182617188</v>
       </c>
       <c r="M4" t="n">
-        <v>1053.35302734375</v>
+        <v>1006.396606445312</v>
       </c>
       <c r="N4" t="n">
-        <v>1120.964477539062</v>
+        <v>1052.104248046875</v>
       </c>
       <c r="O4" t="n">
-        <v>1184.281982421875</v>
+        <v>1092.252319335938</v>
       </c>
       <c r="P4" t="n">
-        <v>1252.193481445312</v>
+        <v>1133.88427734375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1315.63671875</v>
+        <v>1176.316162109375</v>
       </c>
       <c r="R4" t="n">
-        <v>1381.17138671875</v>
+        <v>1210.887084960938</v>
       </c>
       <c r="S4" t="n">
-        <v>1430.85205078125</v>
+        <v>1245.135498046875</v>
       </c>
       <c r="T4" t="n">
-        <v>1467.977294921875</v>
+        <v>1280.119262695312</v>
       </c>
       <c r="U4" t="n">
-        <v>1509.757080078125</v>
+        <v>1320.997314453125</v>
       </c>
       <c r="V4" t="n">
-        <v>1536.150512695312</v>
+        <v>1349.623413085938</v>
       </c>
       <c r="W4" t="n">
-        <v>1547.547973632812</v>
+        <v>1376.179443359375</v>
       </c>
       <c r="X4" t="n">
-        <v>1555.376586914062</v>
+        <v>1403.122924804688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1555.203857421875</v>
+        <v>1444.0703125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1559.293090820312</v>
+        <v>1485.176391601562</v>
       </c>
       <c r="AA4" t="n">
-        <v>1582.309814453125</v>
+        <v>1508.240478515625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1605.092041015625</v>
+        <v>1539.03857421875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1622.071044921875</v>
+        <v>1564.047119140625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1643.591552734375</v>
+        <v>1601.356079101562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1656.002563476562</v>
+        <v>1635.646728515625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1665.884643554688</v>
+        <v>1687.800170898438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1681.19287109375</v>
+        <v>1692.798950195312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1692.608642578125</v>
+        <v>1715.516845703125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1711.472412109375</v>
+        <v>1743.493041992188</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1723.885375976562</v>
+        <v>1763.458251953125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1735.367065429688</v>
+        <v>1777.170288085938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1747.886474609375</v>
+        <v>1795.367431640625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1764.73779296875</v>
+        <v>1808.01611328125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1773.176147460938</v>
+        <v>1816.400756835938</v>
       </c>
       <c r="AO4" t="n">
-        <v>1794.388549804688</v>
+        <v>1831.021484375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1816.170654296875</v>
+        <v>1854.05712890625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1820.732421875</v>
+        <v>1867.622924804688</v>
       </c>
       <c r="AR4" t="n">
-        <v>1823.397216796875</v>
+        <v>1879.958618164062</v>
       </c>
       <c r="AS4" t="n">
-        <v>1825.643310546875</v>
+        <v>1882.760620117188</v>
       </c>
       <c r="AT4" t="n">
-        <v>1831.510986328125</v>
+        <v>1885.965942382812</v>
       </c>
       <c r="AU4" t="n">
-        <v>1835.346435546875</v>
+        <v>1896.66796875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1837.3388671875</v>
+        <v>1903.6728515625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1839.808837890625</v>
+        <v>1913.301025390625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1838.043701171875</v>
+        <v>1938.300415039062</v>
       </c>
       <c r="AY4" t="n">
-        <v>1836.64306640625</v>
+        <v>1948.697509765625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1837.204956054688</v>
+        <v>1972.110717773438</v>
       </c>
       <c r="BA4" t="n">
-        <v>1841.830200195312</v>
+        <v>1995.600830078125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1851.218627929688</v>
+        <v>2008.738403320312</v>
       </c>
       <c r="BC4" t="n">
-        <v>1853.117797851562</v>
+        <v>2017.987915039062</v>
       </c>
       <c r="BD4" t="n">
-        <v>1856.652465820312</v>
+        <v>2013.422241210938</v>
       </c>
       <c r="BE4" t="n">
-        <v>1861.923828125</v>
+        <v>2021.23046875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1867.115844726562</v>
+        <v>2034.56201171875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1880.560668945312</v>
+        <v>2054.4482421875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1877.970336914062</v>
+        <v>2062.4736328125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1863.130493164062</v>
+        <v>2079.85009765625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1843.135864257812</v>
+        <v>2108.675537109375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1825.911254882812</v>
+        <v>2098.16552734375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1819.845458984375</v>
+        <v>2080.06884765625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1822.008178710938</v>
+        <v>2070.196533203125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1840.365844726562</v>
+        <v>2067.56103515625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1852.16357421875</v>
+        <v>2089.893798828125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1858.357421875</v>
+        <v>2114.052978515625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1871.473510742188</v>
+        <v>2133.581787109375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1895.253540039062</v>
+        <v>2141.7890625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1904.028198242188</v>
+        <v>2143.680908203125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1912.800537109375</v>
+        <v>2137.431884765625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1930.532348632812</v>
+        <v>2128.31103515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1941.0966796875</v>
+        <v>2093.45458984375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1951.733520507812</v>
+        <v>2063.28955078125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1959.333862304688</v>
+        <v>2054.107666015625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1954.472778320312</v>
+        <v>2050.53076171875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1951.813354492188</v>
+        <v>2043.450561523438</v>
       </c>
       <c r="CA4" t="n">
-        <v>1944.61865234375</v>
+        <v>2031.538696289062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1940.571044921875</v>
+        <v>2018.734375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1916.318969726562</v>
+        <v>2014.752319335938</v>
       </c>
       <c r="CD4" t="n">
-        <v>1918.335815429688</v>
+        <v>2015.34228515625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1906.338500976562</v>
+        <v>2015.7880859375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1893.674438476562</v>
+        <v>2021.570678710938</v>
       </c>
       <c r="CG4" t="n">
-        <v>1882.31591796875</v>
+        <v>2027.297973632812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1871.219482421875</v>
+        <v>2038.453491210938</v>
       </c>
       <c r="CI4" t="n">
-        <v>1863.017944335938</v>
+        <v>2041.866943359375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1847.80712890625</v>
+        <v>2044.269653320312</v>
       </c>
       <c r="CK4" t="n">
-        <v>1837.006103515625</v>
+        <v>2045.840087890625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1831.582641601562</v>
+        <v>2051.005615234375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1827.364135742188</v>
+        <v>2050.02685546875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1821.528076171875</v>
+        <v>2049.39306640625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1814.273193359375</v>
+        <v>2046.400146484375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1811.421875</v>
+        <v>2042.221557617188</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1792.502563476562</v>
+        <v>2083.2587890625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1810.1669921875</v>
+        <v>2051.453125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1827.161865234375</v>
+        <v>2021.755859375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1843.983642578125</v>
+        <v>2086.48291015625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1851.972534179688</v>
+        <v>2068.35791015625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1855.128540039062</v>
+        <v>2078.171630859375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1855.078125</v>
+        <v>2055.800537109375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1858.239624023438</v>
+        <v>2065.6669921875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1874.003540039062</v>
+        <v>2060.3037109375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1876.94921875</v>
+        <v>2056.328369140625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1878.243408203125</v>
+        <v>2046.87841796875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1870.594848632812</v>
+        <v>1986.04248046875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1867.787109375</v>
+        <v>1963.9287109375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1867.18212890625</v>
+        <v>1947.434326171875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1865.66650390625</v>
+        <v>1949.299560546875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1864.05615234375</v>
+        <v>1971.932983398438</v>
       </c>
       <c r="DG4" t="n">
-        <v>1862.770385742188</v>
+        <v>2205.4599609375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1859.718505859375</v>
+        <v>2010.0888671875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1847.920043945312</v>
+        <v>2027.402099609375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1836.079345703125</v>
+        <v>2040.595092773438</v>
       </c>
       <c r="DK4" t="n">
-        <v>1801.362182617188</v>
+        <v>2081.1904296875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1801.365478515625</v>
+        <v>2103.35107421875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1806.123657226562</v>
+        <v>2133.35400390625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1825.326782226562</v>
+        <v>2124.38134765625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1835.578125</v>
+        <v>2127.746337890625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1845.206909179688</v>
+        <v>2125.6220703125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1851.149169921875</v>
+        <v>2125.67138671875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1854.918823242188</v>
+        <v>2125.1787109375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1863.106201171875</v>
+        <v>2124.9501953125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1874.719360351562</v>
+        <v>2123.41259765625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1876.7001953125</v>
+        <v>2122.023193359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1873.619873046875</v>
+        <v>2113.025146484375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1873.313720703125</v>
+        <v>2075.7822265625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1873.505126953125</v>
+        <v>2059.6259765625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1872.72802734375</v>
+        <v>2037.66748046875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1871.08544921875</v>
+        <v>2191.73095703125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1859.525146484375</v>
+        <v>2212.66796875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1847.68798828125</v>
+        <v>2199.1298828125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1841.025390625</v>
+        <v>2180.637451171875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1831.112915039062</v>
+        <v>2066.119384765625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1827.754516601562</v>
+        <v>1959.86083984375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1822.397094726562</v>
+        <v>1950.998168945312</v>
       </c>
       <c r="EG4" t="n">
-        <v>1816.719482421875</v>
+        <v>1949.4619140625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1820.039794921875</v>
+        <v>1955.713500976562</v>
       </c>
       <c r="EI4" t="n">
-        <v>1797.099487304688</v>
+        <v>1949.8349609375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1786.272705078125</v>
+        <v>1947.74658203125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1803.010620117188</v>
+        <v>1949.185546875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1793.28271484375</v>
+        <v>1953.525146484375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1827.669067382812</v>
+        <v>1975.5546875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1824.812744140625</v>
+        <v>2199.551513671875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1849.6572265625</v>
+        <v>2000.458984375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1855.857177734375</v>
+        <v>2049.157958984375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1853.83837890625</v>
+        <v>2082.036376953125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1871.9951171875</v>
+        <v>2123.925048828125</v>
       </c>
       <c r="ES4" t="n">
-        <v>1873.15576171875</v>
+        <v>2135.681396484375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1870.26513671875</v>
+        <v>2158.2119140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1867.8486328125</v>
+        <v>2168.529296875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1865.950439453125</v>
+        <v>2168.916015625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1853.322143554688</v>
+        <v>2169.228515625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1825.8466796875</v>
+        <v>2168.896728515625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1815.049682617188</v>
+        <v>2168.386962890625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1799.43896484375</v>
+        <v>2165.60986328125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1792.148681640625</v>
+        <v>2157.8173828125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1796.463989257812</v>
+        <v>2143.51513671875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1817.263305664062</v>
+        <v>2122.05078125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1834.756469726562</v>
+        <v>2101.26171875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1843.222778320312</v>
+        <v>2060.187744140625</v>
       </c>
       <c r="FF4" t="n">
-        <v>1848.7958984375</v>
+        <v>2019.159912109375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1860.729370117188</v>
+        <v>1997.529541015625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1865.317993164062</v>
+        <v>2275.868896484375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1868.303588867188</v>
+        <v>2276.85546875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1866.906005859375</v>
+        <v>2276.973876953125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1866.802368164062</v>
+        <v>2219.291015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1866.112182617188</v>
+        <v>2219.78369140625</v>
       </c>
       <c r="FM4" t="n">
-        <v>1865.063232421875</v>
+        <v>2219.396484375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1858.566528320312</v>
+        <v>1957.64697265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>1853.358276367188</v>
+        <v>1951.52783203125</v>
       </c>
       <c r="FP4" t="n">
-        <v>1833.689208984375</v>
+        <v>1965.041748046875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1830.989013671875</v>
+        <v>1976.11279296875</v>
       </c>
       <c r="FR4" t="n">
-        <v>1828.012817382812</v>
+        <v>1993.63818359375</v>
       </c>
       <c r="FS4" t="n">
-        <v>1825.213745117188</v>
+        <v>2047.632080078125</v>
       </c>
       <c r="FT4" t="n">
-        <v>1812.505493164062</v>
+        <v>2121.5888671875</v>
       </c>
       <c r="FU4" t="n">
-        <v>1775.815551757812</v>
+        <v>2185.25390625</v>
       </c>
       <c r="FV4" t="n">
-        <v>1772.387939453125</v>
+        <v>2193.461669921875</v>
       </c>
       <c r="FW4" t="n">
-        <v>1801.926391601562</v>
+        <v>2215.67578125</v>
       </c>
       <c r="FX4" t="n">
-        <v>1811.612060546875</v>
+        <v>2212.512451171875</v>
       </c>
       <c r="FY4" t="n">
-        <v>1832.271118164062</v>
+        <v>2214.814697265625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1842.132934570312</v>
+        <v>2208.199951171875</v>
       </c>
       <c r="GA4" t="n">
-        <v>1852.699096679688</v>
+        <v>2191.52978515625</v>
       </c>
       <c r="GB4" t="n">
-        <v>1858.522705078125</v>
+        <v>2178.8271484375</v>
       </c>
       <c r="GC4" t="n">
-        <v>1865.744140625</v>
+        <v>2176.7041015625</v>
       </c>
       <c r="GD4" t="n">
-        <v>1867.324951171875</v>
+        <v>2170.67333984375</v>
       </c>
       <c r="GE4" t="n">
-        <v>1866.383056640625</v>
+        <v>2165.079833984375</v>
       </c>
       <c r="GF4" t="n">
-        <v>1863.130981445312</v>
+        <v>2125.09423828125</v>
       </c>
       <c r="GG4" t="n">
-        <v>1864.171020507812</v>
+        <v>2063.58740234375</v>
       </c>
       <c r="GH4" t="n">
-        <v>1865.628784179688</v>
+        <v>2003.520141601562</v>
       </c>
       <c r="GI4" t="n">
-        <v>1859.27783203125</v>
+        <v>2277.9814453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1827.212890625</v>
+        <v>2277.945068359375</v>
       </c>
       <c r="GK4" t="n">
-        <v>1784.321533203125</v>
+        <v>2211.52880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>1785.597778320312</v>
+        <v>2213.544677734375</v>
       </c>
       <c r="GM4" t="n">
-        <v>1796.185791015625</v>
+        <v>2213.53759765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>1800.681640625</v>
+        <v>2220.5390625</v>
       </c>
       <c r="GO4" t="n">
-        <v>1829.8095703125</v>
+        <v>2221.94384765625</v>
       </c>
       <c r="GP4" t="n">
-        <v>1851.197143554688</v>
+        <v>2220.546142578125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1860.646240234375</v>
+        <v>2222.1923828125</v>
       </c>
       <c r="GR4" t="n">
-        <v>1874.405639648438</v>
+        <v>2223.494140625</v>
       </c>
       <c r="GS4" t="n">
-        <v>1885.741455078125</v>
+        <v>2224.860107421875</v>
       </c>
       <c r="GT4" t="n">
-        <v>1888.144897460938</v>
+        <v>2232.41259765625</v>
       </c>
       <c r="GU4" t="n">
-        <v>1885.49169921875</v>
+        <v>2233.792724609375</v>
       </c>
       <c r="GV4" t="n">
-        <v>1880.837158203125</v>
+        <v>2235.298095703125</v>
       </c>
       <c r="GW4" t="n">
-        <v>1879.97607421875</v>
+        <v>2097.892822265625</v>
       </c>
       <c r="GX4" t="n">
-        <v>1867.510131835938</v>
+        <v>2155.8232421875</v>
       </c>
       <c r="GY4" t="n">
-        <v>1842.381591796875</v>
+        <v>2192.5068359375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1820.40625</v>
+        <v>2207.662353515625</v>
       </c>
       <c r="HA4" t="n">
-        <v>1813.524536132812</v>
+        <v>2216.72998046875</v>
       </c>
       <c r="HB4" t="n">
-        <v>1804.527587890625</v>
+        <v>2218.1708984375</v>
       </c>
       <c r="HC4" t="n">
-        <v>1772.661010742188</v>
+        <v>2216.8955078125</v>
       </c>
       <c r="HD4" t="n">
-        <v>1778.802978515625</v>
+        <v>2209.9248046875</v>
       </c>
       <c r="HE4" t="n">
-        <v>1804.92529296875</v>
+        <v>2194.85791015625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1808.023193359375</v>
+        <v>2185.946533203125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1796.113891601562</v>
+        <v>2185.311767578125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1834.874755859375</v>
+        <v>2177.366943359375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1862.38818359375</v>
+        <v>2135.27783203125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1859.198364257812</v>
+        <v>2103.92431640625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1855.061279296875</v>
+        <v>2070.4365234375</v>
       </c>
       <c r="HL4" t="n">
-        <v>1852.227172851562</v>
+        <v>2025.179321289062</v>
       </c>
       <c r="HM4" t="n">
-        <v>1852.258544921875</v>
+        <v>2275.85400390625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1850.734252929688</v>
+        <v>2237.959716796875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1846.26708984375</v>
+        <v>2237.98828125</v>
       </c>
       <c r="HP4" t="n">
-        <v>1828.752563476562</v>
+        <v>2236.436767578125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1809.471069335938</v>
+        <v>2223.58544921875</v>
       </c>
       <c r="HR4" t="n">
-        <v>1788.355834960938</v>
+        <v>2226.61181640625</v>
       </c>
       <c r="HS4" t="n">
-        <v>1775.192138671875</v>
+        <v>2238.88134765625</v>
       </c>
       <c r="HT4" t="n">
-        <v>1795.011962890625</v>
+        <v>2242.1875</v>
       </c>
       <c r="HU4" t="n">
-        <v>1828.132934570312</v>
+        <v>2242.67138671875</v>
       </c>
       <c r="HV4" t="n">
-        <v>1840.1337890625</v>
+        <v>2247.4423828125</v>
       </c>
       <c r="HW4" t="n">
-        <v>1858.261596679688</v>
+        <v>2251.70751953125</v>
       </c>
       <c r="HX4" t="n">
-        <v>1869.361938476562</v>
+        <v>2156.308837890625</v>
       </c>
       <c r="HY4" t="n">
-        <v>1882.758911132812</v>
+        <v>2234.132568359375</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1885.133178710938</v>
+        <v>2253.638916015625</v>
       </c>
       <c r="IA4" t="n">
-        <v>1883.10302734375</v>
+        <v>2248.55078125</v>
       </c>
       <c r="IB4" t="n">
-        <v>1883.777954101562</v>
+        <v>2229.63427734375</v>
       </c>
       <c r="IC4" t="n">
-        <v>1882.357055664062</v>
+        <v>2225.168701171875</v>
       </c>
       <c r="ID4" t="n">
-        <v>1875.9853515625</v>
+        <v>2223.680908203125</v>
       </c>
       <c r="IE4" t="n">
-        <v>1861.546020507812</v>
+        <v>2220.229736328125</v>
       </c>
       <c r="IF4" t="n">
-        <v>1844.674438476562</v>
+        <v>2219.73681640625</v>
       </c>
       <c r="IG4" t="n">
-        <v>1828.142822265625</v>
+        <v>2215.170166015625</v>
       </c>
       <c r="IH4" t="n">
-        <v>1813.738525390625</v>
+        <v>2181.1572265625</v>
       </c>
       <c r="II4" t="n">
-        <v>1812.0283203125</v>
+        <v>2123.08251953125</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1804.58837890625</v>
+        <v>2066.6533203125</v>
       </c>
       <c r="IK4" t="n">
-        <v>1775.583251953125</v>
+        <v>2207.450439453125</v>
       </c>
       <c r="IL4" t="n">
-        <v>1778.031005859375</v>
+        <v>2207.38525390625</v>
       </c>
       <c r="IM4" t="n">
-        <v>1803.172119140625</v>
+        <v>2189.41796875</v>
       </c>
       <c r="IN4" t="n">
-        <v>1816.676391601562</v>
+        <v>2200.708251953125</v>
       </c>
       <c r="IO4" t="n">
-        <v>1831.380249023438</v>
+        <v>2207.3046875</v>
       </c>
       <c r="IP4" t="n">
-        <v>1834.099731445312</v>
+        <v>2206.9140625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1836.277099609375</v>
+        <v>2202.09033203125</v>
       </c>
       <c r="IR4" t="n">
-        <v>1845.632202148438</v>
+        <v>2232.51171875</v>
       </c>
       <c r="IS4" t="n">
-        <v>1853.785400390625</v>
+        <v>2234.962646484375</v>
       </c>
       <c r="IT4" t="n">
-        <v>1851.72021484375</v>
+        <v>2247.12109375</v>
       </c>
       <c r="IU4" t="n">
-        <v>1843.242309570312</v>
+        <v>2115.20703125</v>
       </c>
       <c r="IV4" t="n">
-        <v>1810.767333984375</v>
+        <v>2179.662109375</v>
       </c>
       <c r="IW4" t="n">
-        <v>1796.765747070312</v>
+        <v>2215.15478515625</v>
       </c>
       <c r="IX4" t="n">
-        <v>1785.921997070312</v>
+        <v>2224.9794921875</v>
       </c>
       <c r="IY4" t="n">
-        <v>1816.8134765625</v>
+        <v>2212.505615234375</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1837.040893554688</v>
+        <v>2193.06103515625</v>
       </c>
       <c r="JA4" t="n">
-        <v>1859.421508789062</v>
+        <v>2181.158935546875</v>
       </c>
       <c r="JB4" t="n">
-        <v>1874.430908203125</v>
+        <v>2179.509765625</v>
       </c>
       <c r="JC4" t="n">
-        <v>1880.1513671875</v>
+        <v>2129.103515625</v>
       </c>
       <c r="JD4" t="n">
-        <v>1889.380249023438</v>
+        <v>2100.534912109375</v>
       </c>
       <c r="JE4" t="n">
-        <v>1888.035400390625</v>
+        <v>2032.069091796875</v>
       </c>
       <c r="JF4" t="n">
-        <v>1883.29931640625</v>
+        <v>1986.466552734375</v>
       </c>
       <c r="JG4" t="n">
-        <v>1877.542846679688</v>
+        <v>1973.5654296875</v>
       </c>
       <c r="JH4" t="n">
-        <v>1862.96533203125</v>
+        <v>1963.231689453125</v>
       </c>
       <c r="JI4" t="n">
-        <v>1855.58935546875</v>
+        <v>1968.838012695312</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1835.18798828125</v>
+        <v>1964.709228515625</v>
       </c>
       <c r="JK4" t="n">
-        <v>1820.891845703125</v>
+        <v>1958.20263671875</v>
       </c>
       <c r="JL4" t="n">
-        <v>1808.145751953125</v>
+        <v>1961.613647460938</v>
       </c>
       <c r="JM4" t="n">
-        <v>1803.255859375</v>
+        <v>2021.576416015625</v>
       </c>
       <c r="JN4" t="n">
-        <v>1790.312622070312</v>
+        <v>2075.7353515625</v>
       </c>
       <c r="JO4" t="n">
-        <v>1778.33544921875</v>
+        <v>2136.289794921875</v>
       </c>
       <c r="JP4" t="n">
-        <v>1757.251342773438</v>
+        <v>2187.682373046875</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1781.864990234375</v>
+        <v>2222.314697265625</v>
       </c>
       <c r="JR4" t="n">
-        <v>1788.283935546875</v>
+        <v>2236.633544921875</v>
       </c>
       <c r="JS4" t="n">
-        <v>1811.677978515625</v>
+        <v>2228.671142578125</v>
       </c>
       <c r="JT4" t="n">
-        <v>1852.472045898438</v>
+        <v>2225.84814453125</v>
       </c>
       <c r="JU4" t="n">
-        <v>1848.128051757812</v>
+        <v>2210.720703125</v>
       </c>
       <c r="JV4" t="n">
-        <v>1845.77880859375</v>
+        <v>2200.9521484375</v>
       </c>
       <c r="JW4" t="n">
-        <v>1846.035766601562</v>
+        <v>2198.53369140625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1843.708862304688</v>
+        <v>2193.415283203125</v>
       </c>
       <c r="JY4" t="n">
-        <v>1838.37548828125</v>
+        <v>2188.007080078125</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1821.629272460938</v>
+        <v>2181.237548828125</v>
       </c>
       <c r="KA4" t="n">
-        <v>1814.455444335938</v>
+        <v>2142.373046875</v>
       </c>
       <c r="KB4" t="n">
-        <v>1793.484375</v>
+        <v>2115.602294921875</v>
       </c>
       <c r="KC4" t="n">
-        <v>1791.650512695312</v>
+        <v>2046.73974609375</v>
       </c>
       <c r="KD4" t="n">
-        <v>1747.197387695312</v>
+        <v>2013.536499023438</v>
       </c>
       <c r="KE4" t="n">
-        <v>1748.040283203125</v>
+        <v>2021.715698242188</v>
       </c>
       <c r="KF4" t="n">
-        <v>1764.650024414062</v>
+        <v>1986.537231445312</v>
       </c>
       <c r="KG4" t="n">
-        <v>1827.05126953125</v>
+        <v>1996.939819335938</v>
       </c>
       <c r="KH4" t="n">
-        <v>1862.178466796875</v>
+        <v>2044.914428710938</v>
       </c>
       <c r="KI4" t="n">
-        <v>1882.365112304688</v>
+        <v>2022.277099609375</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1864.138793945312</v>
+        <v>2017.323852539062</v>
       </c>
       <c r="KK4" t="n">
-        <v>1822.575439453125</v>
+        <v>2007.427856445312</v>
       </c>
       <c r="KL4" t="n">
-        <v>1684.245361328125</v>
+        <v>2006.029541015625</v>
       </c>
       <c r="KM4" t="n">
-        <v>1598.29443359375</v>
+        <v>1987.460327148438</v>
       </c>
       <c r="KN4" t="n">
-        <v>1500.73876953125</v>
+        <v>1996.072875976562</v>
       </c>
       <c r="KO4" t="n">
-        <v>1366.94970703125</v>
+        <v>2057.201904296875</v>
       </c>
       <c r="KP4" t="n">
-        <v>1277.034790039062</v>
+        <v>2105.992919921875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1202.6572265625</v>
+        <v>2153.585205078125</v>
       </c>
       <c r="KR4" t="n">
-        <v>1135.8662109375</v>
+        <v>2187.748779296875</v>
       </c>
       <c r="KS4" t="n">
-        <v>1069.154907226562</v>
+        <v>2165.6865234375</v>
       </c>
       <c r="KT4" t="n">
-        <v>1014.347778320312</v>
+        <v>2080.12548828125</v>
       </c>
       <c r="KU4" t="n">
-        <v>907.0572509765625</v>
+        <v>1986.1923828125</v>
       </c>
       <c r="KV4" t="n">
-        <v>818.9403686523438</v>
+        <v>1863.577026367188</v>
       </c>
       <c r="KW4" t="n">
-        <v>742.104248046875</v>
+        <v>1766.737670898438</v>
       </c>
       <c r="KX4" t="n">
-        <v>636.943359375</v>
+        <v>1598.145385742188</v>
       </c>
       <c r="KY4" t="n">
-        <v>572.7510986328125</v>
+        <v>1492.785888671875</v>
       </c>
       <c r="KZ4" t="n">
-        <v>521.8229370117188</v>
+        <v>1341.266845703125</v>
       </c>
       <c r="LA4" t="n">
-        <v>478.0589904785156</v>
+        <v>1197.691650390625</v>
       </c>
       <c r="LB4" t="n">
-        <v>449.2503356933594</v>
+        <v>1064.630493164062</v>
       </c>
       <c r="LC4" t="n">
-        <v>434.838623046875</v>
+        <v>942.1071166992188</v>
       </c>
       <c r="LD4" t="n">
-        <v>425.5518798828125</v>
+        <v>843.635009765625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>761.9775390625</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>667.8886108398438</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>603.2235107421875</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>504.9442138671875</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>425.9987182617188</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>338.2731628417969</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>265.3062744140625</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>447.2201232910156</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>403.799560546875</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>379.9676818847656</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>361.4381103515625</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>364.7968139648438</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>347.0513305664062</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>344.3382263183594</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>346.5302429199219</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>319.7775268554688</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>298.9361877441406</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>298.9745483398438</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>297.42578125</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>296.89111328125</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>296.1566772460938</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>297.2725830078125</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>297.258544921875</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>298.3214111328125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>298.3882446289062</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>299.7850036621094</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>303.558837890625</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>193.65625</v>
       </c>
     </row>
   </sheetData>
